--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaud/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A72139-1744-484D-A615-1561BD8FF621}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EDF29-9DB8-6E4B-936F-9F532A82AFE9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18920" yWindow="1720" windowWidth="34280" windowHeight="23340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeielonelmezil/Downloads/cpp-master/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaud/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC88602-831A-9944-9BBC-5709E1A7E687}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51550DA-B55E-D84F-BE63-327D124BD527}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1020" windowWidth="33780" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cppyear" sheetId="1" r:id="rId1"/>
@@ -262,10 +262,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.0000_)\ _$_ ;_ * \(#,##0.0000\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -751,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -775,25 +774,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -802,6 +782,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1164,12 +1170,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="29" width="10.83203125" style="6"/>
+    <col min="2" max="29" width="10.83203125" style="26"/>
     <col min="30" max="30" width="10.5" style="6" customWidth="1"/>
     <col min="31" max="33" width="10.83203125" style="6"/>
   </cols>
@@ -1178,88 +1184,88 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1267,90 +1273,90 @@
       <c r="A2" s="16">
         <v>1966</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="31">
         <v>5000</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="31">
         <v>600</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="31">
         <f>D2+E2</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0</v>
+      </c>
+      <c r="I2" s="31">
         <v>3</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2" s="31">
+        <v>0</v>
+      </c>
+      <c r="K2" s="31">
         <v>0.15</v>
       </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="L2" s="31">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31">
+        <v>0</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0</v>
+      </c>
+      <c r="O2" s="31">
+        <v>0</v>
+      </c>
+      <c r="P2" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0</v>
+      </c>
+      <c r="R2" s="31">
         <v>45</v>
       </c>
-      <c r="S2" s="7">
-        <v>65</v>
-      </c>
-      <c r="T2" s="7">
+      <c r="S2" s="31">
+        <v>65</v>
+      </c>
+      <c r="T2" s="31">
         <v>0.375</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="31">
         <v>0.6</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="31">
         <v>69</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="31">
         <v>69</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="31">
         <v>70</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="31">
         <f>Remarques!F2</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="7">
+      <c r="Z2" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
+      <c r="AB2" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="31">
         <v>0</v>
       </c>
       <c r="AD2" s="7"/>
@@ -1362,90 +1368,90 @@
       <c r="A3" s="16">
         <v>1967</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="31">
         <v>5000</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="31">
         <v>600</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="31">
         <f t="shared" ref="F3:F54" si="0">D3+E3</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
         <v>3</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="31">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31">
         <v>0.15</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="L3" s="31">
+        <v>0</v>
+      </c>
+      <c r="M3" s="31">
+        <v>0</v>
+      </c>
+      <c r="N3" s="31">
+        <v>0</v>
+      </c>
+      <c r="O3" s="31">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>0</v>
+      </c>
+      <c r="R3" s="31">
         <v>45</v>
       </c>
-      <c r="S3" s="7">
-        <v>65</v>
-      </c>
-      <c r="T3" s="7">
+      <c r="S3" s="31">
+        <v>65</v>
+      </c>
+      <c r="T3" s="31">
         <v>0.375</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="31">
         <v>0.6</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="31">
         <v>68</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="31">
         <v>68</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="31">
         <v>70</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="31">
         <f>Remarques!F3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="7">
+      <c r="Z3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="9">
+      <c r="AB3" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="32">
         <v>2E-3</v>
       </c>
       <c r="AD3" s="7"/>
@@ -1457,90 +1463,90 @@
       <c r="A4" s="16">
         <v>1968</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="31">
         <v>5100</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="31">
         <v>600</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
         <v>3</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="31">
         <v>0.25</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="31">
         <v>0.15</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="31">
         <v>25.5</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="31">
         <v>25.5</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="31">
         <v>25.5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="31">
         <v>25.5</v>
       </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="31">
         <v>45</v>
       </c>
-      <c r="S4" s="7">
-        <v>65</v>
-      </c>
-      <c r="T4" s="7">
+      <c r="S4" s="31">
+        <v>65</v>
+      </c>
+      <c r="T4" s="31">
         <v>0.375</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="31">
         <v>0.6</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="31">
         <v>67</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="31">
         <v>67</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="31">
         <v>70</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="31">
         <f>Remarques!F4</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
+      <c r="Z4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="9">
+      <c r="AB4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="32">
         <v>2E-3</v>
       </c>
       <c r="AD4" s="7"/>
@@ -1552,90 +1558,90 @@
       <c r="A5" s="16">
         <v>1969</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="31">
         <v>5200</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="31">
         <v>600</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
         <v>3</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="31">
         <v>0.25</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="31">
         <v>0.15</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="31">
         <v>26.01</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="31">
         <v>26.01</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="31">
         <v>26.01</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="31">
         <v>26.01</v>
       </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31">
         <v>45</v>
       </c>
-      <c r="S5" s="7">
-        <v>65</v>
-      </c>
-      <c r="T5" s="7">
+      <c r="S5" s="31">
+        <v>65</v>
+      </c>
+      <c r="T5" s="31">
         <v>0.375</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="31">
         <v>0.6</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="31">
         <v>66</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="31">
         <v>66</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="31">
         <v>70</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="31">
         <f>Remarques!F5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
+      <c r="Z5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="9">
+      <c r="AB5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="32">
         <v>2E-3</v>
       </c>
       <c r="AD5" s="7"/>
@@ -1647,90 +1653,90 @@
       <c r="A6" s="16">
         <v>1970</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="31">
         <v>5300</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="31">
         <v>600</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="31">
         <v>3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="31">
         <v>0.25</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="31">
         <v>0.15</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="31">
         <v>26.53</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="31">
         <v>26.53</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="31">
         <v>26.53</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="31">
         <v>26.53</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="31">
         <v>45</v>
       </c>
-      <c r="S6" s="7">
-        <v>65</v>
-      </c>
-      <c r="T6" s="7">
+      <c r="S6" s="31">
+        <v>65</v>
+      </c>
+      <c r="T6" s="31">
         <v>0.375</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="31">
         <v>0.6</v>
       </c>
-      <c r="V6" s="9">
-        <v>65</v>
-      </c>
-      <c r="W6" s="9">
-        <v>65</v>
-      </c>
-      <c r="X6" s="7">
+      <c r="V6" s="31">
+        <v>65</v>
+      </c>
+      <c r="W6" s="31">
+        <v>65</v>
+      </c>
+      <c r="X6" s="31">
         <v>70</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="31">
         <f>Remarques!F6</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
+      <c r="Z6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="31">
         <v>26.53</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="32">
         <v>2E-3</v>
       </c>
       <c r="AD6" s="7"/>
@@ -1742,90 +1748,90 @@
       <c r="A7" s="16">
         <v>1971</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="31">
         <v>5400</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="31">
         <v>600</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="G7" s="31">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
         <v>3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="31">
         <v>0.25</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="31">
         <v>0.15</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="31">
         <v>27.06</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="31">
         <v>27.06</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="31">
         <v>27.06</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="31">
         <v>27.06</v>
       </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="P7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="R7" s="31">
         <v>45</v>
       </c>
-      <c r="S7" s="7">
-        <v>65</v>
-      </c>
-      <c r="T7" s="7">
+      <c r="S7" s="31">
+        <v>65</v>
+      </c>
+      <c r="T7" s="31">
         <v>0.375</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="31">
         <v>0.6</v>
       </c>
-      <c r="V7" s="7">
-        <v>65</v>
-      </c>
-      <c r="W7" s="7">
-        <v>65</v>
-      </c>
-      <c r="X7" s="7">
+      <c r="V7" s="31">
+        <v>65</v>
+      </c>
+      <c r="W7" s="31">
+        <v>65</v>
+      </c>
+      <c r="X7" s="31">
         <v>70</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="31">
         <f>Remarques!F7</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
+      <c r="Z7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="31">
         <v>27.06</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="32">
         <v>2E-3</v>
       </c>
       <c r="AD7" s="7"/>
@@ -1837,90 +1843,90 @@
       <c r="A8" s="16">
         <v>1972</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="31">
         <v>5500</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="31">
         <v>600</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
         <v>3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="31">
         <v>0.25</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="31">
         <v>0.15</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="31">
         <v>27.6</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="31">
         <v>27.6</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="31">
         <v>27.6</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="31">
         <v>27.6</v>
       </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="31">
         <v>45</v>
       </c>
-      <c r="S8" s="7">
-        <v>65</v>
-      </c>
-      <c r="T8" s="7">
+      <c r="S8" s="31">
+        <v>65</v>
+      </c>
+      <c r="T8" s="31">
         <v>0.375</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="31">
         <v>0.6</v>
       </c>
-      <c r="V8" s="7">
-        <v>65</v>
-      </c>
-      <c r="W8" s="7">
-        <v>65</v>
-      </c>
-      <c r="X8" s="7">
+      <c r="V8" s="31">
+        <v>65</v>
+      </c>
+      <c r="W8" s="31">
+        <v>65</v>
+      </c>
+      <c r="X8" s="31">
         <v>70</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="31">
         <f>Remarques!F8</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
+      <c r="Z8" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="31">
         <v>80</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="32">
         <v>2E-3</v>
       </c>
       <c r="AD8" s="7"/>
@@ -1932,90 +1938,90 @@
       <c r="A9" s="16">
         <v>1973</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="31">
         <v>5600</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="31">
         <v>600</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
         <v>3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="31">
         <v>0.25</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="31">
         <v>0.15</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="31">
         <v>80</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="31">
         <v>80</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="31">
         <v>80</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="31">
         <v>80</v>
       </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31">
         <v>45</v>
       </c>
-      <c r="S9" s="7">
-        <v>65</v>
-      </c>
-      <c r="T9" s="7">
+      <c r="S9" s="31">
+        <v>65</v>
+      </c>
+      <c r="T9" s="31">
         <v>0.375</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="31">
         <v>0.6</v>
       </c>
-      <c r="V9" s="7">
-        <v>65</v>
-      </c>
-      <c r="W9" s="7">
-        <v>65</v>
-      </c>
-      <c r="X9" s="7">
+      <c r="V9" s="31">
+        <v>65</v>
+      </c>
+      <c r="W9" s="31">
+        <v>65</v>
+      </c>
+      <c r="X9" s="31">
         <v>70</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="31">
         <f>Remarques!F9</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
+      <c r="Z9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="31">
         <v>86.56</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="31">
         <v>0.03</v>
       </c>
       <c r="AD9" s="7"/>
@@ -2027,90 +2033,90 @@
       <c r="A10" s="16">
         <v>1974</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="31">
         <v>6600</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="31">
         <v>700</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
         <v>3</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="31">
         <v>0.25</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="31">
         <v>0.15</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="31">
         <v>86.56</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="31">
         <v>86.56</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="31">
         <v>86.56</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="31">
         <v>86.56</v>
       </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="P10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31">
         <v>45</v>
       </c>
-      <c r="S10" s="7">
-        <v>65</v>
-      </c>
-      <c r="T10" s="7">
+      <c r="S10" s="31">
+        <v>65</v>
+      </c>
+      <c r="T10" s="31">
         <v>0.375</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="31">
         <v>0.6</v>
       </c>
-      <c r="V10" s="7">
-        <v>65</v>
-      </c>
-      <c r="W10" s="7">
-        <v>65</v>
-      </c>
-      <c r="X10" s="7">
+      <c r="V10" s="31">
+        <v>65</v>
+      </c>
+      <c r="W10" s="31">
+        <v>65</v>
+      </c>
+      <c r="X10" s="31">
         <v>70</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="31">
         <f>Remarques!F10</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
+      <c r="Z10" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="31">
         <v>95.59</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="31">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AD10" s="7"/>
@@ -2122,90 +2128,90 @@
       <c r="A11" s="16">
         <v>1975</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="31">
         <v>7400</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="31">
         <v>700</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
         <v>3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="31">
         <v>0.25</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="31">
         <v>0.15</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="31">
         <v>95.56</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="31">
         <v>95.56</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="31">
         <v>95.56</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="31">
         <v>95.56</v>
       </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>0</v>
+      </c>
+      <c r="R11" s="31">
         <v>45</v>
       </c>
-      <c r="S11" s="7">
-        <v>65</v>
-      </c>
-      <c r="T11" s="7">
+      <c r="S11" s="31">
+        <v>65</v>
+      </c>
+      <c r="T11" s="31">
         <v>0.375</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="31">
         <v>0.6</v>
       </c>
-      <c r="V11" s="7">
-        <v>65</v>
-      </c>
-      <c r="W11" s="7">
-        <v>65</v>
-      </c>
-      <c r="X11" s="7">
+      <c r="V11" s="31">
+        <v>65</v>
+      </c>
+      <c r="W11" s="31">
+        <v>65</v>
+      </c>
+      <c r="X11" s="31">
         <v>70</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="31">
         <f>Remarques!F11</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
+      <c r="Z11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="31">
         <v>106.26</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="31">
         <v>0.104</v>
       </c>
       <c r="AD11" s="7"/>
@@ -2217,90 +2223,90 @@
       <c r="A12" s="16">
         <v>1976</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="31">
         <v>8300</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="31">
         <v>800</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
         <v>3</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="31">
         <v>0.25</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="31">
         <v>0.15</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="31">
         <v>106.26</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="31">
         <v>106.26</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="31">
         <v>106.26</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="31">
         <v>106.26</v>
       </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="P12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0</v>
+      </c>
+      <c r="R12" s="31">
         <v>45</v>
       </c>
-      <c r="S12" s="7">
-        <v>65</v>
-      </c>
-      <c r="T12" s="7">
+      <c r="S12" s="31">
+        <v>65</v>
+      </c>
+      <c r="T12" s="31">
         <v>0.375</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="31">
         <v>0.6</v>
       </c>
-      <c r="V12" s="7">
-        <v>65</v>
-      </c>
-      <c r="W12" s="7">
-        <v>65</v>
-      </c>
-      <c r="X12" s="7">
+      <c r="V12" s="31">
+        <v>65</v>
+      </c>
+      <c r="W12" s="31">
+        <v>65</v>
+      </c>
+      <c r="X12" s="31">
         <v>70</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="31">
         <f>Remarques!F12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="31">
         <v>114.96</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="31">
         <v>0.112</v>
       </c>
       <c r="AD12" s="7"/>
@@ -2312,90 +2318,90 @@
       <c r="A13" s="16">
         <v>1977</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="31">
         <v>9300</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="31">
         <v>900</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
         <v>3</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="31">
         <v>0.25</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="31">
         <v>0.15</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="31">
         <v>114.96</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="31">
         <v>114.96</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="31">
         <v>114.96</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="31">
         <v>114.96</v>
       </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="P13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>0</v>
+      </c>
+      <c r="R13" s="31">
         <v>45</v>
       </c>
-      <c r="S13" s="7">
-        <v>65</v>
-      </c>
-      <c r="T13" s="7">
+      <c r="S13" s="31">
+        <v>65</v>
+      </c>
+      <c r="T13" s="31">
         <v>0.375</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="31">
         <v>0.6</v>
       </c>
-      <c r="V13" s="7">
-        <v>65</v>
-      </c>
-      <c r="W13" s="7">
-        <v>65</v>
-      </c>
-      <c r="X13" s="7">
+      <c r="V13" s="31">
+        <v>65</v>
+      </c>
+      <c r="W13" s="31">
+        <v>65</v>
+      </c>
+      <c r="X13" s="31">
         <v>70</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="31">
         <f>Remarques!F13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="7">
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="31">
         <v>123.56</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="31">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AD13" s="7"/>
@@ -2407,90 +2413,90 @@
       <c r="A14" s="16">
         <v>1978</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="31">
         <v>10400</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="31">
         <v>1000</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
         <v>3</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="31">
         <v>0.25</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="31">
         <v>0.15</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="31">
         <v>123.56</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="31">
         <v>123.56</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="31">
         <v>123.56</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="31">
         <v>123.56</v>
       </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
+      <c r="P14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>0</v>
+      </c>
+      <c r="R14" s="31">
         <v>45</v>
       </c>
-      <c r="S14" s="7">
-        <v>65</v>
-      </c>
-      <c r="T14" s="7">
+      <c r="S14" s="31">
+        <v>65</v>
+      </c>
+      <c r="T14" s="31">
         <v>0.375</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="31">
         <v>0.6</v>
       </c>
-      <c r="V14" s="7">
-        <v>65</v>
-      </c>
-      <c r="W14" s="7">
-        <v>65</v>
-      </c>
-      <c r="X14" s="7">
+      <c r="V14" s="31">
+        <v>65</v>
+      </c>
+      <c r="W14" s="31">
+        <v>65</v>
+      </c>
+      <c r="X14" s="31">
         <v>70</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="Y14" s="31">
         <f>Remarques!F14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="31">
         <v>134.63999999999999</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="31">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD14" s="7"/>
@@ -2502,90 +2508,90 @@
       <c r="A15" s="16">
         <v>1979</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="31">
         <v>11700</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="31">
         <v>1100</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
         <v>3</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="31">
         <v>0.25</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="31">
         <v>0.15</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="31">
         <v>134.63999999999999</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="31">
         <v>134.63999999999999</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="31">
         <v>134.63999999999999</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="31">
         <v>134.63999999999999</v>
       </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
         <v>45</v>
       </c>
-      <c r="S15" s="7">
-        <v>65</v>
-      </c>
-      <c r="T15" s="7">
+      <c r="S15" s="31">
+        <v>65</v>
+      </c>
+      <c r="T15" s="31">
         <v>0.375</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="31">
         <v>0.6</v>
       </c>
-      <c r="V15" s="7">
-        <v>65</v>
-      </c>
-      <c r="W15" s="7">
-        <v>65</v>
-      </c>
-      <c r="X15" s="7">
+      <c r="V15" s="31">
+        <v>65</v>
+      </c>
+      <c r="W15" s="31">
+        <v>65</v>
+      </c>
+      <c r="X15" s="31">
         <v>70</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Y15" s="31">
         <f>Remarques!F15</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
+      <c r="Z15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="31">
         <v>146.78</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="31">
         <v>0.09</v>
       </c>
       <c r="AD15" s="7"/>
@@ -2597,90 +2603,90 @@
       <c r="A16" s="16">
         <v>1980</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="31">
         <v>13100</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="31">
         <v>1300</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
         <v>3</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="31">
         <v>0.25</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="31">
         <v>0.15</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="31">
         <v>146.78</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="31">
         <v>146.78</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="31">
         <v>146.78</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="31">
         <v>146.78</v>
       </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="31">
         <v>45</v>
       </c>
-      <c r="S16" s="7">
-        <v>65</v>
-      </c>
-      <c r="T16" s="7">
+      <c r="S16" s="31">
+        <v>65</v>
+      </c>
+      <c r="T16" s="31">
         <v>0.375</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="31">
         <v>0.6</v>
       </c>
-      <c r="V16" s="7">
-        <v>65</v>
-      </c>
-      <c r="W16" s="7">
-        <v>65</v>
-      </c>
-      <c r="X16" s="7">
+      <c r="V16" s="31">
+        <v>65</v>
+      </c>
+      <c r="W16" s="31">
+        <v>65</v>
+      </c>
+      <c r="X16" s="31">
         <v>70</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Y16" s="31">
         <f>Remarques!F16</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
+      <c r="Z16" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="31">
         <v>161.31</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="31">
         <v>0.09</v>
       </c>
       <c r="AD16" s="7"/>
@@ -2692,90 +2698,90 @@
       <c r="A17" s="16">
         <v>1981</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="31">
         <v>14700</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="31">
         <v>1400</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
         <v>3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="31">
         <v>0.25</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="31">
         <v>0.15</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="31">
         <v>161.31</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="31">
         <v>161.31</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="31">
         <v>161.31</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="31">
         <v>161.31</v>
       </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
+      <c r="P17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>0</v>
+      </c>
+      <c r="R17" s="31">
         <v>45</v>
       </c>
-      <c r="S17" s="7">
-        <v>65</v>
-      </c>
-      <c r="T17" s="7">
+      <c r="S17" s="31">
+        <v>65</v>
+      </c>
+      <c r="T17" s="31">
         <v>0.375</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="31">
         <v>0.6</v>
       </c>
-      <c r="V17" s="7">
-        <v>65</v>
-      </c>
-      <c r="W17" s="7">
-        <v>65</v>
-      </c>
-      <c r="X17" s="7">
+      <c r="V17" s="31">
+        <v>65</v>
+      </c>
+      <c r="W17" s="31">
+        <v>65</v>
+      </c>
+      <c r="X17" s="31">
         <v>70</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Y17" s="31">
         <f>Remarques!F17</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
+      <c r="Z17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="31">
         <v>181.18</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="31">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="AD17" s="7"/>
@@ -2787,90 +2793,90 @@
       <c r="A18" s="16">
         <v>1982</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="31">
         <v>16500</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="31">
         <v>1600</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
         <v>3</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="31">
         <v>0.25</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="31">
         <v>0.15</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="31">
         <v>181.18</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="31">
         <v>181.18</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="31">
         <v>181.18</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="31">
         <v>181.18</v>
       </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="P18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>0</v>
+      </c>
+      <c r="R18" s="31">
         <v>45</v>
       </c>
-      <c r="S18" s="7">
-        <v>65</v>
-      </c>
-      <c r="T18" s="7">
+      <c r="S18" s="31">
+        <v>65</v>
+      </c>
+      <c r="T18" s="31">
         <v>0.375</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="31">
         <v>0.6</v>
       </c>
-      <c r="V18" s="9">
-        <v>65</v>
-      </c>
-      <c r="W18" s="7">
-        <v>65</v>
-      </c>
-      <c r="X18" s="7">
+      <c r="V18" s="31">
+        <v>65</v>
+      </c>
+      <c r="W18" s="31">
+        <v>65</v>
+      </c>
+      <c r="X18" s="31">
         <v>70</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="31">
         <f>Remarques!F18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
+      <c r="Z18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="31">
         <v>201.44</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="31">
         <v>0.123</v>
       </c>
       <c r="AD18" s="7"/>
@@ -2882,90 +2888,90 @@
       <c r="A19" s="16">
         <v>1983</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="31">
         <v>18500</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="31">
         <v>1800</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
         <v>3</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="31">
         <v>0.25</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="31">
         <v>0.15</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="31">
         <v>201.44</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="31">
         <v>201.44</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="31">
         <v>201.44</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="31">
         <v>201.44</v>
       </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="P19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31">
         <v>45</v>
       </c>
-      <c r="S19" s="7">
-        <v>65</v>
-      </c>
-      <c r="T19" s="7">
+      <c r="S19" s="31">
+        <v>65</v>
+      </c>
+      <c r="T19" s="31">
         <v>0.375</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="31">
         <v>0.6</v>
       </c>
-      <c r="V19" s="9">
-        <v>65</v>
-      </c>
-      <c r="W19" s="7">
-        <v>65</v>
-      </c>
-      <c r="X19" s="7">
+      <c r="V19" s="31">
+        <v>65</v>
+      </c>
+      <c r="W19" s="31">
+        <v>65</v>
+      </c>
+      <c r="X19" s="31">
         <v>70</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Y19" s="31">
         <f>Remarques!F19</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
+      <c r="Z19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="31">
         <v>214.94</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="31">
         <v>0.112</v>
       </c>
       <c r="AD19" s="7"/>
@@ -2977,90 +2983,90 @@
       <c r="A20" s="16">
         <v>1984</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="31">
         <v>20800</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="31">
         <v>2000</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
         <v>3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="31">
         <v>0.25</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="31">
         <v>0.15</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="31">
         <v>214.94</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="31">
         <v>275</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="31">
         <v>214.94</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="31">
         <v>214.94</v>
       </c>
-      <c r="P20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="P20" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>0</v>
+      </c>
+      <c r="R20" s="31">
         <v>45</v>
       </c>
-      <c r="S20" s="7">
-        <v>65</v>
-      </c>
-      <c r="T20" s="7">
+      <c r="S20" s="31">
+        <v>65</v>
+      </c>
+      <c r="T20" s="31">
         <v>0.375</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="31">
         <v>0.6</v>
       </c>
-      <c r="V20" s="9">
-        <v>65</v>
-      </c>
-      <c r="W20" s="7">
-        <v>65</v>
-      </c>
-      <c r="X20" s="7">
+      <c r="V20" s="31">
+        <v>65</v>
+      </c>
+      <c r="W20" s="31">
+        <v>65</v>
+      </c>
+      <c r="X20" s="31">
         <v>70</v>
       </c>
-      <c r="Y20" s="17">
+      <c r="Y20" s="31">
         <f>Remarques!F20</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
+      <c r="Z20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="31">
         <v>224.4</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="31">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AD20" s="7"/>
@@ -3072,90 +3078,90 @@
       <c r="A21" s="16">
         <v>1985</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="31">
         <v>23400</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="31">
         <v>2300</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
         <v>3</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="31">
         <v>0.25</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="31">
         <v>0.15</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="31">
         <v>224.4</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="31">
         <v>287.10000000000002</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="31">
         <v>224.4</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="31">
         <v>224.4</v>
       </c>
-      <c r="P21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="P21" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>0</v>
+      </c>
+      <c r="R21" s="31">
         <v>45</v>
       </c>
-      <c r="S21" s="7">
-        <v>65</v>
-      </c>
-      <c r="T21" s="7">
+      <c r="S21" s="31">
+        <v>65</v>
+      </c>
+      <c r="T21" s="31">
         <v>0.375</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="31">
         <v>0.6</v>
       </c>
-      <c r="V21" s="9">
-        <v>65</v>
-      </c>
-      <c r="W21" s="7">
-        <v>65</v>
-      </c>
-      <c r="X21" s="7">
+      <c r="V21" s="31">
+        <v>65</v>
+      </c>
+      <c r="W21" s="31">
+        <v>65</v>
+      </c>
+      <c r="X21" s="31">
         <v>70</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21" s="31">
         <f>Remarques!F21</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
+      <c r="Z21" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="31">
         <v>233.4</v>
       </c>
-      <c r="AC21" s="7">
+      <c r="AC21" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="AD21" s="7"/>
@@ -3167,90 +3173,90 @@
       <c r="A22" s="16">
         <v>1986</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="31">
         <v>25800</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="31">
         <v>2500</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="31">
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="G22" s="31">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
         <v>3</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="31">
         <v>0.25</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="31">
         <v>0.15</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="31">
         <v>233.38</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="31">
         <v>298.58</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="31">
         <v>233.38</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="31">
         <v>233.38</v>
       </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="P22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0</v>
+      </c>
+      <c r="R22" s="31">
         <v>45</v>
       </c>
-      <c r="S22" s="7">
-        <v>65</v>
-      </c>
-      <c r="T22" s="7">
+      <c r="S22" s="31">
+        <v>65</v>
+      </c>
+      <c r="T22" s="31">
         <v>0.375</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="31">
         <v>0.6</v>
       </c>
-      <c r="V22" s="9">
-        <v>65</v>
-      </c>
-      <c r="W22" s="7">
-        <v>65</v>
-      </c>
-      <c r="X22" s="7">
+      <c r="V22" s="31">
+        <v>65</v>
+      </c>
+      <c r="W22" s="31">
+        <v>65</v>
+      </c>
+      <c r="X22" s="31">
         <v>70</v>
       </c>
-      <c r="Y22" s="17">
+      <c r="Y22" s="31">
         <f>Remarques!F22</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
+      <c r="Z22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="31">
         <v>242.95</v>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="31">
         <v>0.04</v>
       </c>
       <c r="AD22" s="7"/>
@@ -3262,90 +3268,90 @@
       <c r="A23" s="16">
         <v>1987</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="31">
         <v>25900</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="31">
         <v>2500</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="31">
         <v>1.9E-2</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="31">
         <v>1.9E-2</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="31">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="31">
         <v>0.06</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="31">
         <v>0.06</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="31">
         <v>3</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="31">
         <v>0.25</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="31">
         <v>0.15</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="31">
         <v>242.95</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="31">
         <v>310.82</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="31">
         <v>242.95</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="31">
         <v>242.95</v>
       </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
+      <c r="P23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>0</v>
+      </c>
+      <c r="R23" s="31">
         <v>45</v>
       </c>
-      <c r="S23" s="7">
-        <v>65</v>
-      </c>
-      <c r="T23" s="7">
+      <c r="S23" s="31">
+        <v>65</v>
+      </c>
+      <c r="T23" s="31">
         <v>0.375</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="31">
         <v>0.6</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="31">
         <v>60</v>
       </c>
-      <c r="W23" s="7">
-        <v>65</v>
-      </c>
-      <c r="X23" s="7">
+      <c r="W23" s="31">
+        <v>65</v>
+      </c>
+      <c r="X23" s="31">
         <v>70</v>
       </c>
-      <c r="Y23" s="17">
+      <c r="Y23" s="31">
         <f>Remarques!F23</f>
         <v>0.24163552123552121</v>
       </c>
-      <c r="Z23" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
+      <c r="Z23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="31">
         <v>253.64</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="31">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="AD23" s="7"/>
@@ -3357,90 +3363,90 @@
       <c r="A24" s="16">
         <v>1988</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="31">
         <v>26500</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="31">
         <v>2600</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="31">
         <v>0.02</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="31">
         <v>0.02</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="31">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="31">
         <v>0.06</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="31">
         <v>0.06</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="31">
         <v>3</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="31">
         <v>0.25</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="31">
         <v>0.15</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="31">
         <v>253.64</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="31">
         <v>324.5</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="31">
         <v>253.64</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="31">
         <v>253.64</v>
       </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
+      <c r="P24" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>0</v>
+      </c>
+      <c r="R24" s="31">
         <v>45</v>
       </c>
-      <c r="S24" s="7">
-        <v>65</v>
-      </c>
-      <c r="T24" s="7">
+      <c r="S24" s="31">
+        <v>65</v>
+      </c>
+      <c r="T24" s="31">
         <v>0.375</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="31">
         <v>0.6</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="31">
         <v>60</v>
       </c>
-      <c r="W24" s="7">
-        <v>65</v>
-      </c>
-      <c r="X24" s="7">
+      <c r="W24" s="31">
+        <v>65</v>
+      </c>
+      <c r="X24" s="31">
         <v>70</v>
       </c>
-      <c r="Y24" s="17">
+      <c r="Y24" s="31">
         <f>Remarques!F24</f>
         <v>0.24591396226415091</v>
       </c>
-      <c r="Z24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="7">
+      <c r="Z24" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AB24" s="31">
         <v>264.04000000000002</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AC24" s="31">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="AD24" s="7"/>
@@ -3452,90 +3458,90 @@
       <c r="A25" s="16">
         <v>1989</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="31">
         <v>27700</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="31">
         <v>2700</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="31">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="31">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="31">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="31">
         <v>0.06</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="31">
         <v>0.06</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="31">
         <v>3</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="31">
         <v>0.25</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="31">
         <v>0.15</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="31">
         <v>264.04000000000002</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="31">
         <v>337.8</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="31">
         <v>264.04000000000002</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="31">
         <v>264.04000000000002</v>
       </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
+      <c r="P25" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>0</v>
+      </c>
+      <c r="R25" s="31">
         <v>45</v>
       </c>
-      <c r="S25" s="7">
-        <v>65</v>
-      </c>
-      <c r="T25" s="7">
+      <c r="S25" s="31">
+        <v>65</v>
+      </c>
+      <c r="T25" s="31">
         <v>0.375</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="31">
         <v>0.6</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="31">
         <v>60</v>
       </c>
-      <c r="W25" s="7">
-        <v>65</v>
-      </c>
-      <c r="X25" s="7">
+      <c r="W25" s="31">
+        <v>65</v>
+      </c>
+      <c r="X25" s="31">
         <v>70</v>
       </c>
-      <c r="Y25" s="17">
+      <c r="Y25" s="31">
         <f>Remarques!F25</f>
         <v>0.24097472924187724</v>
       </c>
-      <c r="Z25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7">
+      <c r="Z25" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="31">
         <v>276.70999999999998</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="31">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="AD25" s="7"/>
@@ -3547,90 +3553,90 @@
       <c r="A26" s="16">
         <v>1990</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="31">
         <v>28900</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="31">
         <v>2800</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="31">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="31">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="31">
         <f t="shared" si="0"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="31">
         <v>0.06</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="31">
         <v>0.06</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="31">
         <v>3</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="31">
         <v>0.25</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="31">
         <v>0.15</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="31">
         <v>276.70999999999998</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="31">
         <v>354.01</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="31">
         <v>276.70999999999998</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="31">
         <v>276.70999999999998</v>
       </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
+      <c r="P26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+      <c r="R26" s="31">
         <v>45</v>
       </c>
-      <c r="S26" s="7">
-        <v>65</v>
-      </c>
-      <c r="T26" s="7">
+      <c r="S26" s="31">
+        <v>65</v>
+      </c>
+      <c r="T26" s="31">
         <v>0.375</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="31">
         <v>0.6</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="31">
         <v>60</v>
       </c>
-      <c r="W26" s="7">
-        <v>65</v>
-      </c>
-      <c r="X26" s="7">
+      <c r="W26" s="31">
+        <v>65</v>
+      </c>
+      <c r="X26" s="31">
         <v>70</v>
       </c>
-      <c r="Y26" s="17">
+      <c r="Y26" s="31">
         <f>Remarques!F26</f>
         <v>0.23961799307958478</v>
       </c>
-      <c r="Z26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="7">
+      <c r="Z26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="31">
         <v>289.99</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26" s="31">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AD26" s="7"/>
@@ -3642,90 +3648,90 @@
       <c r="A27" s="16">
         <v>1991</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="31">
         <v>30500</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="31">
         <v>3000</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="31">
         <v>2.3E-2</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="31">
         <v>2.3E-2</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="31">
         <f t="shared" si="0"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="31">
         <v>0.06</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="31">
         <v>0.06</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="31">
         <v>3</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="31">
         <v>0.25</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="31">
         <v>0.15</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="31">
         <v>289.99</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="31">
         <v>371</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="31">
         <v>289.99</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="31">
         <v>289.99</v>
       </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="P27" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0</v>
+      </c>
+      <c r="R27" s="31">
         <v>45</v>
       </c>
-      <c r="S27" s="7">
-        <v>65</v>
-      </c>
-      <c r="T27" s="7">
+      <c r="S27" s="31">
+        <v>65</v>
+      </c>
+      <c r="T27" s="31">
         <v>0.375</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="31">
         <v>0.6</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="31">
         <v>60</v>
       </c>
-      <c r="W27" s="7">
-        <v>65</v>
-      </c>
-      <c r="X27" s="7">
+      <c r="W27" s="31">
+        <v>65</v>
+      </c>
+      <c r="X27" s="31">
         <v>70</v>
       </c>
-      <c r="Y27" s="17">
+      <c r="Y27" s="31">
         <f>Remarques!F27</f>
         <v>0.2379777049180328</v>
       </c>
-      <c r="Z27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="7">
+      <c r="Z27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AB27" s="31">
         <v>306.81</v>
       </c>
-      <c r="AC27" s="7">
+      <c r="AC27" s="31">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AD27" s="7"/>
@@ -3737,90 +3743,90 @@
       <c r="A28" s="16">
         <v>1992</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="31">
         <v>32200</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="31">
         <v>3200</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="31">
         <v>2.4E-2</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="31">
         <v>2.4E-2</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="31">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="31">
         <v>0.06</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="31">
         <v>0.06</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="31">
         <v>3</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="31">
         <v>0.25</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="31">
         <v>0.15</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="31">
         <v>306.81</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="31">
         <v>392.52</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="31">
         <v>306.81</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="31">
         <v>306.81</v>
       </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
+      <c r="P28" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0</v>
+      </c>
+      <c r="R28" s="31">
         <v>45</v>
       </c>
-      <c r="S28" s="7">
-        <v>65</v>
-      </c>
-      <c r="T28" s="7">
+      <c r="S28" s="31">
+        <v>65</v>
+      </c>
+      <c r="T28" s="31">
         <v>0.375</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="31">
         <v>0.6</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="31">
         <v>60</v>
       </c>
-      <c r="W28" s="7">
-        <v>65</v>
-      </c>
-      <c r="X28" s="7">
+      <c r="W28" s="31">
+        <v>65</v>
+      </c>
+      <c r="X28" s="31">
         <v>70</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="Y28" s="31">
         <f>Remarques!F28</f>
         <v>0.23705962732919253</v>
       </c>
-      <c r="Z28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="7">
+      <c r="Z28" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AB28" s="31">
         <v>312.33</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AC28" s="31">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="AD28" s="7"/>
@@ -3832,90 +3838,90 @@
       <c r="A29" s="16">
         <v>1993</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="31">
         <v>33400</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="31">
         <v>3300</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="31">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="31">
         <v>0.06</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="31">
         <v>0.06</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="31">
         <v>3</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="31">
         <v>0.25</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="31">
         <v>0.15</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="31">
         <v>312.33</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="31">
         <v>399.59</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="31">
         <v>312.33</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="31">
         <v>312.33</v>
       </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
+      <c r="P29" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>0</v>
+      </c>
+      <c r="R29" s="31">
         <v>45</v>
       </c>
-      <c r="S29" s="7">
-        <v>65</v>
-      </c>
-      <c r="T29" s="7">
+      <c r="S29" s="31">
+        <v>65</v>
+      </c>
+      <c r="T29" s="31">
         <v>0.375</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="31">
         <v>0.6</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="31">
         <v>60</v>
       </c>
-      <c r="W29" s="7">
-        <v>65</v>
-      </c>
-      <c r="X29" s="7">
+      <c r="W29" s="31">
+        <v>65</v>
+      </c>
+      <c r="X29" s="31">
         <v>70</v>
       </c>
-      <c r="Y29" s="17">
+      <c r="Y29" s="31">
         <f>Remarques!F29</f>
         <v>0.2397700598802395</v>
       </c>
-      <c r="Z29" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="7">
+      <c r="Z29" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AB29" s="31">
         <v>318.26</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AC29" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD29" s="7"/>
@@ -3927,90 +3933,90 @@
       <c r="A30" s="16">
         <v>1994</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="31">
         <v>34400</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="31">
         <v>3400</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="31">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="31">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="31">
         <f t="shared" si="0"/>
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="31">
         <v>0.06</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="31">
         <v>0.06</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="31">
         <v>3</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="31">
         <v>0.25</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="31">
         <v>0.15</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="31">
         <v>318.26</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="31">
         <v>399.59</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="31">
         <v>295.51</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="31">
         <v>81.52</v>
       </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
+      <c r="P30" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>0</v>
+      </c>
+      <c r="R30" s="31">
         <v>45</v>
       </c>
-      <c r="S30" s="7">
-        <v>65</v>
-      </c>
-      <c r="T30" s="7">
+      <c r="S30" s="31">
+        <v>65</v>
+      </c>
+      <c r="T30" s="31">
         <v>0.375</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="31">
         <v>0.6</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="31">
         <v>60</v>
       </c>
-      <c r="W30" s="7">
-        <v>65</v>
-      </c>
-      <c r="X30" s="7">
+      <c r="W30" s="31">
+        <v>65</v>
+      </c>
+      <c r="X30" s="31">
         <v>70</v>
       </c>
-      <c r="Y30" s="17">
+      <c r="Y30" s="31">
         <f>Remarques!F30</f>
         <v>0.242246511627907</v>
       </c>
-      <c r="Z30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="7">
+      <c r="Z30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AB30" s="31">
         <v>318.26</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AC30" s="31">
         <v>1.9E-2</v>
       </c>
       <c r="AD30" s="7"/>
@@ -4022,90 +4028,90 @@
       <c r="A31" s="16">
         <v>1995</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="31">
         <v>34900</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="31">
         <v>3400</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="31">
         <v>2.7E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="31">
         <v>2.7E-2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="31">
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="31">
         <v>0.06</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="31">
         <v>0.06</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="31">
         <v>3</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="31">
         <v>0.25</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="31">
         <v>0.15</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="31">
         <v>318.26</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="31">
         <v>399.59</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="31">
         <v>295.51</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="31">
         <v>81.52</v>
       </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
+      <c r="P31" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>0</v>
+      </c>
+      <c r="R31" s="31">
         <v>45</v>
       </c>
-      <c r="S31" s="7">
-        <v>65</v>
-      </c>
-      <c r="T31" s="7">
+      <c r="S31" s="31">
+        <v>65</v>
+      </c>
+      <c r="T31" s="31">
         <v>0.375</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="31">
         <v>0.6</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="31">
         <v>60</v>
       </c>
-      <c r="W31" s="7">
-        <v>65</v>
-      </c>
-      <c r="X31" s="7">
+      <c r="W31" s="31">
+        <v>65</v>
+      </c>
+      <c r="X31" s="31">
         <v>70</v>
       </c>
-      <c r="Y31" s="17">
+      <c r="Y31" s="31">
         <f>Remarques!F31</f>
         <v>0.24522292263610315</v>
       </c>
-      <c r="Z31" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="7">
+      <c r="Z31" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AB31" s="31">
         <v>325.58</v>
       </c>
-      <c r="AC31" s="9">
+      <c r="AC31" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD31" s="7"/>
@@ -4117,90 +4123,90 @@
       <c r="A32" s="16">
         <v>1996</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="31">
         <v>35400</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="31">
         <v>3500</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="31">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="31">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="31">
         <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="31">
         <v>0.06</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="31">
         <v>0.06</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="31">
         <v>3</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="31">
         <v>0.25</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="31">
         <v>0.15</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="31">
         <v>325.58</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="31">
         <v>399.59</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="31">
         <v>302.31</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="31">
         <v>83.39</v>
       </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
+      <c r="P32" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>0</v>
+      </c>
+      <c r="R32" s="31">
         <v>45</v>
       </c>
-      <c r="S32" s="7">
-        <v>65</v>
-      </c>
-      <c r="T32" s="7">
+      <c r="S32" s="31">
+        <v>65</v>
+      </c>
+      <c r="T32" s="31">
         <v>0.375</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="31">
         <v>0.6</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="31">
         <v>60</v>
       </c>
-      <c r="W32" s="7">
-        <v>65</v>
-      </c>
-      <c r="X32" s="7">
+      <c r="W32" s="31">
+        <v>65</v>
+      </c>
+      <c r="X32" s="31">
         <v>70</v>
       </c>
-      <c r="Y32" s="17">
+      <c r="Y32" s="31">
         <f>Remarques!F32</f>
         <v>0.24646779661016952</v>
       </c>
-      <c r="Z32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7">
+      <c r="Z32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AB32" s="31">
         <v>330.46</v>
       </c>
-      <c r="AC32" s="9">
+      <c r="AC32" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD32" s="7"/>
@@ -4212,90 +4218,90 @@
       <c r="A33" s="16">
         <v>1997</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="31">
         <v>35800</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="31">
         <v>3500</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="31">
         <v>0.03</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="31">
         <v>0.03</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="31">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="31">
         <v>0.06</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="31">
         <v>0.06</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="31">
         <v>3</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="31">
         <v>0.25</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="31">
         <v>0.15</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="31">
         <v>330.46</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="31">
         <v>399.59</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="31">
         <v>306.83999999999997</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="31">
         <v>84.64</v>
       </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
+      <c r="P33" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>0</v>
+      </c>
+      <c r="R33" s="31">
         <v>45</v>
       </c>
-      <c r="S33" s="7">
-        <v>65</v>
-      </c>
-      <c r="T33" s="7">
+      <c r="S33" s="31">
+        <v>65</v>
+      </c>
+      <c r="T33" s="31">
         <v>0.375</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="31">
         <v>0.6</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="31">
         <v>60</v>
       </c>
-      <c r="W33" s="7">
-        <v>65</v>
-      </c>
-      <c r="X33" s="7">
+      <c r="W33" s="31">
+        <v>65</v>
+      </c>
+      <c r="X33" s="31">
         <v>70</v>
       </c>
-      <c r="Y33" s="17">
+      <c r="Y33" s="31">
         <f>Remarques!F33</f>
         <v>0.24697541899441339</v>
       </c>
-      <c r="Z33" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="7">
+      <c r="Z33" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AB33" s="31">
         <v>336.74</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AC33" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD33" s="7"/>
@@ -4307,90 +4313,90 @@
       <c r="A34" s="16">
         <v>1998</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="31">
         <v>36900</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="31">
         <v>3500</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="31">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="31">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="31">
         <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="31">
         <v>0.06</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="31">
         <v>0.06</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="31">
         <v>4</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="31">
         <v>0.25</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="31">
         <v>0.15</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="31">
         <v>336.74</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="31">
         <v>399.59</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="31">
         <v>312.67</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="31">
         <v>86.25</v>
       </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
+      <c r="P34" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>0</v>
+      </c>
+      <c r="R34" s="31">
         <v>45</v>
       </c>
-      <c r="S34" s="7">
-        <v>65</v>
-      </c>
-      <c r="T34" s="7">
+      <c r="S34" s="31">
+        <v>65</v>
+      </c>
+      <c r="T34" s="31">
         <v>0.375</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="31">
         <v>0.6</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="31">
         <v>60</v>
       </c>
-      <c r="W34" s="7">
-        <v>65</v>
-      </c>
-      <c r="X34" s="7">
+      <c r="W34" s="31">
+        <v>65</v>
+      </c>
+      <c r="X34" s="31">
         <v>70</v>
       </c>
-      <c r="Y34" s="17">
+      <c r="Y34" s="31">
         <f>Remarques!F34</f>
         <v>0.24220813008130079</v>
       </c>
-      <c r="Z34" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="7">
+      <c r="Z34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="31">
         <v>339.77</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AC34" s="31">
         <v>1.9E-2</v>
       </c>
       <c r="AD34" s="7"/>
@@ -4402,90 +4408,90 @@
       <c r="A35" s="16">
         <v>1999</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="31">
         <v>37400</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="31">
         <v>3500</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="31">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="31">
         <v>0.06</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="31">
         <v>0.06</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="31">
         <v>5</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="31">
         <v>0.25</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="31">
         <v>0.15</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="31">
         <v>339.77</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="31">
         <v>399.59</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="31">
         <v>315.48</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="31">
         <v>87.03</v>
       </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
+      <c r="P35" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>0</v>
+      </c>
+      <c r="R35" s="31">
         <v>45</v>
       </c>
-      <c r="S35" s="7">
-        <v>65</v>
-      </c>
-      <c r="T35" s="7">
+      <c r="S35" s="31">
+        <v>65</v>
+      </c>
+      <c r="T35" s="31">
         <v>0.375</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="31">
         <v>0.6</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="31">
         <v>60</v>
       </c>
-      <c r="W35" s="7">
-        <v>65</v>
-      </c>
-      <c r="X35" s="7">
+      <c r="W35" s="31">
+        <v>65</v>
+      </c>
+      <c r="X35" s="31">
         <v>70</v>
       </c>
-      <c r="Y35" s="17">
+      <c r="Y35" s="31">
         <f>Remarques!F35</f>
         <v>0.24117754010695186</v>
       </c>
-      <c r="Z35" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="7">
+      <c r="Z35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB35" s="31">
         <v>345.21</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AC35" s="31">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD35" s="7"/>
@@ -4497,90 +4503,90 @@
       <c r="A36" s="16">
         <v>2000</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="31">
         <v>37600</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="31">
         <v>3500</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="31">
         <f t="shared" si="0"/>
         <v>7.8E-2</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="31">
         <v>0.06</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="31">
         <v>0.06</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="31">
         <v>5</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="31">
         <v>0.25</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="31">
         <v>0.15</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="31">
         <v>345.21</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="31">
         <v>399.59</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="31">
         <v>320.52999999999997</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="31">
         <v>88.42</v>
       </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
+      <c r="P36" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="32">
+        <v>0</v>
+      </c>
+      <c r="R36" s="31">
         <v>45</v>
       </c>
-      <c r="S36" s="7">
-        <v>65</v>
-      </c>
-      <c r="T36" s="7">
+      <c r="S36" s="31">
+        <v>65</v>
+      </c>
+      <c r="T36" s="31">
         <v>0.375</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="31">
         <v>0.6</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="31">
         <v>60</v>
       </c>
-      <c r="W36" s="7">
-        <v>65</v>
-      </c>
-      <c r="X36" s="7">
+      <c r="W36" s="31">
+        <v>65</v>
+      </c>
+      <c r="X36" s="31">
         <v>70</v>
       </c>
-      <c r="Y36" s="17">
+      <c r="Y36" s="31">
         <f>Remarques!F36</f>
         <v>0.24348510638297871</v>
       </c>
-      <c r="Z36" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="7">
+      <c r="Z36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AB36" s="31">
         <v>353.84</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AC36" s="31">
         <v>1.6E-2</v>
       </c>
       <c r="AD36" s="7"/>
@@ -4592,90 +4598,90 @@
       <c r="A37" s="16">
         <v>2001</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="31">
         <v>38300</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="31">
         <v>3500</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="31">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="31">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="31">
         <f t="shared" si="0"/>
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="31">
         <v>0.06</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="31">
         <v>0.06</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="31">
         <v>5</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="31">
         <v>0.25</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="31">
         <v>0.15</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="31">
         <v>353.84</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="31">
         <v>399.59</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="31">
         <v>328.54</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="31">
         <v>90.63</v>
       </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7">
+      <c r="P37" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="32">
+        <v>0</v>
+      </c>
+      <c r="R37" s="31">
         <v>45</v>
       </c>
-      <c r="S37" s="7">
-        <v>65</v>
-      </c>
-      <c r="T37" s="7">
+      <c r="S37" s="31">
+        <v>65</v>
+      </c>
+      <c r="T37" s="31">
         <v>0.375</v>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="31">
         <v>0.6</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="31">
         <v>60</v>
       </c>
-      <c r="W37" s="7">
-        <v>65</v>
-      </c>
-      <c r="X37" s="7">
+      <c r="W37" s="31">
+        <v>65</v>
+      </c>
+      <c r="X37" s="31">
         <v>70</v>
       </c>
-      <c r="Y37" s="17">
+      <c r="Y37" s="31">
         <f>Remarques!F37</f>
         <v>0.24281984334203657</v>
       </c>
-      <c r="Z37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="7">
+      <c r="Z37" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB37" s="7">
+      <c r="AB37" s="31">
         <v>364.46</v>
       </c>
-      <c r="AC37" s="7">
+      <c r="AC37" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD37" s="7"/>
@@ -4687,90 +4693,90 @@
       <c r="A38" s="16">
         <v>2002</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="31">
         <v>39100</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="31">
         <v>3500</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="31">
         <v>4.7E-2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="31">
         <v>4.7E-2</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="31">
         <f t="shared" si="0"/>
         <v>9.4E-2</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="31">
         <v>0.06</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="31">
         <v>0.06</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="31">
         <v>5</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="31">
         <v>0.25</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="31">
         <v>0.15</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="31">
         <v>364.46</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="31">
         <v>399.59</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="31">
         <v>338.4</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="31">
         <v>93.35</v>
       </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
+      <c r="P38" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="32">
+        <v>0</v>
+      </c>
+      <c r="R38" s="31">
         <v>45</v>
       </c>
-      <c r="S38" s="7">
-        <v>65</v>
-      </c>
-      <c r="T38" s="7">
+      <c r="S38" s="31">
+        <v>65</v>
+      </c>
+      <c r="T38" s="31">
         <v>0.375</v>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="31">
         <v>0.6</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="31">
         <v>60</v>
       </c>
-      <c r="W38" s="7">
-        <v>65</v>
-      </c>
-      <c r="X38" s="7">
+      <c r="W38" s="31">
+        <v>65</v>
+      </c>
+      <c r="X38" s="31">
         <v>70</v>
       </c>
-      <c r="Y38" s="17">
+      <c r="Y38" s="31">
         <f>Remarques!F38</f>
         <v>0.24207161125319693</v>
       </c>
-      <c r="Z38" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="7">
+      <c r="Z38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB38" s="7">
+      <c r="AB38" s="31">
         <v>370.29</v>
       </c>
-      <c r="AC38" s="7">
+      <c r="AC38" s="31">
         <v>0.03</v>
       </c>
       <c r="AD38" s="7"/>
@@ -4782,90 +4788,90 @@
       <c r="A39" s="16">
         <v>2003</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="31">
         <v>39900</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="31">
         <v>3500</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="31">
         <v>0.06</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="31">
         <v>0.06</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="31">
         <v>5</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="31">
         <v>0.25</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="31">
         <v>0.15</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="31">
         <v>370.29</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="31">
         <v>399.59</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="31">
         <v>343.81</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="31">
         <v>94.84</v>
       </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
+      <c r="P39" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="32">
+        <v>0</v>
+      </c>
+      <c r="R39" s="31">
         <v>45</v>
       </c>
-      <c r="S39" s="7">
-        <v>65</v>
-      </c>
-      <c r="T39" s="7">
+      <c r="S39" s="31">
+        <v>65</v>
+      </c>
+      <c r="T39" s="31">
         <v>0.375</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="31">
         <v>0.6</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="31">
         <v>60</v>
       </c>
-      <c r="W39" s="7">
-        <v>65</v>
-      </c>
-      <c r="X39" s="7">
+      <c r="W39" s="31">
+        <v>65</v>
+      </c>
+      <c r="X39" s="31">
         <v>70</v>
       </c>
-      <c r="Y39" s="17">
+      <c r="Y39" s="31">
         <f>Remarques!F39</f>
         <v>0.24097744360902257</v>
       </c>
-      <c r="Z39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="7">
+      <c r="Z39" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AB39" s="31">
         <v>382.14</v>
       </c>
-      <c r="AC39" s="7">
+      <c r="AC39" s="31">
         <v>1.6E-2</v>
       </c>
       <c r="AD39" s="7"/>
@@ -4877,90 +4883,90 @@
       <c r="A40" s="16">
         <v>2004</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="31">
         <v>40500</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="31">
         <v>3500</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="31">
         <v>0.06</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="31">
         <v>0.06</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="31">
         <v>5</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="31">
         <v>0.25</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="31">
         <v>0.15</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="31">
         <v>382.14</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="31">
         <v>399.59</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="31">
         <v>354.81</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="31">
         <v>97.87</v>
       </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
+      <c r="P40" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="32">
+        <v>0</v>
+      </c>
+      <c r="R40" s="31">
         <v>45</v>
       </c>
-      <c r="S40" s="7">
-        <v>65</v>
-      </c>
-      <c r="T40" s="7">
+      <c r="S40" s="31">
+        <v>65</v>
+      </c>
+      <c r="T40" s="31">
         <v>0.375</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="31">
         <v>0.6</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="31">
         <v>60</v>
       </c>
-      <c r="W40" s="7">
-        <v>65</v>
-      </c>
-      <c r="X40" s="7">
+      <c r="W40" s="31">
+        <v>65</v>
+      </c>
+      <c r="X40" s="31">
         <v>70</v>
       </c>
-      <c r="Y40" s="17">
+      <c r="Y40" s="31">
         <f>Remarques!F40</f>
         <v>0.24123555555555554</v>
       </c>
-      <c r="Z40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="7">
+      <c r="Z40" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AB40" s="31">
         <v>388.64</v>
       </c>
-      <c r="AC40" s="7">
+      <c r="AC40" s="31">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD40" s="7"/>
@@ -4972,90 +4978,90 @@
       <c r="A41" s="16">
         <v>2005</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="31">
         <v>41100</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="31">
         <v>3500</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="31">
         <v>0.06</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="31">
         <v>0.06</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="31">
         <v>5</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="31">
         <v>0.25</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="31">
         <v>0.15</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="31">
         <v>388.64</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="31">
         <v>399.59</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="31">
         <v>360.84</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="31">
         <v>99.53</v>
       </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
+      <c r="P41" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>0</v>
+      </c>
+      <c r="R41" s="31">
         <v>45</v>
       </c>
-      <c r="S41" s="7">
-        <v>65</v>
-      </c>
-      <c r="T41" s="7">
+      <c r="S41" s="31">
+        <v>65</v>
+      </c>
+      <c r="T41" s="31">
         <v>0.375</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="31">
         <v>0.6</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="31">
         <v>60</v>
       </c>
-      <c r="W41" s="7">
-        <v>65</v>
-      </c>
-      <c r="X41" s="7">
+      <c r="W41" s="31">
+        <v>65</v>
+      </c>
+      <c r="X41" s="31">
         <v>70</v>
       </c>
-      <c r="Y41" s="17">
+      <c r="Y41" s="31">
         <f>Remarques!F41</f>
         <v>0.24197080291970802</v>
       </c>
-      <c r="Z41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="7">
+      <c r="Z41" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AB41" s="31">
         <v>397.58</v>
       </c>
-      <c r="AC41" s="7">
+      <c r="AC41" s="31">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD41" s="7"/>
@@ -5067,90 +5073,90 @@
       <c r="A42" s="16">
         <v>2006</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="31">
         <v>42100</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="31">
         <v>3500</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="31">
         <v>0.06</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="31">
         <v>0.06</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="31">
         <v>5</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="31">
         <v>0.25</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="31">
         <v>0.15</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="31">
         <v>397.58</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="31">
         <v>399.59</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="31">
         <v>369.14</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="31">
         <v>101.82</v>
       </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
+      <c r="P42" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>0</v>
+      </c>
+      <c r="R42" s="31">
         <v>45</v>
       </c>
-      <c r="S42" s="7">
-        <v>65</v>
-      </c>
-      <c r="T42" s="7">
+      <c r="S42" s="31">
+        <v>65</v>
+      </c>
+      <c r="T42" s="31">
         <v>0.375</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="31">
         <v>0.6</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="31">
         <v>60</v>
       </c>
-      <c r="W42" s="7">
-        <v>65</v>
-      </c>
-      <c r="X42" s="7">
+      <c r="W42" s="31">
+        <v>65</v>
+      </c>
+      <c r="X42" s="31">
         <v>70</v>
       </c>
-      <c r="Y42" s="17">
+      <c r="Y42" s="31">
         <f>Remarques!F42</f>
         <v>0.24073539192399049</v>
       </c>
-      <c r="Z42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="7">
+      <c r="Z42" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB42" s="7">
+      <c r="AB42" s="31">
         <v>405.93</v>
       </c>
-      <c r="AC42" s="7">
+      <c r="AC42" s="31">
         <v>2.3E-2</v>
       </c>
       <c r="AD42" s="7"/>
@@ -5162,90 +5168,90 @@
       <c r="A43" s="16">
         <v>2007</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="31">
         <v>43700</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="31">
         <v>3500</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="31">
         <v>0.06</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="31">
         <v>0.06</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="31">
         <v>5</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="31">
         <v>0.25</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="31">
         <v>0.15</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="31">
         <v>405.93</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="31">
         <v>405.93</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="31">
         <v>376.89</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="31">
         <v>103.96</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="32">
         <v>10365</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="32">
         <v>10365</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="31">
         <v>45</v>
       </c>
-      <c r="S43" s="7">
-        <v>65</v>
-      </c>
-      <c r="T43" s="7">
+      <c r="S43" s="31">
+        <v>65</v>
+      </c>
+      <c r="T43" s="31">
         <v>0.375</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="31">
         <v>0.6</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="31">
         <v>60</v>
       </c>
-      <c r="W43" s="7">
-        <v>65</v>
-      </c>
-      <c r="X43" s="7">
+      <c r="W43" s="31">
+        <v>65</v>
+      </c>
+      <c r="X43" s="31">
         <v>70</v>
       </c>
-      <c r="Y43" s="17">
+      <c r="Y43" s="31">
         <f>Remarques!F43</f>
         <v>0.23718535469107552</v>
       </c>
-      <c r="Z43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="7">
+      <c r="Z43" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AB43" s="31">
         <v>414.05</v>
       </c>
-      <c r="AC43" s="7">
+      <c r="AC43" s="31">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD43" s="7"/>
@@ -5257,90 +5263,90 @@
       <c r="A44" s="16">
         <v>2008</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="31">
         <v>44900</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="31">
         <v>3500</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="31">
         <v>0.06</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="31">
         <v>0.06</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="31">
         <v>5</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="31">
         <v>0.25</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="31">
         <v>0.15</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="31">
         <v>414.05</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="31">
         <v>414.05</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="31">
         <v>384.43</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="31">
         <v>106.04</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="32">
         <v>10614.96</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="32">
         <v>10614.96</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="31">
         <v>45</v>
       </c>
-      <c r="S44" s="7">
-        <v>65</v>
-      </c>
-      <c r="T44" s="7">
+      <c r="S44" s="31">
+        <v>65</v>
+      </c>
+      <c r="T44" s="31">
         <v>0.375</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="31">
         <v>0.6</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="31">
         <v>60</v>
       </c>
-      <c r="W44" s="7">
-        <v>65</v>
-      </c>
-      <c r="X44" s="7">
+      <c r="W44" s="31">
+        <v>65</v>
+      </c>
+      <c r="X44" s="31">
         <v>70</v>
       </c>
-      <c r="Y44" s="17">
+      <c r="Y44" s="31">
         <f>Remarques!F44</f>
         <v>0.23639198218262808</v>
       </c>
-      <c r="Z44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="7">
+      <c r="Z44" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB44" s="7">
+      <c r="AB44" s="31">
         <v>424.4</v>
       </c>
-      <c r="AC44" s="7">
+      <c r="AC44" s="31">
         <v>0.02</v>
       </c>
       <c r="AD44" s="7"/>
@@ -5352,90 +5358,90 @@
       <c r="A45" s="16">
         <v>2009</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="31">
         <v>46300</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="31">
         <v>3500</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="31">
         <v>0.06</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="31">
         <v>0.06</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="31">
         <v>5</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="31">
         <v>0.25</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="31">
         <v>0.15</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="31">
         <v>424.4</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="31">
         <v>424.4</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="31">
         <v>394.04</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="31">
         <v>108.69</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="32">
         <v>10905</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="32">
         <v>10905</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="31">
         <v>45</v>
       </c>
-      <c r="S45" s="7">
-        <v>65</v>
-      </c>
-      <c r="T45" s="7">
+      <c r="S45" s="31">
+        <v>65</v>
+      </c>
+      <c r="T45" s="31">
         <v>0.375</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="31">
         <v>0.6</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="31">
         <v>60</v>
       </c>
-      <c r="W45" s="7">
-        <v>65</v>
-      </c>
-      <c r="X45" s="7">
+      <c r="W45" s="31">
+        <v>65</v>
+      </c>
+      <c r="X45" s="31">
         <v>70</v>
       </c>
-      <c r="Y45" s="17">
+      <c r="Y45" s="31">
         <f>Remarques!F45</f>
         <v>0.23552915766738661</v>
       </c>
-      <c r="Z45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="7">
+      <c r="Z45" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB45" s="7">
+      <c r="AB45" s="31">
         <v>426.1</v>
       </c>
-      <c r="AC45" s="7">
+      <c r="AC45" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD45" s="7"/>
@@ -5447,90 +5453,90 @@
       <c r="A46" s="16">
         <v>2010</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="31">
         <v>47200</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="31">
         <v>3500</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="31">
         <v>0.06</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="31">
         <v>0.06</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="31">
         <v>5</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="31">
         <v>0.25</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="31">
         <v>0.15</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="31">
         <v>426.1</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="31">
         <v>426.1</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="31">
         <v>395.62</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="31">
         <v>109.12</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="32">
         <v>11210.04</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="32">
         <v>11210.04</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="31">
         <v>45</v>
       </c>
-      <c r="S46" s="7">
-        <v>65</v>
-      </c>
-      <c r="T46" s="7">
+      <c r="S46" s="31">
+        <v>65</v>
+      </c>
+      <c r="T46" s="31">
         <v>0.375</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="31">
         <v>0.6</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="31">
         <v>60</v>
       </c>
-      <c r="W46" s="7">
-        <v>65</v>
-      </c>
-      <c r="X46" s="7">
+      <c r="W46" s="31">
+        <v>65</v>
+      </c>
+      <c r="X46" s="31">
         <v>70</v>
       </c>
-      <c r="Y46" s="17">
+      <c r="Y46" s="31">
         <f>Remarques!F46</f>
         <v>0.23750084745762709</v>
       </c>
-      <c r="Z46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="7">
+      <c r="Z46" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB46" s="7">
+      <c r="AB46" s="31">
         <v>433.34</v>
       </c>
-      <c r="AC46" s="7">
+      <c r="AC46" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD46" s="7"/>
@@ -5542,90 +5548,90 @@
       <c r="A47" s="16">
         <v>2011</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="31">
         <v>48300</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="31">
         <v>3500</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="31">
         <v>0.06</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="31">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="31">
         <v>5</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="31">
         <v>0.25</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="31">
         <v>0.15</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="31">
         <v>433.34</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="31">
         <v>433.34</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="31">
         <v>402.35</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="31">
         <v>110.98</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="32">
         <v>11520</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="32">
         <v>11520</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="31">
         <v>45</v>
       </c>
-      <c r="S47" s="7">
-        <v>65</v>
-      </c>
-      <c r="T47" s="7">
+      <c r="S47" s="31">
+        <v>65</v>
+      </c>
+      <c r="T47" s="31">
         <v>0.375</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="31">
         <v>0.6</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="31">
         <v>60</v>
       </c>
-      <c r="W47" s="7">
-        <v>65</v>
-      </c>
-      <c r="X47" s="7">
+      <c r="W47" s="31">
+        <v>65</v>
+      </c>
+      <c r="X47" s="31">
         <v>70</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="Y47" s="31">
         <f>Remarques!F47</f>
         <v>0.23850931677018633</v>
       </c>
-      <c r="Z47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="7">
+      <c r="Z47" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB47" s="7">
+      <c r="AB47" s="31">
         <v>445.47</v>
       </c>
-      <c r="AC47" s="7">
+      <c r="AC47" s="31">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD47" s="7"/>
@@ -5637,89 +5643,89 @@
       <c r="A48" s="16">
         <v>2012</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="31">
         <v>50100</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="31">
         <v>3500</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="31">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="31">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="31">
         <v>5</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="31">
         <v>0.25</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="31">
         <v>0.16</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="31">
         <v>445.47</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="31">
         <v>445.47</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="31">
         <v>413.62</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="31">
         <v>114.09</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="32">
         <v>11840.04</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="32">
         <v>11840.04</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="31">
         <v>45</v>
       </c>
-      <c r="S48" s="7">
-        <v>65</v>
-      </c>
-      <c r="T48" s="7">
+      <c r="S48" s="31">
+        <v>65</v>
+      </c>
+      <c r="T48" s="31">
         <v>0.375</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="31">
         <v>0.6</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="31">
         <v>60</v>
       </c>
-      <c r="W48" s="7">
-        <v>65</v>
-      </c>
-      <c r="X48" s="7">
+      <c r="W48" s="31">
+        <v>65</v>
+      </c>
+      <c r="X48" s="31">
         <v>70</v>
       </c>
-      <c r="Y48" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="7">
+      <c r="Y48" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB48" s="7">
+      <c r="AB48" s="31">
         <v>453.49</v>
       </c>
-      <c r="AC48" s="7">
+      <c r="AC48" s="31">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD48" s="7"/>
@@ -5731,89 +5737,89 @@
       <c r="A49" s="16">
         <v>2013</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="31">
         <v>51100</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="31">
         <v>3500</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="31">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="31">
         <v>5</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="31">
         <v>0.25</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="31">
         <v>0.16</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="31">
         <v>453.49</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="31">
         <v>453.49</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="31">
         <v>421.07</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="31">
         <v>116.14</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="32">
         <v>12150</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="32">
         <v>12150</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="31">
         <v>45</v>
       </c>
-      <c r="S49" s="7">
-        <v>65</v>
-      </c>
-      <c r="T49" s="7">
+      <c r="S49" s="31">
+        <v>65</v>
+      </c>
+      <c r="T49" s="31">
         <v>0.375</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="31">
         <v>0.6</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="31">
         <v>60</v>
       </c>
-      <c r="W49" s="7">
-        <v>65</v>
-      </c>
-      <c r="X49" s="7">
+      <c r="W49" s="31">
+        <v>65</v>
+      </c>
+      <c r="X49" s="31">
         <v>70</v>
       </c>
-      <c r="Y49" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="7">
+      <c r="Y49" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB49" s="7">
+      <c r="AB49" s="31">
         <v>457.57</v>
       </c>
-      <c r="AC49" s="7">
+      <c r="AC49" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD49" s="7"/>
@@ -5825,89 +5831,89 @@
       <c r="A50" s="16">
         <v>2014</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="31">
         <v>52500</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="31">
         <v>3500</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="31">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="31">
         <v>5</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="31">
         <v>0.25</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="31">
         <v>0.17</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="31">
         <v>457.57</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="31">
         <v>457.57</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="31">
         <v>424.86</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="31">
         <v>117.19</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="32">
         <v>12459.96</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="32">
         <v>12459.96</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="31">
         <v>45</v>
       </c>
-      <c r="S50" s="7">
-        <v>65</v>
-      </c>
-      <c r="T50" s="7">
+      <c r="S50" s="31">
+        <v>65</v>
+      </c>
+      <c r="T50" s="31">
         <v>0.375</v>
       </c>
-      <c r="U50" s="7">
+      <c r="U50" s="31">
         <v>0.6</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="31">
         <v>60</v>
       </c>
-      <c r="W50" s="7">
-        <v>65</v>
-      </c>
-      <c r="X50" s="7">
+      <c r="W50" s="31">
+        <v>65</v>
+      </c>
+      <c r="X50" s="31">
         <v>70</v>
       </c>
-      <c r="Y50" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="7">
+      <c r="Y50" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB50" s="7">
+      <c r="AB50" s="31">
         <v>465.81</v>
       </c>
-      <c r="AC50" s="7">
+      <c r="AC50" s="31">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD50" s="7"/>
@@ -5919,89 +5925,89 @@
       <c r="A51" s="16">
         <v>2015</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="31">
         <v>53600</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="31">
         <v>3500</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="31">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="31">
         <v>5</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="31">
         <v>0.25</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="31">
         <v>0.17</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="31">
         <v>465.81</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="31">
         <v>465.81</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="31">
         <v>432.51</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="31">
         <v>119.3</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="32">
         <v>12780</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="32">
         <v>12780</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="31">
         <v>45</v>
       </c>
-      <c r="S51" s="7">
-        <v>65</v>
-      </c>
-      <c r="T51" s="7">
+      <c r="S51" s="31">
+        <v>65</v>
+      </c>
+      <c r="T51" s="31">
         <v>0.375</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="31">
         <v>0.6</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="31">
         <v>60</v>
       </c>
-      <c r="W51" s="7">
-        <v>65</v>
-      </c>
-      <c r="X51" s="7">
+      <c r="W51" s="31">
+        <v>65</v>
+      </c>
+      <c r="X51" s="31">
         <v>70</v>
       </c>
-      <c r="Y51" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="7">
+      <c r="Y51" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB51" s="7">
+      <c r="AB51" s="31">
         <v>471.4</v>
       </c>
-      <c r="AC51" s="7">
+      <c r="AC51" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD51" s="7"/>
@@ -6013,89 +6019,89 @@
       <c r="A52" s="16">
         <v>2016</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="31">
         <v>54900</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="31">
         <v>3500</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="31">
         <v>5</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="31">
         <v>0.25</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="31">
         <v>0.17</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="31">
         <v>471.4</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="31">
         <v>471.4</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="31">
         <v>437.7</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="31">
         <v>120.73</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="32">
         <v>13110</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="32">
         <v>13110</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="31">
         <v>45</v>
       </c>
-      <c r="S52" s="7">
-        <v>65</v>
-      </c>
-      <c r="T52" s="7">
+      <c r="S52" s="31">
+        <v>65</v>
+      </c>
+      <c r="T52" s="31">
         <v>0.375</v>
       </c>
-      <c r="U52" s="7">
+      <c r="U52" s="31">
         <v>0.6</v>
       </c>
-      <c r="V52" s="7">
+      <c r="V52" s="31">
         <v>60</v>
       </c>
-      <c r="W52" s="7">
-        <v>65</v>
-      </c>
-      <c r="X52" s="7">
+      <c r="W52" s="31">
+        <v>65</v>
+      </c>
+      <c r="X52" s="31">
         <v>70</v>
       </c>
-      <c r="Y52" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="7">
+      <c r="Y52" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB52" s="7">
+      <c r="AB52" s="31">
         <v>471.4</v>
       </c>
-      <c r="AC52" s="7">
+      <c r="AC52" s="31">
         <v>1.2E-2</v>
       </c>
       <c r="AD52" s="7"/>
@@ -6107,89 +6113,89 @@
       <c r="A53" s="16">
         <v>2017</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="31">
         <v>55300</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="31">
         <v>3500</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="31">
         <v>5</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="31">
         <v>0.25</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="31">
         <v>0.17</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="31">
         <v>478</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="31">
         <v>478</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="31">
         <v>443.83</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="31">
         <v>122.42</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="32">
         <v>13370.04</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="32">
         <v>13370.04</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="31">
         <v>45</v>
       </c>
-      <c r="S53" s="7">
-        <v>65</v>
-      </c>
-      <c r="T53" s="7">
+      <c r="S53" s="31">
+        <v>65</v>
+      </c>
+      <c r="T53" s="31">
         <v>0.375</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="31">
         <v>0.6</v>
       </c>
-      <c r="V53" s="7">
+      <c r="V53" s="31">
         <v>60</v>
       </c>
-      <c r="W53" s="7">
-        <v>65</v>
-      </c>
-      <c r="X53" s="7">
+      <c r="W53" s="31">
+        <v>65</v>
+      </c>
+      <c r="X53" s="31">
         <v>70</v>
       </c>
-      <c r="Y53" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="7">
+      <c r="Y53" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB53" s="7">
+      <c r="AB53" s="31">
         <v>478</v>
       </c>
-      <c r="AC53" s="7">
+      <c r="AC53" s="31">
         <v>1.4E-2</v>
       </c>
       <c r="AD53" s="7"/>
@@ -6201,89 +6207,89 @@
       <c r="A54" s="16">
         <v>2018</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="31">
         <v>55900</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="31">
         <v>3500</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="31">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="31">
         <f t="shared" si="0"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="31">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="31">
         <v>5</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="31">
         <v>0.25</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="31">
         <v>0.17</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="31">
         <v>485.17</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="31">
         <v>485.17</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="31">
         <v>450.49</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="31">
         <v>124.26</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="32">
         <v>13610.04</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="32">
         <v>13610.04</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="31">
         <v>45</v>
       </c>
-      <c r="S54" s="7">
-        <v>65</v>
-      </c>
-      <c r="T54" s="7">
+      <c r="S54" s="31">
+        <v>65</v>
+      </c>
+      <c r="T54" s="31">
         <v>0.375</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U54" s="31">
         <v>0.6</v>
       </c>
-      <c r="V54" s="7">
+      <c r="V54" s="31">
         <v>60</v>
       </c>
-      <c r="W54" s="7">
-        <v>65</v>
-      </c>
-      <c r="X54" s="7">
+      <c r="W54" s="31">
+        <v>65</v>
+      </c>
+      <c r="X54" s="31">
         <v>70</v>
       </c>
-      <c r="Y54" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="7">
+      <c r="Y54" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="31">
         <v>0.75</v>
       </c>
-      <c r="AB54" s="7">
+      <c r="AB54" s="31">
         <v>485.17</v>
       </c>
-      <c r="AC54" s="7">
+      <c r="AC54" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD54" s="7"/>
@@ -6292,495 +6298,495 @@
       <c r="AG54" s="7"/>
     </row>
     <row r="55" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
     </row>
     <row r="56" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
     </row>
     <row r="57" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7"/>
       <c r="AG57" s="7"/>
     </row>
     <row r="58" spans="1:33" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
       <c r="AF58" s="11"/>
       <c r="AG58" s="11"/>
     </row>
     <row r="59" spans="1:33" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
       <c r="AG59" s="7"/>
     </row>
     <row r="60" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="7"/>
       <c r="AG60" s="7"/>
     </row>
     <row r="61" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
     </row>
     <row r="62" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="7"/>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="7"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="7"/>
       <c r="AG62" s="7"/>
     </row>
     <row r="63" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-      <c r="AB63" s="7"/>
-      <c r="AC63" s="7"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
     </row>
     <row r="64" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="7"/>
       <c r="AG64" s="7"/>
     </row>
     <row r="65" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7"/>
     </row>
     <row r="66" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7"/>
     </row>
     <row r="67" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
       <c r="AF67" s="7"/>
       <c r="AG67" s="7"/>
     </row>
     <row r="68" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="7"/>
       <c r="AG68" s="7"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="N69" s="16"/>
+      <c r="N69" s="27"/>
     </row>
     <row r="70" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="N70" s="16"/>
+      <c r="N70" s="27"/>
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="N71" s="16"/>
+      <c r="N71" s="27"/>
     </row>
     <row r="72" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="N72" s="16"/>
+      <c r="N72" s="27"/>
     </row>
     <row r="73" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="N73" s="16"/>
+      <c r="N73" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6796,213 +6802,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3865CD3F-2BE0-E340-AE5C-7F63633BC810}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8508,27 +8514,27 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="11"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="24"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8536,7 +8542,7 @@
       <c r="A60" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="20">
         <f>(1-E60)*C60</f>
         <v>7255.4999999999991</v>
       </c>
@@ -8554,7 +8560,7 @@
       <c r="A61" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="20">
         <f t="shared" ref="B61:B71" si="2">(1-E61)*C61</f>
         <v>7430.4719999999988</v>
       </c>
@@ -8572,7 +8578,7 @@
       <c r="A62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="20">
         <f t="shared" si="2"/>
         <v>7633.4999999999991</v>
       </c>
@@ -8590,7 +8596,7 @@
       <c r="A63" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="20">
         <f t="shared" si="2"/>
         <v>7847.0280000000002</v>
       </c>
@@ -8608,7 +8614,7 @@
       <c r="A64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="20">
         <f t="shared" si="2"/>
         <v>8063.9999999999991</v>
       </c>
@@ -8626,7 +8632,7 @@
       <c r="A65" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="20">
         <f t="shared" si="2"/>
         <v>7861.7865600000014</v>
       </c>
@@ -8645,7 +8651,7 @@
       <c r="A66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="20">
         <f t="shared" si="2"/>
         <v>7950.96</v>
       </c>
@@ -8664,7 +8670,7 @@
       <c r="A67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="20">
         <f t="shared" si="2"/>
         <v>8064.086111999999</v>
       </c>
@@ -8683,7 +8689,7 @@
       <c r="A68" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="20">
         <f t="shared" si="2"/>
         <v>8209.8719999999994</v>
       </c>
@@ -8702,7 +8708,7 @@
       <c r="A69" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="20">
         <f t="shared" si="2"/>
         <v>8390.4</v>
       </c>
@@ -8720,7 +8726,7 @@
       <c r="A70" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="20">
         <f t="shared" si="2"/>
         <v>8556.8256000000001</v>
       </c>
@@ -8738,7 +8744,7 @@
       <c r="A71" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="27">
+      <c r="B71" s="20">
         <f t="shared" si="2"/>
         <v>8710.4256000000005</v>
       </c>
@@ -8779,7 +8785,7 @@
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
@@ -13728,10 +13734,10 @@
   <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48:K54"/>
+      <selection pane="bottomRight" activeCell="Z45" sqref="Z45:Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeielonelmezil/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20472C1-3611-0C42-9597-38E0158BAA7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024BC1F-964A-644E-ABD4-A96B0C13E858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17900" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17900" windowHeight="16560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cppyear" sheetId="1" r:id="rId1"/>
@@ -1232,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T58" sqref="T58"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8889,10 +8889,10 @@
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2:AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9077,7 +9077,7 @@
       <c r="AB2" s="39">
         <v>0</v>
       </c>
-      <c r="AC2" s="39">
+      <c r="AC2" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9167,7 +9167,7 @@
       <c r="AB3" s="39">
         <v>0</v>
       </c>
-      <c r="AC3" s="39">
+      <c r="AC3" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9257,8 +9257,8 @@
       <c r="AB4" s="39">
         <v>0</v>
       </c>
-      <c r="AC4" s="39">
-        <v>2</v>
+      <c r="AC4" s="42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9347,8 +9347,8 @@
       <c r="AB5" s="39">
         <v>0</v>
       </c>
-      <c r="AC5" s="39">
-        <v>2</v>
+      <c r="AC5" s="42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9437,8 +9437,8 @@
       <c r="AB6" s="39">
         <v>26.53</v>
       </c>
-      <c r="AC6" s="39">
-        <v>2</v>
+      <c r="AC6" s="42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9527,8 +9527,8 @@
       <c r="AB7" s="39">
         <v>27.06</v>
       </c>
-      <c r="AC7" s="39">
-        <v>2</v>
+      <c r="AC7" s="42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9617,8 +9617,8 @@
       <c r="AB8" s="39">
         <v>80</v>
       </c>
-      <c r="AC8" s="39">
-        <v>2</v>
+      <c r="AC8" s="42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9707,8 +9707,8 @@
       <c r="AB9" s="39">
         <v>86.56</v>
       </c>
-      <c r="AC9" s="39">
-        <v>3</v>
+      <c r="AC9" s="42">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9797,8 +9797,8 @@
       <c r="AB10" s="39">
         <v>95.59</v>
       </c>
-      <c r="AC10" s="39">
-        <v>8.1999999999999993</v>
+      <c r="AC10" s="42">
+        <v>8.199999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9887,8 +9887,8 @@
       <c r="AB11" s="39">
         <v>106.26</v>
       </c>
-      <c r="AC11" s="39">
-        <v>10.4</v>
+      <c r="AC11" s="42">
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -9977,8 +9977,8 @@
       <c r="AB12" s="39">
         <v>114.96</v>
       </c>
-      <c r="AC12" s="39">
-        <v>11.2</v>
+      <c r="AC12" s="42">
+        <v>0.11199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10067,8 +10067,8 @@
       <c r="AB13" s="39">
         <v>123.56</v>
       </c>
-      <c r="AC13" s="39">
-        <v>8.1999999999999993</v>
+      <c r="AC13" s="42">
+        <v>8.199999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10157,8 +10157,8 @@
       <c r="AB14" s="39">
         <v>134.63999999999999</v>
       </c>
-      <c r="AC14" s="39">
-        <v>7.5</v>
+      <c r="AC14" s="42">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10247,8 +10247,8 @@
       <c r="AB15" s="39">
         <v>146.78</v>
       </c>
-      <c r="AC15" s="39">
-        <v>9</v>
+      <c r="AC15" s="42">
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10337,8 +10337,8 @@
       <c r="AB16" s="39">
         <v>161.31</v>
       </c>
-      <c r="AC16" s="39">
-        <v>9</v>
+      <c r="AC16" s="42">
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10427,8 +10427,8 @@
       <c r="AB17" s="39">
         <v>181.18</v>
       </c>
-      <c r="AC17" s="39">
-        <v>9.9</v>
+      <c r="AC17" s="42">
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10517,8 +10517,8 @@
       <c r="AB18" s="39">
         <v>201.44</v>
       </c>
-      <c r="AC18" s="39">
-        <v>12.3</v>
+      <c r="AC18" s="42">
+        <v>0.12300000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10607,8 +10607,8 @@
       <c r="AB19" s="39">
         <v>214.94</v>
       </c>
-      <c r="AC19" s="39">
-        <v>11.2</v>
+      <c r="AC19" s="42">
+        <v>0.11199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10697,8 +10697,8 @@
       <c r="AB20" s="39">
         <v>224.4</v>
       </c>
-      <c r="AC20" s="39">
-        <v>6.7</v>
+      <c r="AC20" s="42">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10787,8 +10787,8 @@
       <c r="AB21" s="39">
         <v>233.4</v>
       </c>
-      <c r="AC21" s="39">
-        <v>4.4000000000000004</v>
+      <c r="AC21" s="42">
+        <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10877,8 +10877,8 @@
       <c r="AB22" s="39">
         <v>242.95</v>
       </c>
-      <c r="AC22" s="39">
-        <v>4</v>
+      <c r="AC22" s="42">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -10967,8 +10967,8 @@
       <c r="AB23" s="39">
         <v>253.64</v>
       </c>
-      <c r="AC23" s="39">
-        <v>4.0999999999999996</v>
+      <c r="AC23" s="42">
+        <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11057,8 +11057,8 @@
       <c r="AB24" s="39">
         <v>264.04000000000002</v>
       </c>
-      <c r="AC24" s="39">
-        <v>4.4000000000000004</v>
+      <c r="AC24" s="42">
+        <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11147,8 +11147,8 @@
       <c r="AB25" s="39">
         <v>276.70999999999998</v>
       </c>
-      <c r="AC25" s="39">
-        <v>4.0999999999999996</v>
+      <c r="AC25" s="42">
+        <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11237,8 +11237,8 @@
       <c r="AB26" s="39">
         <v>289.99</v>
       </c>
-      <c r="AC26" s="39">
-        <v>4.8</v>
+      <c r="AC26" s="42">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11327,8 +11327,8 @@
       <c r="AB27" s="39">
         <v>306.81</v>
       </c>
-      <c r="AC27" s="39">
-        <v>4.8</v>
+      <c r="AC27" s="42">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11417,8 +11417,8 @@
       <c r="AB28" s="39">
         <v>312.33</v>
       </c>
-      <c r="AC28" s="39">
-        <v>5.8</v>
+      <c r="AC28" s="42">
+        <v>5.7999999999999996E-2</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11507,8 +11507,8 @@
       <c r="AB29" s="39">
         <v>318.26</v>
       </c>
-      <c r="AC29" s="39">
-        <v>1.8</v>
+      <c r="AC29" s="42">
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11597,8 +11597,8 @@
       <c r="AB30" s="39">
         <v>318.26</v>
       </c>
-      <c r="AC30" s="39">
-        <v>1.9</v>
+      <c r="AC30" s="42">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11687,7 +11687,7 @@
       <c r="AB31" s="39">
         <v>325.58</v>
       </c>
-      <c r="AC31" s="39">
+      <c r="AC31" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11777,8 +11777,8 @@
       <c r="AB32" s="39">
         <v>330.46</v>
       </c>
-      <c r="AC32" s="39">
-        <v>2.2999999999999998</v>
+      <c r="AC32" s="42">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11867,8 +11867,8 @@
       <c r="AB33" s="39">
         <v>336.74</v>
       </c>
-      <c r="AC33" s="39">
-        <v>1.5</v>
+      <c r="AC33" s="42">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -11957,8 +11957,8 @@
       <c r="AB34" s="39">
         <v>339.77</v>
       </c>
-      <c r="AC34" s="39">
-        <v>1.9</v>
+      <c r="AC34" s="42">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12047,8 +12047,8 @@
       <c r="AB35" s="39">
         <v>345.21</v>
       </c>
-      <c r="AC35" s="39">
-        <v>0.9</v>
+      <c r="AC35" s="42">
+        <v>9.0000000000000011E-3</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12137,8 +12137,8 @@
       <c r="AB36" s="39">
         <v>353.84</v>
       </c>
-      <c r="AC36" s="39">
-        <v>1.6</v>
+      <c r="AC36" s="42">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12227,8 +12227,8 @@
       <c r="AB37" s="39">
         <v>364.46</v>
       </c>
-      <c r="AC37" s="39">
-        <v>2.5</v>
+      <c r="AC37" s="42">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12317,8 +12317,8 @@
       <c r="AB38" s="39">
         <v>370.29</v>
       </c>
-      <c r="AC38" s="39">
-        <v>3</v>
+      <c r="AC38" s="42">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12407,8 +12407,8 @@
       <c r="AB39" s="39">
         <v>382.14</v>
       </c>
-      <c r="AC39" s="39">
-        <v>1.6</v>
+      <c r="AC39" s="42">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12497,8 +12497,8 @@
       <c r="AB40" s="39">
         <v>388.64</v>
       </c>
-      <c r="AC40" s="39">
-        <v>3.2</v>
+      <c r="AC40" s="42">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12587,8 +12587,8 @@
       <c r="AB41" s="39">
         <v>397.58</v>
       </c>
-      <c r="AC41" s="39">
-        <v>1.7</v>
+      <c r="AC41" s="42">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12677,8 +12677,8 @@
       <c r="AB42" s="39">
         <v>405.93</v>
       </c>
-      <c r="AC42" s="39">
-        <v>2.2999999999999998</v>
+      <c r="AC42" s="42">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12767,8 +12767,8 @@
       <c r="AB43" s="39">
         <v>414.05</v>
       </c>
-      <c r="AC43" s="39">
-        <v>2.1</v>
+      <c r="AC43" s="42">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12857,8 +12857,8 @@
       <c r="AB44" s="39">
         <v>424.4</v>
       </c>
-      <c r="AC44" s="39">
-        <v>2</v>
+      <c r="AC44" s="42">
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -12947,8 +12947,8 @@
       <c r="AB45" s="39">
         <v>426.1</v>
       </c>
-      <c r="AC45" s="39">
-        <v>2.5</v>
+      <c r="AC45" s="42">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13037,8 +13037,8 @@
       <c r="AB46" s="39">
         <v>433.34</v>
       </c>
-      <c r="AC46" s="39">
-        <v>0.4</v>
+      <c r="AC46" s="42">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13127,8 +13127,8 @@
       <c r="AB47" s="39">
         <v>445.47</v>
       </c>
-      <c r="AC47" s="39">
-        <v>1.7</v>
+      <c r="AC47" s="42">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13217,8 +13217,8 @@
       <c r="AB48" s="39">
         <v>453.49</v>
       </c>
-      <c r="AC48" s="39">
-        <v>2.8</v>
+      <c r="AC48" s="42">
+        <v>2.7999999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13307,8 +13307,8 @@
       <c r="AB49" s="39">
         <v>457.57</v>
       </c>
-      <c r="AC49" s="39">
-        <v>1.8</v>
+      <c r="AC49" s="42">
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13397,8 +13397,8 @@
       <c r="AB50" s="39">
         <v>465.81</v>
       </c>
-      <c r="AC50" s="39">
-        <v>0.9</v>
+      <c r="AC50" s="42">
+        <v>9.0000000000000011E-3</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13487,8 +13487,8 @@
       <c r="AB51" s="39">
         <v>471.4</v>
       </c>
-      <c r="AC51" s="39">
-        <v>1.8</v>
+      <c r="AC51" s="42">
+        <v>1.8000000000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13577,8 +13577,8 @@
       <c r="AB52" s="39">
         <v>471.4</v>
       </c>
-      <c r="AC52" s="39">
-        <v>1.2</v>
+      <c r="AC52" s="42">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13667,8 +13667,8 @@
       <c r="AB53" s="39">
         <v>478</v>
       </c>
-      <c r="AC53" s="39">
-        <v>1.4</v>
+      <c r="AC53" s="42">
+        <v>1.3999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13757,8 +13757,8 @@
       <c r="AB54" s="39">
         <v>485.17</v>
       </c>
-      <c r="AC54" s="39">
-        <v>1.5</v>
+      <c r="AC54" s="42">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -13839,8 +13839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F9A59A-0B8E-6B4A-B1EF-17468881AF9E}">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="P9" sqref="P9:P11"/>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="AC4" s="2">
         <f>cppyear!AC4-qpp!AC4</f>
-        <v>-1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="AC5" s="2">
         <f>cppyear!AC5-qpp!AC5</f>
-        <v>-1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="AC6" s="2">
         <f>cppyear!AC6-qpp!AC6</f>
-        <v>-1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="AC7" s="2">
         <f>cppyear!AC7-qpp!AC7</f>
-        <v>-1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="AC8" s="2">
         <f>cppyear!AC8-qpp!AC8</f>
-        <v>-1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="AC9" s="2">
         <f>cppyear!AC9-qpp!AC9</f>
-        <v>-2.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="AC10" s="2">
         <f>cppyear!AC10-qpp!AC10</f>
-        <v>-8.1179999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -15143,7 +15143,7 @@
       </c>
       <c r="AC11" s="2">
         <f>cppyear!AC11-qpp!AC11</f>
-        <v>-10.296000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="AC12" s="2">
         <f>cppyear!AC12-qpp!AC12</f>
-        <v>-11.087999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -15379,7 +15379,7 @@
       </c>
       <c r="AC13" s="2">
         <f>cppyear!AC13-qpp!AC13</f>
-        <v>-8.1179999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -15497,7 +15497,7 @@
       </c>
       <c r="AC14" s="2">
         <f>cppyear!AC14-qpp!AC14</f>
-        <v>-7.4249999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="AC15" s="2">
         <f>cppyear!AC15-qpp!AC15</f>
-        <v>-8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="AC16" s="2">
         <f>cppyear!AC16-qpp!AC16</f>
-        <v>-8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="AC17" s="2">
         <f>cppyear!AC17-qpp!AC17</f>
-        <v>-9.8010000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -15969,7 +15969,7 @@
       </c>
       <c r="AC18" s="2">
         <f>cppyear!AC18-qpp!AC18</f>
-        <v>-12.177000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="AC19" s="2">
         <f>cppyear!AC19-qpp!AC19</f>
-        <v>-11.087999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="AC20" s="2">
         <f>cppyear!AC20-qpp!AC20</f>
-        <v>-6.633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="AC21" s="2">
         <f>cppyear!AC21-qpp!AC21</f>
-        <v>-4.3560000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="AC22" s="2">
         <f>cppyear!AC22-qpp!AC22</f>
-        <v>-3.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="AC23" s="2">
         <f>cppyear!AC23-qpp!AC23</f>
-        <v>-4.0589999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="AC24" s="2">
         <f>cppyear!AC24-qpp!AC24</f>
-        <v>-4.3560000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -16795,7 +16795,7 @@
       </c>
       <c r="AC25" s="2">
         <f>cppyear!AC25-qpp!AC25</f>
-        <v>-4.0589999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -16913,7 +16913,7 @@
       </c>
       <c r="AC26" s="2">
         <f>cppyear!AC26-qpp!AC26</f>
-        <v>-4.7519999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -17031,7 +17031,7 @@
       </c>
       <c r="AC27" s="2">
         <f>cppyear!AC27-qpp!AC27</f>
-        <v>-4.7519999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="AC28" s="2">
         <f>cppyear!AC28-qpp!AC28</f>
-        <v>-5.742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="AC29" s="2">
         <f>cppyear!AC29-qpp!AC29</f>
-        <v>-1.782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="AC30" s="2">
         <f>cppyear!AC30-qpp!AC30</f>
-        <v>-1.881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="AC32" s="2">
         <f>cppyear!AC32-qpp!AC32</f>
-        <v>-2.282</v>
+        <v>-5.000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="AC33" s="2">
         <f>cppyear!AC33-qpp!AC33</f>
-        <v>-1.4850000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="AC34" s="2">
         <f>cppyear!AC34-qpp!AC34</f>
-        <v>-1.881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -17975,7 +17975,7 @@
       </c>
       <c r="AC35" s="2">
         <f>cppyear!AC35-qpp!AC35</f>
-        <v>-0.89100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="AC36" s="2">
         <f>cppyear!AC36-qpp!AC36</f>
-        <v>-1.5840000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -18211,7 +18211,7 @@
       </c>
       <c r="AC37" s="2">
         <f>cppyear!AC37-qpp!AC37</f>
-        <v>-2.4750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="AC38" s="2">
         <f>cppyear!AC38-qpp!AC38</f>
-        <v>-2.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="AC39" s="2">
         <f>cppyear!AC39-qpp!AC39</f>
-        <v>-1.5840000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -18565,7 +18565,7 @@
       </c>
       <c r="AC40" s="2">
         <f>cppyear!AC40-qpp!AC40</f>
-        <v>-3.1680000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="AC41" s="2">
         <f>cppyear!AC41-qpp!AC41</f>
-        <v>-1.6830000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="AC42" s="2">
         <f>cppyear!AC42-qpp!AC42</f>
-        <v>-2.2769999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="AC43" s="2">
         <f>cppyear!AC43-qpp!AC43</f>
-        <v>-2.0790000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -19037,7 +19037,7 @@
       </c>
       <c r="AC44" s="2">
         <f>cppyear!AC44-qpp!AC44</f>
-        <v>-1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -19155,7 +19155,7 @@
       </c>
       <c r="AC45" s="2">
         <f>cppyear!AC45-qpp!AC45</f>
-        <v>-2.4750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="AC46" s="2">
         <f>cppyear!AC46-qpp!AC46</f>
-        <v>-0.39600000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="AC47" s="2">
         <f>cppyear!AC47-qpp!AC47</f>
-        <v>-1.6830000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="AC48" s="2">
         <f>cppyear!AC48-qpp!AC48</f>
-        <v>-2.7719999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="AC49" s="2">
         <f>cppyear!AC49-qpp!AC49</f>
-        <v>-1.782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
@@ -19745,7 +19745,7 @@
       </c>
       <c r="AC50" s="2">
         <f>cppyear!AC50-qpp!AC50</f>
-        <v>-0.89100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="AC51" s="2">
         <f>cppyear!AC51-qpp!AC51</f>
-        <v>-1.782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="AC52" s="2">
         <f>cppyear!AC52-qpp!AC52</f>
-        <v>-1.1879999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="AC53" s="2">
         <f>cppyear!AC53-qpp!AC53</f>
-        <v>-1.3859999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -20217,7 +20217,7 @@
       </c>
       <c r="AC54" s="2">
         <f>cppyear!AC54-qpp!AC54</f>
-        <v>-1.4850000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">

--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanndecarie/Documents/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryroc/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE0D6D-9030-3E45-9ACC-D2123DD63E34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D5C77-75EF-754C-97F0-D238120D23D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="460" windowWidth="17900" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="20360" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cppyear" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -116,6 +116,33 @@
   <si>
     <t>cola</t>
   </si>
+  <si>
+    <t>ympe_s2</t>
+  </si>
+  <si>
+    <t>worker_s1</t>
+  </si>
+  <si>
+    <t>employer_s1</t>
+  </si>
+  <si>
+    <t>worker_s2</t>
+  </si>
+  <si>
+    <t>employer_s2</t>
+  </si>
+  <si>
+    <t>selfemp_s1</t>
+  </si>
+  <si>
+    <t>selfemp_s2</t>
+  </si>
+  <si>
+    <t>reprate_s1</t>
+  </si>
+  <si>
+    <t>reprate_s2</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +152,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +283,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -608,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -618,6 +652,10 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -973,23 +1011,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A55" sqref="A55:XFD156"/>
+      <selection pane="bottomRight" activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="29" width="10.83203125" style="1"/>
-    <col min="30" max="30" width="10.5" style="1" customWidth="1"/>
-    <col min="31" max="33" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,8 +1115,35 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1966</v>
       </c>
@@ -1166,8 +1231,35 @@
       <c r="AC2" s="8">
         <v>0</v>
       </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1967</v>
       </c>
@@ -1255,8 +1347,35 @@
       <c r="AC3" s="8">
         <v>0</v>
       </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1968</v>
       </c>
@@ -1344,8 +1463,35 @@
       <c r="AC4" s="5">
         <v>0.02</v>
       </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1969</v>
       </c>
@@ -1433,8 +1579,35 @@
       <c r="AC5" s="5">
         <v>0.02</v>
       </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1970</v>
       </c>
@@ -1522,8 +1695,35 @@
       <c r="AC6" s="5">
         <v>0.02</v>
       </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1971</v>
       </c>
@@ -1611,8 +1811,35 @@
       <c r="AC7" s="5">
         <v>0.02</v>
       </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1972</v>
       </c>
@@ -1700,8 +1927,35 @@
       <c r="AC8" s="5">
         <v>0.02</v>
       </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1973</v>
       </c>
@@ -1789,8 +2043,35 @@
       <c r="AC9" s="8">
         <v>0.03</v>
       </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1974</v>
       </c>
@@ -1878,8 +2159,35 @@
       <c r="AC10" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1975</v>
       </c>
@@ -1967,8 +2275,35 @@
       <c r="AC11" s="8">
         <v>0.104</v>
       </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1976</v>
       </c>
@@ -2056,8 +2391,35 @@
       <c r="AC12" s="8">
         <v>0.112</v>
       </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1977</v>
       </c>
@@ -2145,8 +2507,35 @@
       <c r="AC13" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1978</v>
       </c>
@@ -2234,8 +2623,35 @@
       <c r="AC14" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1979</v>
       </c>
@@ -2323,8 +2739,35 @@
       <c r="AC15" s="8">
         <v>0.09</v>
       </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1980</v>
       </c>
@@ -2412,8 +2855,35 @@
       <c r="AC16" s="8">
         <v>0.09</v>
       </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1981</v>
       </c>
@@ -2501,8 +2971,35 @@
       <c r="AC17" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1982</v>
       </c>
@@ -2590,8 +3087,35 @@
       <c r="AC18" s="8">
         <v>0.123</v>
       </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1983</v>
       </c>
@@ -2679,8 +3203,35 @@
       <c r="AC19" s="8">
         <v>0.112</v>
       </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1984</v>
       </c>
@@ -2768,8 +3319,35 @@
       <c r="AC20" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1985</v>
       </c>
@@ -2857,8 +3435,35 @@
       <c r="AC21" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1986</v>
       </c>
@@ -2946,8 +3551,35 @@
       <c r="AC22" s="8">
         <v>0.04</v>
       </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1987</v>
       </c>
@@ -3035,8 +3667,35 @@
       <c r="AC23" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1988</v>
       </c>
@@ -3124,8 +3783,35 @@
       <c r="AC24" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1989</v>
       </c>
@@ -3213,8 +3899,35 @@
       <c r="AC25" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1990</v>
       </c>
@@ -3302,8 +4015,35 @@
       <c r="AC26" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1991</v>
       </c>
@@ -3391,8 +4131,35 @@
       <c r="AC27" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1992</v>
       </c>
@@ -3480,8 +4247,35 @@
       <c r="AC28" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1993</v>
       </c>
@@ -3569,8 +4363,35 @@
       <c r="AC29" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1994</v>
       </c>
@@ -3658,8 +4479,35 @@
       <c r="AC30" s="8">
         <v>1.9E-2</v>
       </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1995</v>
       </c>
@@ -3747,8 +4595,35 @@
       <c r="AC31" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1996</v>
       </c>
@@ -3836,8 +4711,35 @@
       <c r="AC32" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1997</v>
       </c>
@@ -3925,8 +4827,35 @@
       <c r="AC33" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1998</v>
       </c>
@@ -4014,8 +4943,35 @@
       <c r="AC34" s="8">
         <v>1.9E-2</v>
       </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1999</v>
       </c>
@@ -4103,8 +5059,35 @@
       <c r="AC35" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2000</v>
       </c>
@@ -4192,8 +5175,35 @@
       <c r="AC36" s="8">
         <v>1.6E-2</v>
       </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2001</v>
       </c>
@@ -4281,8 +5291,35 @@
       <c r="AC37" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2002</v>
       </c>
@@ -4370,8 +5407,35 @@
       <c r="AC38" s="8">
         <v>0.03</v>
       </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2003</v>
       </c>
@@ -4459,8 +5523,35 @@
       <c r="AC39" s="8">
         <v>1.6E-2</v>
       </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2004</v>
       </c>
@@ -4548,8 +5639,35 @@
       <c r="AC40" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2005</v>
       </c>
@@ -4637,8 +5755,35 @@
       <c r="AC41" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2006</v>
       </c>
@@ -4726,8 +5871,35 @@
       <c r="AC42" s="8">
         <v>2.3E-2</v>
       </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2007</v>
       </c>
@@ -4815,8 +5987,35 @@
       <c r="AC43" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2008</v>
       </c>
@@ -4904,8 +6103,35 @@
       <c r="AC44" s="8">
         <v>0.02</v>
       </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2009</v>
       </c>
@@ -4993,8 +6219,35 @@
       <c r="AC45" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2010</v>
       </c>
@@ -5082,8 +6335,35 @@
       <c r="AC46" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2011</v>
       </c>
@@ -5171,8 +6451,35 @@
       <c r="AC47" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2012</v>
       </c>
@@ -5260,8 +6567,35 @@
       <c r="AC48" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2013</v>
       </c>
@@ -5349,8 +6683,35 @@
       <c r="AC49" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2014</v>
       </c>
@@ -5438,8 +6799,35 @@
       <c r="AC50" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2015</v>
       </c>
@@ -5527,8 +6915,35 @@
       <c r="AC51" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2016</v>
       </c>
@@ -5616,8 +7031,35 @@
       <c r="AC52" s="8">
         <v>1.2E-2</v>
       </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2017</v>
       </c>
@@ -5705,8 +7147,35 @@
       <c r="AC53" s="8">
         <v>1.4E-2</v>
       </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -5793,6 +7262,789 @@
       </c>
       <c r="AC54" s="8">
         <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B55" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H55" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I55" s="3">
+        <v>5</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L55" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M55" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P55" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R55" s="3">
+        <v>45</v>
+      </c>
+      <c r="S55" s="3">
+        <v>65</v>
+      </c>
+      <c r="T55" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U55" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V55" s="3">
+        <v>60</v>
+      </c>
+      <c r="W55" s="3">
+        <v>65</v>
+      </c>
+      <c r="X55" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AF55" s="10">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F56" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I56" s="3">
+        <v>5</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L56" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M56" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P56" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R56" s="3">
+        <v>45</v>
+      </c>
+      <c r="S56" s="3">
+        <v>65</v>
+      </c>
+      <c r="T56" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U56" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V56" s="3">
+        <v>60</v>
+      </c>
+      <c r="W56" s="3">
+        <v>65</v>
+      </c>
+      <c r="X56" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC56" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF56" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D57" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F57" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H57" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L57" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M57" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P57" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R57" s="3">
+        <v>45</v>
+      </c>
+      <c r="S57" s="3">
+        <v>65</v>
+      </c>
+      <c r="T57" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U57" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V57" s="3">
+        <v>60</v>
+      </c>
+      <c r="W57" s="3">
+        <v>65</v>
+      </c>
+      <c r="X57" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC57" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AF57" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G58" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H58" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L58" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M58" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P58" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R58" s="3">
+        <v>45</v>
+      </c>
+      <c r="S58" s="3">
+        <v>65</v>
+      </c>
+      <c r="T58" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U58" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V58" s="3">
+        <v>60</v>
+      </c>
+      <c r="W58" s="3">
+        <v>65</v>
+      </c>
+      <c r="X58" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC58" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="10">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF58" s="10">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G59" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H59" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L59" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M59" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P59" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R59" s="3">
+        <v>45</v>
+      </c>
+      <c r="S59" s="3">
+        <v>65</v>
+      </c>
+      <c r="T59" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V59" s="3">
+        <v>60</v>
+      </c>
+      <c r="W59" s="3">
+        <v>65</v>
+      </c>
+      <c r="X59" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB59" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC59" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AF59" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B60" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G60" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H60" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L60" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M60" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P60" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R60" s="3">
+        <v>45</v>
+      </c>
+      <c r="S60" s="3">
+        <v>65</v>
+      </c>
+      <c r="T60" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U60" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V60" s="3">
+        <v>60</v>
+      </c>
+      <c r="W60" s="3">
+        <v>65</v>
+      </c>
+      <c r="X60" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB60" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC60" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD60" s="10">
+        <v>1.07</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AF60" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AG60" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AH60" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AI60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ60" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AK60" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL60" s="12">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="3">
+        <v>57400</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G61" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H61" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L61" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="M61" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9">
+        <v>193.66</v>
+      </c>
+      <c r="P61" s="11">
+        <v>13854.96</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>13854.96</v>
+      </c>
+      <c r="R61" s="3">
+        <v>45</v>
+      </c>
+      <c r="S61" s="3">
+        <v>65</v>
+      </c>
+      <c r="T61" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="U61" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="V61" s="3">
+        <v>60</v>
+      </c>
+      <c r="W61" s="3">
+        <v>65</v>
+      </c>
+      <c r="X61" s="3">
+        <v>70</v>
+      </c>
+      <c r="AA61" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AB61" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="AC61" s="9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD61" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AE61" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AF61" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AG61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AH61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AI61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ61" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AK61" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="AL61" s="12">
+        <v>0.33329999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerryroc/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Documents/GitHub/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D5C77-75EF-754C-97F0-D238120D23D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBEFF2E-B40B-9F42-84FD-4D73E7CB73D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="20360" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cppyear" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -861,7 +861,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1014,15 +1014,17 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD54" sqref="AD54"/>
+      <selection pane="bottomRight" activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="29" width="10.83203125" style="1"/>
+    <col min="2" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="29" width="10.83203125" style="1"/>
     <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7404,7 +7406,8 @@
         <v>2020</v>
       </c>
       <c r="B56" s="3">
-        <v>57400</v>
+        <f>B55*1.03</f>
+        <v>59122</v>
       </c>
       <c r="C56" s="3">
         <v>3500</v>
@@ -7433,21 +7436,25 @@
       <c r="K56" s="3">
         <v>0.17</v>
       </c>
-      <c r="L56" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="M56" s="9">
-        <v>496.36</v>
+      <c r="L56" s="3">
+        <f>L55*1.03</f>
+        <v>511.25080000000003</v>
+      </c>
+      <c r="M56" s="3">
+        <f>M55*1.03</f>
+        <v>511.25080000000003</v>
       </c>
       <c r="N56" s="9"/>
       <c r="O56" s="9">
         <v>193.66</v>
       </c>
-      <c r="P56" s="11">
-        <v>13854.96</v>
-      </c>
-      <c r="Q56" s="9">
-        <v>13854.96</v>
+      <c r="P56" s="3">
+        <f>P55*1.03</f>
+        <v>14270.6088</v>
+      </c>
+      <c r="Q56" s="3">
+        <f>Q55*1.03</f>
+        <v>14270.6088</v>
       </c>
       <c r="R56" s="3">
         <v>45</v>
@@ -7512,7 +7519,8 @@
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>57400</v>
+        <f t="shared" ref="B57:B61" si="0">B56*1.03</f>
+        <v>60895.66</v>
       </c>
       <c r="C57" s="3">
         <v>3500</v>
@@ -7541,21 +7549,25 @@
       <c r="K57" s="3">
         <v>0.17</v>
       </c>
-      <c r="L57" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="M57" s="9">
-        <v>496.36</v>
+      <c r="L57" s="3">
+        <f t="shared" ref="L57:M61" si="1">L56*1.03</f>
+        <v>526.58832400000006</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="1"/>
+        <v>526.58832400000006</v>
       </c>
       <c r="N57" s="9"/>
       <c r="O57" s="9">
         <v>193.66</v>
       </c>
-      <c r="P57" s="11">
-        <v>13854.96</v>
-      </c>
-      <c r="Q57" s="9">
-        <v>13854.96</v>
+      <c r="P57" s="3">
+        <f t="shared" ref="P57:Q61" si="2">P56*1.03</f>
+        <v>14698.727064000001</v>
+      </c>
+      <c r="Q57" s="3">
+        <f t="shared" si="2"/>
+        <v>14698.727064000001</v>
       </c>
       <c r="R57" s="3">
         <v>45</v>
@@ -7620,7 +7632,8 @@
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>57400</v>
+        <f t="shared" si="0"/>
+        <v>62722.529800000004</v>
       </c>
       <c r="C58" s="3">
         <v>3500</v>
@@ -7649,21 +7662,25 @@
       <c r="K58" s="3">
         <v>0.17</v>
       </c>
-      <c r="L58" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="M58" s="9">
-        <v>496.36</v>
+      <c r="L58" s="3">
+        <f t="shared" si="1"/>
+        <v>542.38597372000004</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="1"/>
+        <v>542.38597372000004</v>
       </c>
       <c r="N58" s="9"/>
       <c r="O58" s="9">
         <v>193.66</v>
       </c>
-      <c r="P58" s="11">
-        <v>13854.96</v>
-      </c>
-      <c r="Q58" s="9">
-        <v>13854.96</v>
+      <c r="P58" s="3">
+        <f t="shared" si="2"/>
+        <v>15139.688875920001</v>
+      </c>
+      <c r="Q58" s="3">
+        <f t="shared" si="2"/>
+        <v>15139.688875920001</v>
       </c>
       <c r="R58" s="3">
         <v>45</v>
@@ -7728,7 +7745,8 @@
         <v>2023</v>
       </c>
       <c r="B59" s="3">
-        <v>57400</v>
+        <f t="shared" si="0"/>
+        <v>64604.205694000004</v>
       </c>
       <c r="C59" s="3">
         <v>3500</v>
@@ -7757,21 +7775,25 @@
       <c r="K59" s="3">
         <v>0.17</v>
       </c>
-      <c r="L59" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="M59" s="9">
-        <v>496.36</v>
+      <c r="L59" s="3">
+        <f t="shared" si="1"/>
+        <v>558.65755293160009</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="1"/>
+        <v>558.65755293160009</v>
       </c>
       <c r="N59" s="9"/>
       <c r="O59" s="9">
         <v>193.66</v>
       </c>
-      <c r="P59" s="11">
-        <v>13854.96</v>
-      </c>
-      <c r="Q59" s="9">
-        <v>13854.96</v>
+      <c r="P59" s="3">
+        <f t="shared" si="2"/>
+        <v>15593.879542197601</v>
+      </c>
+      <c r="Q59" s="3">
+        <f t="shared" si="2"/>
+        <v>15593.879542197601</v>
       </c>
       <c r="R59" s="3">
         <v>45</v>
@@ -7836,7 +7858,8 @@
         <v>2024</v>
       </c>
       <c r="B60" s="3">
-        <v>57400</v>
+        <f t="shared" si="0"/>
+        <v>66542.331864820007</v>
       </c>
       <c r="C60" s="3">
         <v>3500</v>
@@ -7865,21 +7888,25 @@
       <c r="K60" s="3">
         <v>0.17</v>
       </c>
-      <c r="L60" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="M60" s="9">
-        <v>496.36</v>
+      <c r="L60" s="3">
+        <f t="shared" si="1"/>
+        <v>575.41727951954806</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="1"/>
+        <v>575.41727951954806</v>
       </c>
       <c r="N60" s="9"/>
       <c r="O60" s="9">
         <v>193.66</v>
       </c>
-      <c r="P60" s="11">
-        <v>13854.96</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>13854.96</v>
+      <c r="P60" s="3">
+        <f t="shared" si="2"/>
+        <v>16061.695928463529</v>
+      </c>
+      <c r="Q60" s="3">
+        <f t="shared" si="2"/>
+        <v>16061.695928463529</v>
       </c>
       <c r="R60" s="3">
         <v>45</v>
@@ -7944,7 +7971,8 @@
         <v>2025</v>
       </c>
       <c r="B61" s="3">
-        <v>57400</v>
+        <f t="shared" si="0"/>
+        <v>68538.601820764612</v>
       </c>
       <c r="C61" s="3">
         <v>3500</v>
@@ -7973,21 +8001,25 @@
       <c r="K61" s="3">
         <v>0.17</v>
       </c>
-      <c r="L61" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="M61" s="9">
-        <v>496.36</v>
+      <c r="L61" s="3">
+        <f t="shared" si="1"/>
+        <v>592.67979790513448</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="1"/>
+        <v>592.67979790513448</v>
       </c>
       <c r="N61" s="9"/>
       <c r="O61" s="9">
         <v>193.66</v>
       </c>
-      <c r="P61" s="11">
-        <v>13854.96</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>13854.96</v>
+      <c r="P61" s="3">
+        <f t="shared" si="2"/>
+        <v>16543.546806317434</v>
+      </c>
+      <c r="Q61" s="3">
+        <f t="shared" si="2"/>
+        <v>16543.546806317434</v>
       </c>
       <c r="R61" s="3">
         <v>45</v>

--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judith/Documents/GitHub/cpp/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/git/cpp/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBEFF2E-B40B-9F42-84FD-4D73E7CB73D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="46120" windowHeight="25300"/>
   </bookViews>
   <sheets>
     <sheet name="cppyear" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -90,9 +95,6 @@
     <t>lra</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>supp</t>
   </si>
   <si>
@@ -143,11 +145,17 @@
   <si>
     <t>reprate_s2</t>
   </si>
+  <si>
+    <t>supp_s1</t>
+  </si>
+  <si>
+    <t>supp_s2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -642,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -656,50 +664,53 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1010,26 +1021,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S71" sqref="S71"/>
+      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="11" width="10.83203125" style="1"/>
     <col min="12" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="29" width="10.83203125" style="1"/>
-    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="28" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,16 +1076,16 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -1106,15 +1118,15 @@
         <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="10" t="s">
@@ -1141,11 +1153,14 @@
       <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1966</v>
       </c>
@@ -1222,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="Z2" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA2" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1257,11 +1272,14 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1967</v>
       </c>
@@ -1338,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1373,11 +1391,14 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1968</v>
       </c>
@@ -1454,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="Z4" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA4" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
         <v>0.02</v>
       </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1489,11 +1510,14 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1969</v>
       </c>
@@ -1570,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="Z5" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
         <v>0.02</v>
       </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1605,11 +1629,14 @@
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1970</v>
       </c>
@@ -1686,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="Z6" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB6" s="6">
         <v>26.53</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AB6" s="5">
         <v>0.02</v>
       </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1721,11 +1748,14 @@
       <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1971</v>
       </c>
@@ -1802,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="Z7" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA7" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB7" s="6">
         <v>27.06</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AB7" s="5">
         <v>0.02</v>
       </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1837,11 +1867,14 @@
       <c r="AK7">
         <v>0</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1972</v>
       </c>
@@ -1918,19 +1951,19 @@
         <v>0</v>
       </c>
       <c r="Z8" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB8" s="6">
         <v>80</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AB8" s="5">
         <v>0.02</v>
       </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1953,11 +1986,14 @@
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1973</v>
       </c>
@@ -2034,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="Z9" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA9" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB9" s="6">
         <v>86.56</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AB9" s="8">
         <v>0.03</v>
       </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2069,11 +2105,14 @@
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1974</v>
       </c>
@@ -2150,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="Z10" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA10" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB10" s="6">
         <v>95.59</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AB10" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2185,11 +2224,14 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1975</v>
       </c>
@@ -2266,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="Z11" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB11" s="6">
         <v>106.26</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AB11" s="8">
         <v>0.104</v>
       </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2301,11 +2343,14 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1976</v>
       </c>
@@ -2382,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="Z12" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA12" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB12" s="6">
         <v>114.96</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AB12" s="8">
         <v>0.112</v>
       </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2417,11 +2462,14 @@
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1977</v>
       </c>
@@ -2498,19 +2546,19 @@
         <v>0</v>
       </c>
       <c r="Z13" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA13" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB13" s="6">
         <v>123.56</v>
       </c>
-      <c r="AC13" s="8">
+      <c r="AB13" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2533,11 +2581,14 @@
       <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1978</v>
       </c>
@@ -2614,19 +2665,19 @@
         <v>0</v>
       </c>
       <c r="Z14" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA14" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB14" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AB14" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2649,11 +2700,14 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1979</v>
       </c>
@@ -2730,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="Z15" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA15" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB15" s="6">
         <v>146.78</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AB15" s="8">
         <v>0.09</v>
       </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2765,11 +2819,14 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1980</v>
       </c>
@@ -2846,19 +2903,19 @@
         <v>0</v>
       </c>
       <c r="Z16" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA16" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB16" s="6">
         <v>161.31</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AB16" s="8">
         <v>0.09</v>
       </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2881,11 +2938,14 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1981</v>
       </c>
@@ -2962,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="Z17" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA17" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB17" s="6">
         <v>181.18</v>
       </c>
-      <c r="AC17" s="8">
+      <c r="AB17" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2997,11 +3057,14 @@
       <c r="AK17">
         <v>0</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1982</v>
       </c>
@@ -3078,19 +3141,19 @@
         <v>0</v>
       </c>
       <c r="Z18" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA18" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB18" s="6">
         <v>201.44</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AB18" s="8">
         <v>0.123</v>
       </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3113,11 +3176,14 @@
       <c r="AK18">
         <v>0</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1983</v>
       </c>
@@ -3194,19 +3260,19 @@
         <v>0</v>
       </c>
       <c r="Z19" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA19" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB19" s="6">
         <v>214.94</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AB19" s="8">
         <v>0.112</v>
       </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3229,11 +3295,14 @@
       <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1984</v>
       </c>
@@ -3310,19 +3379,19 @@
         <v>0</v>
       </c>
       <c r="Z20" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA20" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB20" s="6">
         <v>224.4</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AB20" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3345,11 +3414,14 @@
       <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1985</v>
       </c>
@@ -3426,19 +3498,19 @@
         <v>0</v>
       </c>
       <c r="Z21" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA21" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB21" s="6">
         <v>233.4</v>
       </c>
-      <c r="AC21" s="8">
+      <c r="AB21" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3461,11 +3533,14 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1986</v>
       </c>
@@ -3542,19 +3617,19 @@
         <v>0</v>
       </c>
       <c r="Z22" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA22" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB22" s="6">
         <v>242.95</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AB22" s="8">
         <v>0.04</v>
       </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3577,11 +3652,14 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1987</v>
       </c>
@@ -3654,23 +3732,23 @@
       <c r="X23" s="6">
         <v>70</v>
       </c>
-      <c r="Y23" s="7">
-        <v>0.24163552123552121</v>
+      <c r="Y23" s="6">
+        <v>0</v>
       </c>
       <c r="Z23" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA23" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB23" s="6">
         <v>253.64</v>
       </c>
-      <c r="AC23" s="8">
+      <c r="AB23" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3693,11 +3771,14 @@
       <c r="AK23">
         <v>0</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1988</v>
       </c>
@@ -3770,23 +3851,23 @@
       <c r="X24" s="6">
         <v>70</v>
       </c>
-      <c r="Y24" s="7">
-        <v>0.24591396226415091</v>
+      <c r="Y24" s="6">
+        <v>0</v>
       </c>
       <c r="Z24" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA24" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB24" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AB24" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3809,11 +3890,14 @@
       <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1989</v>
       </c>
@@ -3886,23 +3970,23 @@
       <c r="X25" s="6">
         <v>70</v>
       </c>
-      <c r="Y25" s="7">
-        <v>0.24097472924187724</v>
+      <c r="Y25" s="6">
+        <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA25" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB25" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="AC25" s="8">
+      <c r="AB25" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3925,11 +4009,14 @@
       <c r="AK25">
         <v>0</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1990</v>
       </c>
@@ -4002,23 +4089,23 @@
       <c r="X26" s="6">
         <v>70</v>
       </c>
-      <c r="Y26" s="7">
-        <v>0.23961799307958478</v>
+      <c r="Y26" s="6">
+        <v>0</v>
       </c>
       <c r="Z26" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA26" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB26" s="6">
         <v>289.99</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AB26" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
       <c r="AD26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4041,11 +4128,14 @@
       <c r="AK26">
         <v>0</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1991</v>
       </c>
@@ -4118,23 +4208,23 @@
       <c r="X27" s="6">
         <v>70</v>
       </c>
-      <c r="Y27" s="7">
-        <v>0.2379777049180328</v>
+      <c r="Y27" s="6">
+        <v>0</v>
       </c>
       <c r="Z27" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA27" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB27" s="6">
         <v>306.81</v>
       </c>
-      <c r="AC27" s="8">
+      <c r="AB27" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -4157,11 +4247,14 @@
       <c r="AK27">
         <v>0</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1992</v>
       </c>
@@ -4234,23 +4327,23 @@
       <c r="X28" s="6">
         <v>70</v>
       </c>
-      <c r="Y28" s="7">
-        <v>0.23705962732919253</v>
+      <c r="Y28" s="6">
+        <v>0</v>
       </c>
       <c r="Z28" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA28" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB28" s="6">
         <v>312.33</v>
       </c>
-      <c r="AC28" s="8">
+      <c r="AB28" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4273,11 +4366,14 @@
       <c r="AK28">
         <v>0</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1993</v>
       </c>
@@ -4350,23 +4446,23 @@
       <c r="X29" s="6">
         <v>70</v>
       </c>
-      <c r="Y29" s="7">
-        <v>0.2397700598802395</v>
+      <c r="Y29" s="6">
+        <v>0</v>
       </c>
       <c r="Z29" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB29" s="6">
         <v>318.26</v>
       </c>
-      <c r="AC29" s="8">
+      <c r="AB29" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
       <c r="AD29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4389,11 +4485,14 @@
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1994</v>
       </c>
@@ -4466,23 +4565,23 @@
       <c r="X30" s="6">
         <v>70</v>
       </c>
-      <c r="Y30" s="7">
-        <v>0.242246511627907</v>
+      <c r="Y30" s="6">
+        <v>0</v>
       </c>
       <c r="Z30" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB30" s="6">
         <v>318.26</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AB30" s="8">
         <v>1.9E-2</v>
       </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -4505,11 +4604,14 @@
       <c r="AK30">
         <v>0</v>
       </c>
-      <c r="AL30">
+      <c r="AL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1995</v>
       </c>
@@ -4582,23 +4684,23 @@
       <c r="X31" s="6">
         <v>70</v>
       </c>
-      <c r="Y31" s="7">
-        <v>0.24522292263610315</v>
+      <c r="Y31" s="6">
+        <v>0</v>
       </c>
       <c r="Z31" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA31" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB31" s="6">
         <v>325.58</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AB31" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -4621,11 +4723,14 @@
       <c r="AK31">
         <v>0</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1996</v>
       </c>
@@ -4698,23 +4803,23 @@
       <c r="X32" s="6">
         <v>70</v>
       </c>
-      <c r="Y32" s="7">
-        <v>0.24646779661016952</v>
+      <c r="Y32" s="6">
+        <v>0</v>
       </c>
       <c r="Z32" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA32" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB32" s="6">
         <v>330.46</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AB32" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -4737,11 +4842,14 @@
       <c r="AK32">
         <v>0</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1997</v>
       </c>
@@ -4814,23 +4922,23 @@
       <c r="X33" s="6">
         <v>70</v>
       </c>
-      <c r="Y33" s="7">
-        <v>0.24697541899441339</v>
+      <c r="Y33" s="6">
+        <v>0</v>
       </c>
       <c r="Z33" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA33" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB33" s="6">
         <v>336.74</v>
       </c>
-      <c r="AC33" s="8">
+      <c r="AB33" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -4853,11 +4961,14 @@
       <c r="AK33">
         <v>0</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1998</v>
       </c>
@@ -4930,23 +5041,23 @@
       <c r="X34" s="6">
         <v>70</v>
       </c>
-      <c r="Y34" s="7">
-        <v>0.24220813008130079</v>
+      <c r="Y34" s="6">
+        <v>0</v>
       </c>
       <c r="Z34" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA34" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB34" s="6">
         <v>339.77</v>
       </c>
-      <c r="AC34" s="8">
+      <c r="AB34" s="8">
         <v>1.9E-2</v>
       </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4969,11 +5080,14 @@
       <c r="AK34">
         <v>0</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1999</v>
       </c>
@@ -5046,23 +5160,23 @@
       <c r="X35" s="6">
         <v>70</v>
       </c>
-      <c r="Y35" s="7">
-        <v>0.24117754010695186</v>
+      <c r="Y35" s="6">
+        <v>0</v>
       </c>
       <c r="Z35" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA35" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB35" s="6">
         <v>345.21</v>
       </c>
-      <c r="AC35" s="8">
+      <c r="AB35" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -5085,11 +5199,14 @@
       <c r="AK35">
         <v>0</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2000</v>
       </c>
@@ -5162,23 +5279,23 @@
       <c r="X36" s="6">
         <v>70</v>
       </c>
-      <c r="Y36" s="7">
-        <v>0.24348510638297871</v>
+      <c r="Y36" s="6">
+        <v>0</v>
       </c>
       <c r="Z36" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA36" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB36" s="6">
         <v>353.84</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AB36" s="8">
         <v>1.6E-2</v>
       </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -5201,11 +5318,14 @@
       <c r="AK36">
         <v>0</v>
       </c>
-      <c r="AL36">
+      <c r="AL36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2001</v>
       </c>
@@ -5278,23 +5398,23 @@
       <c r="X37" s="6">
         <v>70</v>
       </c>
-      <c r="Y37" s="7">
-        <v>0.24281984334203657</v>
+      <c r="Y37" s="6">
+        <v>0</v>
       </c>
       <c r="Z37" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA37" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB37" s="6">
         <v>364.46</v>
       </c>
-      <c r="AC37" s="8">
+      <c r="AB37" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -5317,11 +5437,14 @@
       <c r="AK37">
         <v>0</v>
       </c>
-      <c r="AL37">
+      <c r="AL37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2002</v>
       </c>
@@ -5394,23 +5517,23 @@
       <c r="X38" s="6">
         <v>70</v>
       </c>
-      <c r="Y38" s="7">
-        <v>0.24207161125319693</v>
+      <c r="Y38" s="6">
+        <v>0</v>
       </c>
       <c r="Z38" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA38" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB38" s="6">
         <v>370.29</v>
       </c>
-      <c r="AC38" s="8">
+      <c r="AB38" s="8">
         <v>0.03</v>
       </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -5433,11 +5556,14 @@
       <c r="AK38">
         <v>0</v>
       </c>
-      <c r="AL38">
+      <c r="AL38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2003</v>
       </c>
@@ -5510,23 +5636,23 @@
       <c r="X39" s="6">
         <v>70</v>
       </c>
-      <c r="Y39" s="7">
-        <v>0.24097744360902257</v>
+      <c r="Y39" s="6">
+        <v>0</v>
       </c>
       <c r="Z39" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA39" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB39" s="6">
         <v>382.14</v>
       </c>
-      <c r="AC39" s="8">
+      <c r="AB39" s="8">
         <v>1.6E-2</v>
       </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -5549,11 +5675,14 @@
       <c r="AK39">
         <v>0</v>
       </c>
-      <c r="AL39">
+      <c r="AL39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2004</v>
       </c>
@@ -5626,23 +5755,23 @@
       <c r="X40" s="6">
         <v>70</v>
       </c>
-      <c r="Y40" s="7">
-        <v>0.24123555555555554</v>
+      <c r="Y40" s="6">
+        <v>0</v>
       </c>
       <c r="Z40" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA40" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB40" s="6">
         <v>388.64</v>
       </c>
-      <c r="AC40" s="8">
+      <c r="AB40" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -5665,11 +5794,14 @@
       <c r="AK40">
         <v>0</v>
       </c>
-      <c r="AL40">
+      <c r="AL40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2005</v>
       </c>
@@ -5742,23 +5874,23 @@
       <c r="X41" s="6">
         <v>70</v>
       </c>
-      <c r="Y41" s="7">
-        <v>0.24197080291970802</v>
+      <c r="Y41" s="6">
+        <v>0</v>
       </c>
       <c r="Z41" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA41" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB41" s="6">
         <v>397.58</v>
       </c>
-      <c r="AC41" s="8">
+      <c r="AB41" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
       <c r="AD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -5781,11 +5913,14 @@
       <c r="AK41">
         <v>0</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2006</v>
       </c>
@@ -5858,23 +5993,23 @@
       <c r="X42" s="6">
         <v>70</v>
       </c>
-      <c r="Y42" s="7">
-        <v>0.24073539192399049</v>
+      <c r="Y42" s="6">
+        <v>0</v>
       </c>
       <c r="Z42" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA42" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB42" s="6">
         <v>405.93</v>
       </c>
-      <c r="AC42" s="8">
+      <c r="AB42" s="8">
         <v>2.3E-2</v>
       </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
       <c r="AD42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -5897,11 +6032,14 @@
       <c r="AK42">
         <v>0</v>
       </c>
-      <c r="AL42">
+      <c r="AL42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2007</v>
       </c>
@@ -5974,23 +6112,23 @@
       <c r="X43" s="6">
         <v>70</v>
       </c>
-      <c r="Y43" s="7">
-        <v>0.23718535469107552</v>
+      <c r="Y43" s="6">
+        <v>0</v>
       </c>
       <c r="Z43" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA43" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB43" s="6">
         <v>414.05</v>
       </c>
-      <c r="AC43" s="8">
+      <c r="AB43" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="AC43">
+        <v>1</v>
+      </c>
       <c r="AD43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -6013,11 +6151,14 @@
       <c r="AK43">
         <v>0</v>
       </c>
-      <c r="AL43">
+      <c r="AL43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2008</v>
       </c>
@@ -6090,23 +6231,23 @@
       <c r="X44" s="6">
         <v>70</v>
       </c>
-      <c r="Y44" s="7">
-        <v>0.23639198218262808</v>
+      <c r="Y44" s="6">
+        <v>0</v>
       </c>
       <c r="Z44" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA44" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB44" s="6">
         <v>424.4</v>
       </c>
-      <c r="AC44" s="8">
+      <c r="AB44" s="8">
         <v>0.02</v>
       </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
       <c r="AD44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6129,11 +6270,14 @@
       <c r="AK44">
         <v>0</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2009</v>
       </c>
@@ -6206,23 +6350,23 @@
       <c r="X45" s="6">
         <v>70</v>
       </c>
-      <c r="Y45" s="7">
-        <v>0.23552915766738661</v>
+      <c r="Y45" s="6">
+        <v>0</v>
       </c>
       <c r="Z45" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB45" s="6">
         <v>426.1</v>
       </c>
-      <c r="AC45" s="8">
+      <c r="AB45" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
       <c r="AD45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -6245,11 +6389,14 @@
       <c r="AK45">
         <v>0</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2010</v>
       </c>
@@ -6322,23 +6469,23 @@
       <c r="X46" s="6">
         <v>70</v>
       </c>
-      <c r="Y46" s="7">
-        <v>0.23750084745762709</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>0.75</v>
       </c>
       <c r="AA46" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB46" s="6">
         <v>433.34</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AB46" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
       <c r="AD46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -6361,11 +6508,14 @@
       <c r="AK46">
         <v>0</v>
       </c>
-      <c r="AL46">
+      <c r="AL46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2011</v>
       </c>
@@ -6438,23 +6588,23 @@
       <c r="X47" s="6">
         <v>70</v>
       </c>
-      <c r="Y47" s="7">
-        <v>0.23850931677018633</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>0.75</v>
       </c>
       <c r="AA47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB47" s="6">
         <v>445.47</v>
       </c>
-      <c r="AC47" s="8">
+      <c r="AB47" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
       <c r="AD47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -6477,11 +6627,14 @@
       <c r="AK47">
         <v>0</v>
       </c>
-      <c r="AL47">
+      <c r="AL47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2012</v>
       </c>
@@ -6557,20 +6710,20 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="6">
+        <v>0.75</v>
       </c>
       <c r="AA48" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB48" s="6">
         <v>453.49</v>
       </c>
-      <c r="AC48" s="8">
+      <c r="AB48" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
       <c r="AD48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -6593,11 +6746,14 @@
       <c r="AK48">
         <v>0</v>
       </c>
-      <c r="AL48">
+      <c r="AL48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2013</v>
       </c>
@@ -6670,23 +6826,23 @@
       <c r="X49" s="6">
         <v>70</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="4">
+      <c r="Y49" s="4">
         <v>0.12891520244461424</v>
       </c>
+      <c r="Z49" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AA49" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB49" s="6">
         <v>457.57</v>
       </c>
-      <c r="AC49" s="8">
+      <c r="AB49" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
       <c r="AD49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -6709,11 +6865,14 @@
       <c r="AK49">
         <v>0</v>
       </c>
-      <c r="AL49">
+      <c r="AL49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2014</v>
       </c>
@@ -6786,23 +6945,23 @@
       <c r="X50" s="6">
         <v>70</v>
       </c>
-      <c r="Y50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="4">
+      <c r="Y50" s="4">
         <v>0.12842671614100185</v>
       </c>
+      <c r="Z50" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AA50" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB50" s="6">
         <v>465.81</v>
       </c>
-      <c r="AC50" s="8">
+      <c r="AB50" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
       <c r="AD50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -6825,11 +6984,14 @@
       <c r="AK50">
         <v>0</v>
       </c>
-      <c r="AL50">
+      <c r="AL50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2015</v>
       </c>
@@ -6902,23 +7064,23 @@
       <c r="X51" s="6">
         <v>70</v>
       </c>
-      <c r="Y51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="4">
+      <c r="Y51" s="4">
         <v>0.1288332426056977</v>
       </c>
+      <c r="Z51" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AA51" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB51" s="6">
         <v>471.4</v>
       </c>
-      <c r="AC51" s="8">
+      <c r="AB51" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
       <c r="AD51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51">
         <v>0</v>
@@ -6941,11 +7103,14 @@
       <c r="AK51">
         <v>0</v>
       </c>
-      <c r="AL51">
+      <c r="AL51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2016</v>
       </c>
@@ -7018,23 +7183,23 @@
       <c r="X52" s="6">
         <v>70</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="4">
+      <c r="Y52" s="4">
         <v>0.12881735644381559</v>
       </c>
+      <c r="Z52" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AA52" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB52" s="6">
         <v>471.4</v>
       </c>
-      <c r="AC52" s="8">
+      <c r="AB52" s="8">
         <v>1.2E-2</v>
       </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
       <c r="AD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -7057,11 +7222,14 @@
       <c r="AK52">
         <v>0</v>
       </c>
-      <c r="AL52">
+      <c r="AL52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2017</v>
       </c>
@@ -7134,23 +7302,23 @@
       <c r="X53" s="6">
         <v>70</v>
       </c>
-      <c r="Y53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="4">
+      <c r="Y53" s="4">
         <v>0.13035802035802038</v>
       </c>
+      <c r="Z53" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AA53" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB53" s="6">
         <v>478</v>
       </c>
-      <c r="AC53" s="8">
+      <c r="AB53" s="8">
         <v>1.4E-2</v>
       </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
       <c r="AD53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -7173,11 +7341,14 @@
       <c r="AK53">
         <v>0</v>
       </c>
-      <c r="AL53">
+      <c r="AL53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -7250,23 +7421,23 @@
       <c r="X54" s="6">
         <v>70</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="4">
+      <c r="Y54" s="4">
         <v>0.13117857969003008</v>
       </c>
+      <c r="Z54" s="6">
+        <v>0.75</v>
+      </c>
       <c r="AA54" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AB54" s="6">
         <v>485.17</v>
       </c>
-      <c r="AC54" s="8">
+      <c r="AB54" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
       <c r="AD54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -7289,11 +7460,14 @@
       <c r="AK54">
         <v>0</v>
       </c>
-      <c r="AL54">
+      <c r="AL54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2019</v>
       </c>
@@ -7364,44 +7538,50 @@
       <c r="X55" s="3">
         <v>70</v>
       </c>
+      <c r="Z55" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA55" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB55" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC55" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AD55">
+      <c r="AC55">
         <v>1</v>
+      </c>
+      <c r="AD55" s="10">
+        <v>1.5E-3</v>
       </c>
       <c r="AE55" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55" s="10">
-        <v>1.5E-3</v>
+      <c r="AF55">
+        <v>0</v>
       </c>
       <c r="AG55">
         <v>0</v>
       </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="10">
+      <c r="AH55" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="12">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AK55" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL55" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL55" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM55" s="15">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2020</v>
       </c>
@@ -7477,44 +7657,50 @@
       <c r="X56" s="3">
         <v>70</v>
       </c>
+      <c r="Z56" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA56" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB56" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC56" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AD56">
+      <c r="AC56">
         <v>1</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE56" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56" s="10">
-        <v>3.0000000000000001E-3</v>
+      <c r="AF56">
+        <v>0</v>
       </c>
       <c r="AG56">
         <v>0</v>
       </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="10">
+      <c r="AH56" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="12">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AK56" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL56" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL56" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM56" s="15">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
@@ -7590,44 +7776,50 @@
       <c r="X57" s="3">
         <v>70</v>
       </c>
+      <c r="Z57" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA57" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB57" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC57" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AD57">
+      <c r="AC57">
         <v>1</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE57" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57" s="10">
-        <v>5.0000000000000001E-3</v>
+      <c r="AF57">
+        <v>0</v>
       </c>
       <c r="AG57">
         <v>0</v>
       </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="10">
+      <c r="AH57" s="10">
         <v>0.01</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="12">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AK57" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL57" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL57" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM57" s="15">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
@@ -7703,44 +7895,50 @@
       <c r="X58" s="3">
         <v>70</v>
       </c>
+      <c r="Z58" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA58" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB58" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC58" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AD58">
+      <c r="AC58">
         <v>1</v>
+      </c>
+      <c r="AD58" s="10">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AE58" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF58" s="10">
-        <v>7.4999999999999997E-3</v>
+      <c r="AF58">
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>0</v>
       </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="10">
+      <c r="AH58" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="12">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AK58" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL58" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL58" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM58" s="15">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2023</v>
       </c>
@@ -7816,44 +8014,50 @@
       <c r="X59" s="3">
         <v>70</v>
       </c>
+      <c r="Z59" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA59" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB59" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC59" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AD59">
+      <c r="AC59">
         <v>1</v>
+      </c>
+      <c r="AD59" s="10">
+        <v>0.01</v>
       </c>
       <c r="AE59" s="10">
         <v>0.01</v>
       </c>
-      <c r="AF59" s="10">
-        <v>0.01</v>
+      <c r="AF59">
+        <v>0</v>
       </c>
       <c r="AG59">
         <v>0</v>
       </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="10">
+      <c r="AH59" s="10">
         <v>0.02</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="12">
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="AK59" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL59" s="12">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL59" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM59" s="15">
+        <v>6.6E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2024</v>
       </c>
@@ -7929,44 +8133,50 @@
       <c r="X60" s="3">
         <v>70</v>
       </c>
+      <c r="Z60" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA60" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB60" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC60" s="9">
         <v>2.3E-2</v>
       </c>
+      <c r="AC60" s="10">
+        <v>1.07</v>
+      </c>
       <c r="AD60" s="10">
-        <v>1.07</v>
+        <v>0.01</v>
       </c>
       <c r="AE60" s="10">
         <v>0.01</v>
       </c>
       <c r="AF60" s="10">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AG60" s="10">
         <v>0.04</v>
       </c>
       <c r="AH60" s="10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AI60" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ60" s="10">
         <v>0.08</v>
       </c>
+      <c r="AJ60" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
       <c r="AK60" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL60" s="12">
         <v>0.33329999999999999</v>
       </c>
+      <c r="AL60" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM60" s="15">
+        <v>6.6E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2025</v>
       </c>
@@ -8042,41 +8252,47 @@
       <c r="X61" s="3">
         <v>70</v>
       </c>
+      <c r="Z61" s="9">
+        <v>0.75</v>
+      </c>
       <c r="AA61" s="9">
-        <v>0.75</v>
+        <v>496.36</v>
       </c>
       <c r="AB61" s="9">
-        <v>496.36</v>
-      </c>
-      <c r="AC61" s="9">
         <v>2.3E-2</v>
       </c>
+      <c r="AC61" s="10">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="AD61" s="10">
-        <v>1.1399999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="AE61" s="10">
         <v>0.01</v>
       </c>
       <c r="AF61" s="10">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AG61" s="10">
         <v>0.04</v>
       </c>
       <c r="AH61" s="10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AI61" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ61" s="10">
         <v>0.08</v>
       </c>
+      <c r="AJ61" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
       <c r="AK61" s="12">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="AL61" s="12">
         <v>0.33329999999999999</v>
+      </c>
+      <c r="AL61" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AM61" s="15">
+        <v>6.6E-3</v>
       </c>
     </row>
   </sheetData>

--- a/params/cpp_history.xlsx
+++ b/params/cpp_history.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="46120" windowHeight="25300"/>
+    <workbookView xWindow="51200" yWindow="1160" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="cppyear" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>year</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>supp_s2</t>
+  </si>
+  <si>
+    <t>ca</t>
   </si>
 </sst>
 </file>
@@ -1022,26 +1025,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="28" width="10.83203125" style="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="10.83203125" style="13"/>
+    <col min="2" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="29" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,106 +1064,109 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1966</v>
       </c>
@@ -1180,23 +1186,23 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G2" s="8">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
         <v>3</v>
       </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
       <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
         <v>0.15</v>
       </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
       <c r="M2" s="6">
         <v>0</v>
       </c>
@@ -1206,51 +1212,51 @@
       <c r="O2" s="6">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="6">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
         <v>45</v>
       </c>
-      <c r="S2" s="6">
-        <v>65</v>
-      </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
+        <v>65</v>
+      </c>
+      <c r="U2" s="8">
         <v>0.375</v>
       </c>
-      <c r="U2" s="8">
+      <c r="V2" s="8">
         <v>0.6</v>
-      </c>
-      <c r="V2" s="6">
-        <v>69</v>
       </c>
       <c r="W2" s="6">
         <v>69</v>
       </c>
       <c r="X2" s="6">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="6">
         <v>70</v>
       </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
       <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
@@ -1272,14 +1278,17 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" s="14">
         <v>0</v>
       </c>
+      <c r="AN2" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1967</v>
       </c>
@@ -1304,18 +1313,18 @@
       <c r="H3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
       <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
         <v>0.15</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
@@ -1325,51 +1334,51 @@
       <c r="O3" s="6">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>239.64</v>
+      <c r="P3" s="6">
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>239.64</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3">
+        <v>239.64</v>
+      </c>
+      <c r="S3" s="6">
         <v>45</v>
       </c>
-      <c r="S3" s="6">
-        <v>65</v>
-      </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
+        <v>65</v>
+      </c>
+      <c r="U3" s="8">
         <v>0.375</v>
       </c>
-      <c r="U3" s="8">
+      <c r="V3" s="8">
         <v>0.6</v>
-      </c>
-      <c r="V3" s="6">
-        <v>68</v>
       </c>
       <c r="W3" s="6">
         <v>68</v>
       </c>
       <c r="X3" s="6">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="6">
         <v>70</v>
       </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
       <c r="Z3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AB3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
@@ -1391,14 +1400,17 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3" s="14">
+      <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" s="14">
         <v>0</v>
       </c>
+      <c r="AN3" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1968</v>
       </c>
@@ -1423,17 +1435,17 @@
       <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>0.25</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L4" s="6">
-        <v>25.5</v>
       </c>
       <c r="M4" s="6">
         <v>25.5</v>
@@ -1444,51 +1456,51 @@
       <c r="O4" s="6">
         <v>25.5</v>
       </c>
-      <c r="P4">
-        <v>366.96</v>
+      <c r="P4" s="6">
+        <v>25.5</v>
       </c>
       <c r="Q4">
         <v>366.96</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4">
+        <v>366.96</v>
+      </c>
+      <c r="S4" s="6">
         <v>45</v>
       </c>
-      <c r="S4" s="6">
-        <v>65</v>
-      </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
+        <v>65</v>
+      </c>
+      <c r="U4" s="8">
         <v>0.375</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <v>0.6</v>
-      </c>
-      <c r="V4" s="6">
-        <v>67</v>
       </c>
       <c r="W4" s="6">
         <v>67</v>
       </c>
       <c r="X4" s="6">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="6">
         <v>70</v>
       </c>
-      <c r="Y4" s="6">
-        <v>0</v>
-      </c>
       <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
         <v>0.02</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
         <v>0</v>
       </c>
@@ -1510,14 +1522,17 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4" s="14">
+      <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" s="14">
         <v>0</v>
       </c>
+      <c r="AN4" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1969</v>
       </c>
@@ -1542,17 +1557,17 @@
       <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>0.25</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L5" s="6">
-        <v>26.01</v>
       </c>
       <c r="M5" s="6">
         <v>26.01</v>
@@ -1563,51 +1578,51 @@
       <c r="O5" s="6">
         <v>26.01</v>
       </c>
-      <c r="P5">
-        <v>499.43999999999994</v>
+      <c r="P5" s="6">
+        <v>26.01</v>
       </c>
       <c r="Q5">
         <v>499.43999999999994</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5">
+        <v>499.43999999999994</v>
+      </c>
+      <c r="S5" s="6">
         <v>45</v>
       </c>
-      <c r="S5" s="6">
-        <v>65</v>
-      </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
+        <v>65</v>
+      </c>
+      <c r="U5" s="8">
         <v>0.375</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>0.6</v>
-      </c>
-      <c r="V5" s="6">
-        <v>66</v>
       </c>
       <c r="W5" s="6">
         <v>66</v>
       </c>
       <c r="X5" s="6">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="6">
         <v>70</v>
       </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
       <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
         <v>0.02</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
@@ -1629,14 +1644,17 @@
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" s="14">
         <v>0</v>
       </c>
+      <c r="AN5" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1970</v>
       </c>
@@ -1661,17 +1679,17 @@
       <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.25</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L6" s="6">
-        <v>26.53</v>
       </c>
       <c r="M6" s="6">
         <v>26.53</v>
@@ -1682,51 +1700,51 @@
       <c r="O6" s="6">
         <v>26.53</v>
       </c>
-      <c r="P6">
-        <v>639.12</v>
+      <c r="P6" s="6">
+        <v>26.53</v>
       </c>
       <c r="Q6">
         <v>639.12</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
+        <v>639.12</v>
+      </c>
+      <c r="S6" s="6">
         <v>45</v>
       </c>
-      <c r="S6" s="6">
-        <v>65</v>
-      </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
+        <v>65</v>
+      </c>
+      <c r="U6" s="8">
         <v>0.375</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <v>0.6</v>
       </c>
-      <c r="V6" s="6">
-        <v>65</v>
-      </c>
       <c r="W6" s="6">
         <v>65</v>
       </c>
       <c r="X6" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y6" s="6">
         <v>70</v>
       </c>
-      <c r="Y6" s="6">
-        <v>0</v>
-      </c>
       <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AB6" s="6">
         <v>26.53</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <v>0.02</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
@@ -1748,14 +1766,17 @@
       <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" s="14">
         <v>0</v>
       </c>
+      <c r="AN6" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1971</v>
       </c>
@@ -1780,17 +1801,17 @@
       <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>0.25</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L7" s="6">
-        <v>27.06</v>
       </c>
       <c r="M7" s="6">
         <v>27.06</v>
@@ -1801,51 +1822,51 @@
       <c r="O7" s="6">
         <v>27.06</v>
       </c>
-      <c r="P7">
-        <v>783.96</v>
+      <c r="P7" s="6">
+        <v>27.06</v>
       </c>
       <c r="Q7">
         <v>783.96</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
+        <v>783.96</v>
+      </c>
+      <c r="S7" s="6">
         <v>45</v>
       </c>
-      <c r="S7" s="6">
-        <v>65</v>
-      </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
+        <v>65</v>
+      </c>
+      <c r="U7" s="8">
         <v>0.375</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <v>0.6</v>
       </c>
-      <c r="V7" s="6">
-        <v>65</v>
-      </c>
       <c r="W7" s="6">
         <v>65</v>
       </c>
       <c r="X7" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="6">
         <v>70</v>
       </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
       <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <v>27.06</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <v>0.02</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0</v>
       </c>
@@ -1867,14 +1888,17 @@
       <c r="AK7">
         <v>0</v>
       </c>
-      <c r="AL7" s="14">
+      <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" s="14">
         <v>0</v>
       </c>
+      <c r="AN7" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1972</v>
       </c>
@@ -1899,17 +1923,17 @@
       <c r="H8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>0.25</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L8" s="6">
-        <v>27.6</v>
       </c>
       <c r="M8" s="6">
         <v>27.6</v>
@@ -1920,51 +1944,51 @@
       <c r="O8" s="6">
         <v>27.6</v>
       </c>
-      <c r="P8">
-        <v>933.72</v>
+      <c r="P8" s="6">
+        <v>27.6</v>
       </c>
       <c r="Q8">
         <v>933.72</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
+        <v>933.72</v>
+      </c>
+      <c r="S8" s="6">
         <v>45</v>
       </c>
-      <c r="S8" s="6">
-        <v>65</v>
-      </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
+        <v>65</v>
+      </c>
+      <c r="U8" s="8">
         <v>0.375</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>0.6</v>
       </c>
-      <c r="V8" s="6">
-        <v>65</v>
-      </c>
       <c r="W8" s="6">
         <v>65</v>
       </c>
       <c r="X8" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="6">
         <v>70</v>
       </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
       <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AB8" s="6">
         <v>80</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <v>0.02</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
         <v>0</v>
       </c>
@@ -1986,14 +2010,17 @@
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AL8" s="14">
+      <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" s="14">
         <v>0</v>
       </c>
+      <c r="AN8" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1973</v>
       </c>
@@ -2018,17 +2045,17 @@
       <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.25</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L9" s="6">
-        <v>80</v>
       </c>
       <c r="M9" s="6">
         <v>80</v>
@@ -2039,51 +2066,51 @@
       <c r="O9" s="6">
         <v>80</v>
       </c>
-      <c r="P9">
-        <v>1088.52</v>
+      <c r="P9" s="6">
+        <v>80</v>
       </c>
       <c r="Q9">
         <v>1088.52</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
+        <v>1088.52</v>
+      </c>
+      <c r="S9" s="6">
         <v>45</v>
       </c>
-      <c r="S9" s="6">
-        <v>65</v>
-      </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
+        <v>65</v>
+      </c>
+      <c r="U9" s="8">
         <v>0.375</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>0.6</v>
       </c>
-      <c r="V9" s="6">
-        <v>65</v>
-      </c>
       <c r="W9" s="6">
         <v>65</v>
       </c>
       <c r="X9" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="6">
         <v>70</v>
       </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
       <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AB9" s="6">
         <v>86.56</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AC9" s="8">
         <v>0.03</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
         <v>0</v>
       </c>
@@ -2105,14 +2132,17 @@
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9" s="14">
+      <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" s="14">
         <v>0</v>
       </c>
+      <c r="AN9" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1974</v>
       </c>
@@ -2137,17 +2167,17 @@
       <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>0.25</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L10" s="6">
-        <v>86.56</v>
       </c>
       <c r="M10" s="6">
         <v>86.56</v>
@@ -2158,51 +2188,51 @@
       <c r="O10" s="6">
         <v>86.56</v>
       </c>
-      <c r="P10">
-        <v>1315.1999999999998</v>
+      <c r="P10" s="6">
+        <v>86.56</v>
       </c>
       <c r="Q10">
         <v>1315.1999999999998</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
+        <v>1315.1999999999998</v>
+      </c>
+      <c r="S10" s="6">
         <v>45</v>
       </c>
-      <c r="S10" s="6">
-        <v>65</v>
-      </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
+        <v>65</v>
+      </c>
+      <c r="U10" s="8">
         <v>0.375</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
         <v>0.6</v>
       </c>
-      <c r="V10" s="6">
-        <v>65</v>
-      </c>
       <c r="W10" s="6">
         <v>65</v>
       </c>
       <c r="X10" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="6">
         <v>70</v>
       </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
       <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AB10" s="6">
         <v>95.59</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AC10" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
       <c r="AE10">
         <v>0</v>
       </c>
@@ -2224,14 +2254,17 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10" s="14">
+      <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" s="14">
         <v>0</v>
       </c>
+      <c r="AN10" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1975</v>
       </c>
@@ -2256,17 +2289,17 @@
       <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>0.25</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L11" s="6">
-        <v>95.56</v>
       </c>
       <c r="M11" s="6">
         <v>95.56</v>
@@ -2277,51 +2310,51 @@
       <c r="O11" s="6">
         <v>95.56</v>
       </c>
-      <c r="P11">
-        <v>1619.6399999999999</v>
+      <c r="P11" s="6">
+        <v>95.56</v>
       </c>
       <c r="Q11">
         <v>1619.6399999999999</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
+        <v>1619.6399999999999</v>
+      </c>
+      <c r="S11" s="6">
         <v>45</v>
       </c>
-      <c r="S11" s="6">
-        <v>65</v>
-      </c>
-      <c r="T11" s="8">
+      <c r="T11" s="6">
+        <v>65</v>
+      </c>
+      <c r="U11" s="8">
         <v>0.375</v>
       </c>
-      <c r="U11" s="8">
+      <c r="V11" s="8">
         <v>0.6</v>
       </c>
-      <c r="V11" s="6">
-        <v>65</v>
-      </c>
       <c r="W11" s="6">
         <v>65</v>
       </c>
       <c r="X11" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="6">
         <v>70</v>
       </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
       <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AB11" s="6">
         <v>106.26</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AC11" s="8">
         <v>0.104</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
         <v>0</v>
       </c>
@@ -2343,14 +2376,17 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AL11" s="14">
+      <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" s="14">
         <v>0</v>
       </c>
+      <c r="AN11" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1976</v>
       </c>
@@ -2375,17 +2411,17 @@
       <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <v>0.25</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L12" s="6">
-        <v>106.26</v>
       </c>
       <c r="M12" s="6">
         <v>106.26</v>
@@ -2396,51 +2432,51 @@
       <c r="O12" s="6">
         <v>106.26</v>
       </c>
-      <c r="P12">
-        <v>1858.3200000000002</v>
+      <c r="P12" s="6">
+        <v>106.26</v>
       </c>
       <c r="Q12">
         <v>1858.3200000000002</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12">
+        <v>1858.3200000000002</v>
+      </c>
+      <c r="S12" s="6">
         <v>45</v>
       </c>
-      <c r="S12" s="6">
-        <v>65</v>
-      </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
+        <v>65</v>
+      </c>
+      <c r="U12" s="8">
         <v>0.375</v>
       </c>
-      <c r="U12" s="8">
+      <c r="V12" s="8">
         <v>0.6</v>
       </c>
-      <c r="V12" s="6">
-        <v>65</v>
-      </c>
       <c r="W12" s="6">
         <v>65</v>
       </c>
       <c r="X12" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="6">
         <v>70</v>
       </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
       <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AB12" s="6">
         <v>114.96</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AC12" s="8">
         <v>0.112</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -2462,14 +2498,17 @@
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12" s="14">
+      <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" s="14">
         <v>0</v>
       </c>
+      <c r="AN12" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1977</v>
       </c>
@@ -2494,17 +2533,17 @@
       <c r="H13" s="8">
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>0.25</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L13" s="6">
-        <v>114.96</v>
       </c>
       <c r="M13" s="6">
         <v>114.96</v>
@@ -2515,51 +2554,51 @@
       <c r="O13" s="6">
         <v>114.96</v>
       </c>
-      <c r="P13">
-        <v>2083.3200000000002</v>
+      <c r="P13" s="6">
+        <v>114.96</v>
       </c>
       <c r="Q13">
         <v>2083.3200000000002</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13">
+        <v>2083.3200000000002</v>
+      </c>
+      <c r="S13" s="6">
         <v>45</v>
       </c>
-      <c r="S13" s="6">
-        <v>65</v>
-      </c>
-      <c r="T13" s="8">
+      <c r="T13" s="6">
+        <v>65</v>
+      </c>
+      <c r="U13" s="8">
         <v>0.375</v>
       </c>
-      <c r="U13" s="8">
+      <c r="V13" s="8">
         <v>0.6</v>
       </c>
-      <c r="V13" s="6">
-        <v>65</v>
-      </c>
       <c r="W13" s="6">
         <v>65</v>
       </c>
       <c r="X13" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y13" s="6">
         <v>70</v>
       </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
       <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AB13" s="6">
         <v>123.56</v>
       </c>
-      <c r="AB13" s="8">
+      <c r="AC13" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
       <c r="AE13">
         <v>0</v>
       </c>
@@ -2581,14 +2620,17 @@
       <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AL13" s="14">
+      <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" s="14">
         <v>0</v>
       </c>
+      <c r="AN13" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1978</v>
       </c>
@@ -2613,17 +2655,17 @@
       <c r="H14" s="8">
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <v>0.25</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L14" s="6">
-        <v>123.56</v>
       </c>
       <c r="M14" s="6">
         <v>123.56</v>
@@ -2634,51 +2676,51 @@
       <c r="O14" s="6">
         <v>123.56</v>
       </c>
-      <c r="P14">
-        <v>2333.2799999999997</v>
+      <c r="P14" s="6">
+        <v>123.56</v>
       </c>
       <c r="Q14">
         <v>2333.2799999999997</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14">
+        <v>2333.2799999999997</v>
+      </c>
+      <c r="S14" s="6">
         <v>45</v>
       </c>
-      <c r="S14" s="6">
-        <v>65</v>
-      </c>
-      <c r="T14" s="8">
+      <c r="T14" s="6">
+        <v>65</v>
+      </c>
+      <c r="U14" s="8">
         <v>0.375</v>
       </c>
-      <c r="U14" s="8">
+      <c r="V14" s="8">
         <v>0.6</v>
       </c>
-      <c r="V14" s="6">
-        <v>65</v>
-      </c>
       <c r="W14" s="6">
         <v>65</v>
       </c>
       <c r="X14" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="6">
         <v>70</v>
       </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
       <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AB14" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AC14" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
         <v>0</v>
       </c>
@@ -2700,14 +2742,17 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14" s="14">
+      <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" s="14">
         <v>0</v>
       </c>
+      <c r="AN14" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1979</v>
       </c>
@@ -2732,17 +2777,17 @@
       <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <v>0.25</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L15" s="6">
-        <v>134.63999999999999</v>
       </c>
       <c r="M15" s="6">
         <v>134.63999999999999</v>
@@ -2753,51 +2798,51 @@
       <c r="O15" s="6">
         <v>134.63999999999999</v>
       </c>
-      <c r="P15">
-        <v>2616.7200000000003</v>
+      <c r="P15" s="6">
+        <v>134.63999999999999</v>
       </c>
       <c r="Q15">
         <v>2616.7200000000003</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15">
+        <v>2616.7200000000003</v>
+      </c>
+      <c r="S15" s="6">
         <v>45</v>
       </c>
-      <c r="S15" s="6">
-        <v>65</v>
-      </c>
-      <c r="T15" s="8">
+      <c r="T15" s="6">
+        <v>65</v>
+      </c>
+      <c r="U15" s="8">
         <v>0.375</v>
       </c>
-      <c r="U15" s="8">
+      <c r="V15" s="8">
         <v>0.6</v>
       </c>
-      <c r="V15" s="6">
-        <v>65</v>
-      </c>
       <c r="W15" s="6">
         <v>65</v>
       </c>
       <c r="X15" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="6">
         <v>70</v>
       </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
       <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AB15" s="6">
         <v>146.78</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AC15" s="8">
         <v>0.09</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0</v>
       </c>
@@ -2819,14 +2864,17 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15" s="14">
+      <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" s="14">
         <v>0</v>
       </c>
+      <c r="AN15" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1980</v>
       </c>
@@ -2851,17 +2899,17 @@
       <c r="H16" s="8">
         <v>0</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <v>0.25</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L16" s="6">
-        <v>146.78</v>
       </c>
       <c r="M16" s="6">
         <v>146.78</v>
@@ -2872,51 +2920,51 @@
       <c r="O16" s="6">
         <v>146.78</v>
       </c>
-      <c r="P16">
-        <v>2933.2799999999997</v>
+      <c r="P16" s="6">
+        <v>146.78</v>
       </c>
       <c r="Q16">
         <v>2933.2799999999997</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16">
+        <v>2933.2799999999997</v>
+      </c>
+      <c r="S16" s="6">
         <v>45</v>
       </c>
-      <c r="S16" s="6">
-        <v>65</v>
-      </c>
-      <c r="T16" s="8">
+      <c r="T16" s="6">
+        <v>65</v>
+      </c>
+      <c r="U16" s="8">
         <v>0.375</v>
       </c>
-      <c r="U16" s="8">
+      <c r="V16" s="8">
         <v>0.6</v>
       </c>
-      <c r="V16" s="6">
-        <v>65</v>
-      </c>
       <c r="W16" s="6">
         <v>65</v>
       </c>
       <c r="X16" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y16" s="6">
         <v>70</v>
       </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
       <c r="Z16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AB16" s="6">
         <v>161.31</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AC16" s="8">
         <v>0.09</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
       <c r="AE16">
         <v>0</v>
       </c>
@@ -2938,14 +2986,17 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16" s="14">
+      <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" s="14">
         <v>0</v>
       </c>
+      <c r="AN16" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1981</v>
       </c>
@@ -2970,17 +3021,17 @@
       <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>3</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.25</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L17" s="6">
-        <v>161.31</v>
       </c>
       <c r="M17" s="6">
         <v>161.31</v>
@@ -2991,51 +3042,51 @@
       <c r="O17" s="6">
         <v>161.31</v>
       </c>
-      <c r="P17">
-        <v>3291.7200000000003</v>
+      <c r="P17" s="6">
+        <v>161.31</v>
       </c>
       <c r="Q17">
         <v>3291.7200000000003</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17">
+        <v>3291.7200000000003</v>
+      </c>
+      <c r="S17" s="6">
         <v>45</v>
       </c>
-      <c r="S17" s="6">
-        <v>65</v>
-      </c>
-      <c r="T17" s="8">
+      <c r="T17" s="6">
+        <v>65</v>
+      </c>
+      <c r="U17" s="8">
         <v>0.375</v>
       </c>
-      <c r="U17" s="8">
+      <c r="V17" s="8">
         <v>0.6</v>
       </c>
-      <c r="V17" s="6">
-        <v>65</v>
-      </c>
       <c r="W17" s="6">
         <v>65</v>
       </c>
       <c r="X17" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="6">
         <v>70</v>
       </c>
-      <c r="Y17" s="6">
-        <v>0</v>
-      </c>
       <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AB17" s="6">
         <v>181.18</v>
       </c>
-      <c r="AB17" s="8">
+      <c r="AC17" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
         <v>0</v>
       </c>
@@ -3057,14 +3108,17 @@
       <c r="AK17">
         <v>0</v>
       </c>
-      <c r="AL17" s="14">
+      <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" s="14">
         <v>0</v>
       </c>
+      <c r="AN17" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1982</v>
       </c>
@@ -3089,17 +3143,17 @@
       <c r="H18" s="8">
         <v>0</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <v>3</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <v>0.25</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L18" s="6">
-        <v>181.18</v>
       </c>
       <c r="M18" s="6">
         <v>181.18</v>
@@ -3110,51 +3164,51 @@
       <c r="O18" s="6">
         <v>181.18</v>
       </c>
-      <c r="P18">
-        <v>3691.7999999999997</v>
+      <c r="P18" s="6">
+        <v>181.18</v>
       </c>
       <c r="Q18">
         <v>3691.7999999999997</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18">
+        <v>3691.7999999999997</v>
+      </c>
+      <c r="S18" s="6">
         <v>45</v>
       </c>
-      <c r="S18" s="6">
-        <v>65</v>
-      </c>
-      <c r="T18" s="8">
+      <c r="T18" s="6">
+        <v>65</v>
+      </c>
+      <c r="U18" s="8">
         <v>0.375</v>
       </c>
-      <c r="U18" s="8">
+      <c r="V18" s="8">
         <v>0.6</v>
       </c>
-      <c r="V18" s="6">
-        <v>65</v>
-      </c>
       <c r="W18" s="6">
         <v>65</v>
       </c>
       <c r="X18" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y18" s="6">
         <v>70</v>
       </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
       <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AB18" s="6">
         <v>201.44</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AC18" s="8">
         <v>0.123</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
         <v>0</v>
       </c>
@@ -3176,14 +3230,17 @@
       <c r="AK18">
         <v>0</v>
       </c>
-      <c r="AL18" s="14">
+      <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" s="14">
         <v>0</v>
       </c>
+      <c r="AN18" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1983</v>
       </c>
@@ -3208,17 +3265,17 @@
       <c r="H19" s="8">
         <v>0</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <v>3</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <v>0.25</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L19" s="6">
-        <v>201.44</v>
       </c>
       <c r="M19" s="6">
         <v>201.44</v>
@@ -3229,51 +3286,51 @@
       <c r="O19" s="6">
         <v>201.44</v>
       </c>
-      <c r="P19">
-        <v>4141.7999999999993</v>
+      <c r="P19" s="6">
+        <v>201.44</v>
       </c>
       <c r="Q19">
         <v>4141.7999999999993</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19">
+        <v>4141.7999999999993</v>
+      </c>
+      <c r="S19" s="6">
         <v>45</v>
       </c>
-      <c r="S19" s="6">
-        <v>65</v>
-      </c>
-      <c r="T19" s="8">
+      <c r="T19" s="6">
+        <v>65</v>
+      </c>
+      <c r="U19" s="8">
         <v>0.375</v>
       </c>
-      <c r="U19" s="8">
+      <c r="V19" s="8">
         <v>0.6</v>
       </c>
-      <c r="V19" s="6">
-        <v>65</v>
-      </c>
       <c r="W19" s="6">
         <v>65</v>
       </c>
       <c r="X19" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y19" s="6">
         <v>70</v>
       </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
       <c r="Z19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AB19" s="6">
         <v>214.94</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AC19" s="8">
         <v>0.112</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
       <c r="AE19">
         <v>0</v>
       </c>
@@ -3295,14 +3352,17 @@
       <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AL19" s="14">
+      <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" s="14">
         <v>0</v>
       </c>
+      <c r="AN19" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1984</v>
       </c>
@@ -3327,72 +3387,72 @@
       <c r="H20" s="8">
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <v>0.25</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <v>0.15</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>214.94</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>275</v>
-      </c>
-      <c r="N20" s="6">
-        <v>214.94</v>
       </c>
       <c r="O20" s="6">
         <v>214.94</v>
       </c>
-      <c r="P20">
-        <v>4650</v>
+      <c r="P20" s="6">
+        <v>214.94</v>
       </c>
       <c r="Q20">
         <v>4650</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20">
+        <v>4650</v>
+      </c>
+      <c r="S20" s="6">
         <v>45</v>
       </c>
-      <c r="S20" s="6">
-        <v>65</v>
-      </c>
-      <c r="T20" s="8">
+      <c r="T20" s="6">
+        <v>65</v>
+      </c>
+      <c r="U20" s="8">
         <v>0.375</v>
       </c>
-      <c r="U20" s="8">
+      <c r="V20" s="8">
         <v>0.6</v>
       </c>
-      <c r="V20" s="6">
-        <v>65</v>
-      </c>
       <c r="W20" s="6">
         <v>65</v>
       </c>
       <c r="X20" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="6">
         <v>70</v>
       </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
       <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AB20" s="6">
         <v>224.4</v>
       </c>
-      <c r="AB20" s="8">
+      <c r="AC20" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0</v>
       </c>
@@ -3414,14 +3474,17 @@
       <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AL20" s="14">
+      <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" s="14">
         <v>0</v>
       </c>
+      <c r="AN20" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1985</v>
       </c>
@@ -3446,72 +3509,72 @@
       <c r="H21" s="8">
         <v>0</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <v>0.25</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <v>0.15</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <v>224.4</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <v>287.10000000000002</v>
-      </c>
-      <c r="N21" s="6">
-        <v>224.4</v>
       </c>
       <c r="O21" s="6">
         <v>224.4</v>
       </c>
-      <c r="P21">
-        <v>5225.04</v>
+      <c r="P21" s="6">
+        <v>224.4</v>
       </c>
       <c r="Q21">
         <v>5225.04</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21">
+        <v>5225.04</v>
+      </c>
+      <c r="S21" s="6">
         <v>45</v>
       </c>
-      <c r="S21" s="6">
-        <v>65</v>
-      </c>
-      <c r="T21" s="8">
+      <c r="T21" s="6">
+        <v>65</v>
+      </c>
+      <c r="U21" s="8">
         <v>0.375</v>
       </c>
-      <c r="U21" s="8">
+      <c r="V21" s="8">
         <v>0.6</v>
       </c>
-      <c r="V21" s="6">
-        <v>65</v>
-      </c>
       <c r="W21" s="6">
         <v>65</v>
       </c>
       <c r="X21" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y21" s="6">
         <v>70</v>
       </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
       <c r="Z21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AB21" s="6">
         <v>233.4</v>
       </c>
-      <c r="AB21" s="8">
+      <c r="AC21" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>1</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0</v>
       </c>
@@ -3533,14 +3596,17 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AL21" s="14">
+      <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" s="14">
         <v>0</v>
       </c>
+      <c r="AN21" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1986</v>
       </c>
@@ -3565,72 +3631,72 @@
       <c r="H22" s="8">
         <v>0</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <v>0.25</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <v>0.15</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <v>233.38</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <v>298.58</v>
-      </c>
-      <c r="N22" s="6">
-        <v>233.38</v>
       </c>
       <c r="O22" s="6">
         <v>233.38</v>
       </c>
-      <c r="P22">
-        <v>5833.32</v>
+      <c r="P22" s="6">
+        <v>233.38</v>
       </c>
       <c r="Q22">
         <v>5833.32</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22">
+        <v>5833.32</v>
+      </c>
+      <c r="S22" s="6">
         <v>45</v>
       </c>
-      <c r="S22" s="6">
-        <v>65</v>
-      </c>
-      <c r="T22" s="8">
+      <c r="T22" s="6">
+        <v>65</v>
+      </c>
+      <c r="U22" s="8">
         <v>0.375</v>
       </c>
-      <c r="U22" s="8">
+      <c r="V22" s="8">
         <v>0.6</v>
       </c>
-      <c r="V22" s="6">
-        <v>65</v>
-      </c>
       <c r="W22" s="6">
         <v>65</v>
       </c>
       <c r="X22" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="6">
         <v>70</v>
       </c>
-      <c r="Y22" s="6">
-        <v>0</v>
-      </c>
       <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AB22" s="6">
         <v>242.95</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AC22" s="8">
         <v>0.04</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
         <v>0</v>
       </c>
@@ -3652,14 +3718,17 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22" s="14">
+      <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" s="14">
         <v>0</v>
       </c>
+      <c r="AN22" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1987</v>
       </c>
@@ -3679,77 +3748,77 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G23" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
         <v>0.06</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <v>0.25</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>0.15</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>242.95</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <v>310.82</v>
-      </c>
-      <c r="N23" s="6">
-        <v>242.95</v>
       </c>
       <c r="O23" s="6">
         <v>242.95</v>
       </c>
-      <c r="P23">
-        <v>6258.24</v>
+      <c r="P23" s="6">
+        <v>242.95</v>
       </c>
       <c r="Q23">
         <v>6258.24</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23">
+        <v>6258.24</v>
+      </c>
+      <c r="S23" s="6">
         <v>45</v>
       </c>
-      <c r="S23" s="6">
-        <v>65</v>
-      </c>
-      <c r="T23" s="8">
+      <c r="T23" s="6">
+        <v>65</v>
+      </c>
+      <c r="U23" s="8">
         <v>0.375</v>
       </c>
-      <c r="U23" s="8">
+      <c r="V23" s="8">
         <v>0.6</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>60</v>
       </c>
-      <c r="W23" s="6">
-        <v>65</v>
-      </c>
       <c r="X23" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y23" s="6">
         <v>70</v>
       </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
       <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AB23" s="6">
         <v>253.64</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AC23" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0</v>
       </c>
@@ -3771,14 +3840,17 @@
       <c r="AK23">
         <v>0</v>
       </c>
-      <c r="AL23" s="14">
+      <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" s="14">
         <v>0</v>
       </c>
+      <c r="AN23" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1988</v>
       </c>
@@ -3798,77 +3870,77 @@
         <v>0.04</v>
       </c>
       <c r="G24" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H24" s="8">
         <v>0.06</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <v>0.25</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <v>0.15</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <v>253.64</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <v>324.5</v>
-      </c>
-      <c r="N24" s="6">
-        <v>253.64</v>
       </c>
       <c r="O24" s="6">
         <v>253.64</v>
       </c>
-      <c r="P24">
-        <v>6516.7199999999993</v>
+      <c r="P24" s="6">
+        <v>253.64</v>
       </c>
       <c r="Q24">
         <v>6516.7199999999993</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24">
+        <v>6516.7199999999993</v>
+      </c>
+      <c r="S24" s="6">
         <v>45</v>
       </c>
-      <c r="S24" s="6">
-        <v>65</v>
-      </c>
-      <c r="T24" s="8">
+      <c r="T24" s="6">
+        <v>65</v>
+      </c>
+      <c r="U24" s="8">
         <v>0.375</v>
       </c>
-      <c r="U24" s="8">
+      <c r="V24" s="8">
         <v>0.6</v>
       </c>
-      <c r="V24" s="6">
+      <c r="W24" s="6">
         <v>60</v>
       </c>
-      <c r="W24" s="6">
-        <v>65</v>
-      </c>
       <c r="X24" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y24" s="6">
         <v>70</v>
       </c>
-      <c r="Y24" s="6">
-        <v>0</v>
-      </c>
       <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AB24" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AC24" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
       <c r="AE24">
         <v>0</v>
       </c>
@@ -3890,14 +3962,17 @@
       <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AL24" s="14">
+      <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" s="14">
         <v>0</v>
       </c>
+      <c r="AN24" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1989</v>
       </c>
@@ -3917,77 +3992,77 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G25" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8">
         <v>0.06</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J25" s="6">
         <v>3</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <v>0.25</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <v>0.15</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>337.8</v>
-      </c>
-      <c r="N25" s="6">
-        <v>264.04000000000002</v>
       </c>
       <c r="O25" s="6">
         <v>264.04000000000002</v>
       </c>
-      <c r="P25">
-        <v>6675</v>
+      <c r="P25" s="6">
+        <v>264.04000000000002</v>
       </c>
       <c r="Q25">
         <v>6675</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25">
+        <v>6675</v>
+      </c>
+      <c r="S25" s="6">
         <v>45</v>
       </c>
-      <c r="S25" s="6">
-        <v>65</v>
-      </c>
-      <c r="T25" s="8">
+      <c r="T25" s="6">
+        <v>65</v>
+      </c>
+      <c r="U25" s="8">
         <v>0.375</v>
       </c>
-      <c r="U25" s="8">
+      <c r="V25" s="8">
         <v>0.6</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>60</v>
       </c>
-      <c r="W25" s="6">
-        <v>65</v>
-      </c>
       <c r="X25" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y25" s="6">
         <v>70</v>
       </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
       <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AB25" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AC25" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
         <v>0</v>
       </c>
@@ -4009,14 +4084,17 @@
       <c r="AK25">
         <v>0</v>
       </c>
-      <c r="AL25" s="14">
+      <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" s="14">
         <v>0</v>
       </c>
+      <c r="AN25" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1990</v>
       </c>
@@ -4036,77 +4114,77 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G26" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H26" s="8">
         <v>0.06</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J26" s="6">
         <v>3</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <v>0.25</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <v>0.15</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <v>354.01</v>
-      </c>
-      <c r="N26" s="6">
-        <v>276.70999999999998</v>
       </c>
       <c r="O26" s="6">
         <v>276.70999999999998</v>
       </c>
-      <c r="P26">
-        <v>6924.9600000000009</v>
+      <c r="P26" s="6">
+        <v>276.70999999999998</v>
       </c>
       <c r="Q26">
         <v>6924.9600000000009</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26">
+        <v>6924.9600000000009</v>
+      </c>
+      <c r="S26" s="6">
         <v>45</v>
       </c>
-      <c r="S26" s="6">
-        <v>65</v>
-      </c>
-      <c r="T26" s="8">
+      <c r="T26" s="6">
+        <v>65</v>
+      </c>
+      <c r="U26" s="8">
         <v>0.375</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <v>0.6</v>
       </c>
-      <c r="V26" s="6">
+      <c r="W26" s="6">
         <v>60</v>
       </c>
-      <c r="W26" s="6">
-        <v>65</v>
-      </c>
       <c r="X26" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y26" s="6">
         <v>70</v>
       </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
       <c r="Z26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AB26" s="6">
         <v>289.99</v>
       </c>
-      <c r="AB26" s="8">
+      <c r="AC26" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
         <v>0</v>
       </c>
@@ -4128,14 +4206,17 @@
       <c r="AK26">
         <v>0</v>
       </c>
-      <c r="AL26" s="14">
+      <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26" s="14">
         <v>0</v>
       </c>
+      <c r="AN26" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1991</v>
       </c>
@@ -4155,77 +4236,77 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G27" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H27" s="8">
         <v>0.06</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J27" s="6">
         <v>3</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>0.25</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>0.15</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>289.99</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>371</v>
-      </c>
-      <c r="N27" s="6">
-        <v>289.99</v>
       </c>
       <c r="O27" s="6">
         <v>289.99</v>
       </c>
-      <c r="P27">
-        <v>7258.32</v>
+      <c r="P27" s="6">
+        <v>289.99</v>
       </c>
       <c r="Q27">
         <v>7258.32</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27">
+        <v>7258.32</v>
+      </c>
+      <c r="S27" s="6">
         <v>45</v>
       </c>
-      <c r="S27" s="6">
-        <v>65</v>
-      </c>
-      <c r="T27" s="8">
+      <c r="T27" s="6">
+        <v>65</v>
+      </c>
+      <c r="U27" s="8">
         <v>0.375</v>
       </c>
-      <c r="U27" s="8">
+      <c r="V27" s="8">
         <v>0.6</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="6">
         <v>60</v>
       </c>
-      <c r="W27" s="6">
-        <v>65</v>
-      </c>
       <c r="X27" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y27" s="6">
         <v>70</v>
       </c>
-      <c r="Y27" s="6">
-        <v>0</v>
-      </c>
       <c r="Z27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AB27" s="6">
         <v>306.81</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AC27" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
       <c r="AE27">
         <v>0</v>
       </c>
@@ -4247,14 +4328,17 @@
       <c r="AK27">
         <v>0</v>
       </c>
-      <c r="AL27" s="14">
+      <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27" s="14">
         <v>0</v>
       </c>
+      <c r="AN27" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1992</v>
       </c>
@@ -4274,77 +4358,77 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="G28" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H28" s="8">
         <v>0.06</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>0.25</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>0.15</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <v>306.81</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <v>392.52</v>
-      </c>
-      <c r="N28" s="6">
-        <v>306.81</v>
       </c>
       <c r="O28" s="6">
         <v>306.81</v>
       </c>
-      <c r="P28">
-        <v>7633.32</v>
+      <c r="P28" s="6">
+        <v>306.81</v>
       </c>
       <c r="Q28">
         <v>7633.32</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28">
+        <v>7633.32</v>
+      </c>
+      <c r="S28" s="6">
         <v>45</v>
       </c>
-      <c r="S28" s="6">
-        <v>65</v>
-      </c>
-      <c r="T28" s="8">
+      <c r="T28" s="6">
+        <v>65</v>
+      </c>
+      <c r="U28" s="8">
         <v>0.375</v>
       </c>
-      <c r="U28" s="8">
+      <c r="V28" s="8">
         <v>0.6</v>
       </c>
-      <c r="V28" s="6">
+      <c r="W28" s="6">
         <v>60</v>
       </c>
-      <c r="W28" s="6">
-        <v>65</v>
-      </c>
       <c r="X28" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y28" s="6">
         <v>70</v>
       </c>
-      <c r="Y28" s="6">
-        <v>0</v>
-      </c>
       <c r="Z28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AB28" s="6">
         <v>312.33</v>
       </c>
-      <c r="AB28" s="8">
+      <c r="AC28" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
       <c r="AE28">
         <v>0</v>
       </c>
@@ -4366,14 +4450,17 @@
       <c r="AK28">
         <v>0</v>
       </c>
-      <c r="AL28" s="14">
+      <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28" s="14">
         <v>0</v>
       </c>
+      <c r="AN28" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1993</v>
       </c>
@@ -4393,77 +4480,77 @@
         <v>0.05</v>
       </c>
       <c r="G29" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H29" s="8">
         <v>0.06</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J29" s="6">
         <v>3</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <v>0.25</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <v>0.15</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>312.33</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>399.59</v>
-      </c>
-      <c r="N29" s="6">
-        <v>312.33</v>
       </c>
       <c r="O29" s="6">
         <v>312.33</v>
       </c>
-      <c r="P29">
-        <v>8008.32</v>
+      <c r="P29" s="6">
+        <v>312.33</v>
       </c>
       <c r="Q29">
         <v>8008.32</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29">
+        <v>8008.32</v>
+      </c>
+      <c r="S29" s="6">
         <v>45</v>
       </c>
-      <c r="S29" s="6">
-        <v>65</v>
-      </c>
-      <c r="T29" s="8">
+      <c r="T29" s="6">
+        <v>65</v>
+      </c>
+      <c r="U29" s="8">
         <v>0.375</v>
       </c>
-      <c r="U29" s="8">
+      <c r="V29" s="8">
         <v>0.6</v>
       </c>
-      <c r="V29" s="6">
+      <c r="W29" s="6">
         <v>60</v>
       </c>
-      <c r="W29" s="6">
-        <v>65</v>
-      </c>
       <c r="X29" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y29" s="6">
         <v>70</v>
       </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
       <c r="Z29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AB29" s="6">
         <v>318.26</v>
       </c>
-      <c r="AB29" s="8">
+      <c r="AC29" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
         <v>0</v>
       </c>
@@ -4485,14 +4572,17 @@
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29" s="14">
+      <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29" s="14">
         <v>0</v>
       </c>
+      <c r="AN29" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1994</v>
       </c>
@@ -4512,77 +4602,77 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="G30" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H30" s="8">
         <v>0.06</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <v>0.25</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <v>0.15</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <v>318.26</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <v>399.59</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <v>295.51</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <v>81.52</v>
-      </c>
-      <c r="P30">
-        <v>8333.2800000000007</v>
       </c>
       <c r="Q30">
         <v>8333.2800000000007</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30">
+        <v>8333.2800000000007</v>
+      </c>
+      <c r="S30" s="6">
         <v>45</v>
       </c>
-      <c r="S30" s="6">
-        <v>65</v>
-      </c>
-      <c r="T30" s="8">
+      <c r="T30" s="6">
+        <v>65</v>
+      </c>
+      <c r="U30" s="8">
         <v>0.375</v>
       </c>
-      <c r="U30" s="8">
+      <c r="V30" s="8">
         <v>0.6</v>
       </c>
-      <c r="V30" s="6">
+      <c r="W30" s="6">
         <v>60</v>
       </c>
-      <c r="W30" s="6">
-        <v>65</v>
-      </c>
       <c r="X30" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y30" s="6">
         <v>70</v>
       </c>
-      <c r="Y30" s="6">
-        <v>0</v>
-      </c>
       <c r="Z30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AB30" s="6">
         <v>318.26</v>
       </c>
-      <c r="AB30" s="8">
+      <c r="AC30" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
       <c r="AE30">
         <v>0</v>
       </c>
@@ -4604,14 +4694,17 @@
       <c r="AK30">
         <v>0</v>
       </c>
-      <c r="AL30" s="14">
+      <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30" s="14">
         <v>0</v>
       </c>
+      <c r="AN30" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1995</v>
       </c>
@@ -4631,77 +4724,77 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="G31" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
         <v>0.06</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J31" s="6">
         <v>3</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <v>0.25</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <v>0.15</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>318.26</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>399.59</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>295.51</v>
       </c>
-      <c r="O31" s="6">
+      <c r="P31" s="6">
         <v>81.52</v>
-      </c>
-      <c r="P31">
-        <v>8558.2800000000007</v>
       </c>
       <c r="Q31">
         <v>8558.2800000000007</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31">
+        <v>8558.2800000000007</v>
+      </c>
+      <c r="S31" s="6">
         <v>45</v>
       </c>
-      <c r="S31" s="6">
-        <v>65</v>
-      </c>
-      <c r="T31" s="8">
+      <c r="T31" s="6">
+        <v>65</v>
+      </c>
+      <c r="U31" s="8">
         <v>0.375</v>
       </c>
-      <c r="U31" s="8">
+      <c r="V31" s="8">
         <v>0.6</v>
       </c>
-      <c r="V31" s="6">
+      <c r="W31" s="6">
         <v>60</v>
       </c>
-      <c r="W31" s="6">
-        <v>65</v>
-      </c>
       <c r="X31" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y31" s="6">
         <v>70</v>
       </c>
-      <c r="Y31" s="6">
-        <v>0</v>
-      </c>
       <c r="Z31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AB31" s="6">
         <v>325.58</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AC31" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
       <c r="AE31">
         <v>0</v>
       </c>
@@ -4723,14 +4816,17 @@
       <c r="AK31">
         <v>0</v>
       </c>
-      <c r="AL31" s="14">
+      <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31" s="14">
         <v>0</v>
       </c>
+      <c r="AN31" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1996</v>
       </c>
@@ -4750,77 +4846,77 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="G32" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H32" s="8">
         <v>0.06</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J32" s="6">
         <v>3</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <v>0.25</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <v>0.15</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>325.58</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <v>399.59</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <v>302.31</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <v>83.39</v>
-      </c>
-      <c r="P32">
-        <v>8724.9600000000009</v>
       </c>
       <c r="Q32">
         <v>8724.9600000000009</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32">
+        <v>8724.9600000000009</v>
+      </c>
+      <c r="S32" s="6">
         <v>45</v>
       </c>
-      <c r="S32" s="6">
-        <v>65</v>
-      </c>
-      <c r="T32" s="8">
+      <c r="T32" s="6">
+        <v>65</v>
+      </c>
+      <c r="U32" s="8">
         <v>0.375</v>
       </c>
-      <c r="U32" s="8">
+      <c r="V32" s="8">
         <v>0.6</v>
       </c>
-      <c r="V32" s="6">
+      <c r="W32" s="6">
         <v>60</v>
       </c>
-      <c r="W32" s="6">
-        <v>65</v>
-      </c>
       <c r="X32" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y32" s="6">
         <v>70</v>
       </c>
-      <c r="Y32" s="6">
-        <v>0</v>
-      </c>
       <c r="Z32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AB32" s="6">
         <v>330.46</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AC32" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
       <c r="AE32">
         <v>0</v>
       </c>
@@ -4842,14 +4938,17 @@
       <c r="AK32">
         <v>0</v>
       </c>
-      <c r="AL32" s="14">
+      <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32" s="14">
         <v>0</v>
       </c>
+      <c r="AN32" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1997</v>
       </c>
@@ -4869,77 +4968,77 @@
         <v>0.06</v>
       </c>
       <c r="G33" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H33" s="8">
         <v>0.06</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J33" s="6">
         <v>3</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <v>0.25</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <v>0.15</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>330.46</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <v>399.59</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <v>306.83999999999997</v>
       </c>
-      <c r="O33" s="6">
+      <c r="P33" s="6">
         <v>84.64</v>
-      </c>
-      <c r="P33">
-        <v>8841.7199999999993</v>
       </c>
       <c r="Q33">
         <v>8841.7199999999993</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33">
+        <v>8841.7199999999993</v>
+      </c>
+      <c r="S33" s="6">
         <v>45</v>
       </c>
-      <c r="S33" s="6">
-        <v>65</v>
-      </c>
-      <c r="T33" s="8">
+      <c r="T33" s="6">
+        <v>65</v>
+      </c>
+      <c r="U33" s="8">
         <v>0.375</v>
       </c>
-      <c r="U33" s="8">
+      <c r="V33" s="8">
         <v>0.6</v>
       </c>
-      <c r="V33" s="6">
+      <c r="W33" s="6">
         <v>60</v>
       </c>
-      <c r="W33" s="6">
-        <v>65</v>
-      </c>
       <c r="X33" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y33" s="6">
         <v>70</v>
       </c>
-      <c r="Y33" s="6">
-        <v>0</v>
-      </c>
       <c r="Z33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA33" s="6">
+      <c r="AB33" s="6">
         <v>336.74</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AC33" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>1</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
         <v>0</v>
       </c>
@@ -4961,14 +5060,17 @@
       <c r="AK33">
         <v>0</v>
       </c>
-      <c r="AL33" s="14">
+      <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33" s="14">
         <v>0</v>
       </c>
+      <c r="AN33" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1998</v>
       </c>
@@ -4988,77 +5090,77 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G34" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H34" s="8">
         <v>0.06</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J34" s="6">
         <v>4</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <v>0.25</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <v>0.15</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>336.74</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <v>399.59</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>312.67</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <v>86.25</v>
-      </c>
-      <c r="P34">
-        <v>8937.48</v>
       </c>
       <c r="Q34">
         <v>8937.48</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34">
+        <v>8937.48</v>
+      </c>
+      <c r="S34" s="6">
         <v>45</v>
       </c>
-      <c r="S34" s="6">
-        <v>65</v>
-      </c>
-      <c r="T34" s="8">
+      <c r="T34" s="6">
+        <v>65</v>
+      </c>
+      <c r="U34" s="8">
         <v>0.375</v>
       </c>
-      <c r="U34" s="8">
+      <c r="V34" s="8">
         <v>0.6</v>
       </c>
-      <c r="V34" s="6">
+      <c r="W34" s="6">
         <v>60</v>
       </c>
-      <c r="W34" s="6">
-        <v>65</v>
-      </c>
       <c r="X34" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y34" s="6">
         <v>70</v>
       </c>
-      <c r="Y34" s="6">
-        <v>0</v>
-      </c>
       <c r="Z34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA34" s="6">
+      <c r="AB34" s="6">
         <v>339.77</v>
       </c>
-      <c r="AB34" s="8">
+      <c r="AC34" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1</v>
       </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
       <c r="AE34">
         <v>0</v>
       </c>
@@ -5080,14 +5182,17 @@
       <c r="AK34">
         <v>0</v>
       </c>
-      <c r="AL34" s="14">
+      <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34" s="14">
         <v>0</v>
       </c>
+      <c r="AN34" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1999</v>
       </c>
@@ -5107,77 +5212,77 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G35" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H35" s="8">
         <v>0.06</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <v>0.25</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <v>0.15</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <v>339.77</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <v>399.59</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <v>315.48</v>
       </c>
-      <c r="O35" s="6">
+      <c r="P35" s="6">
         <v>87.03</v>
-      </c>
-      <c r="P35">
-        <v>9020.0399999999991</v>
       </c>
       <c r="Q35">
         <v>9020.0399999999991</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R35">
+        <v>9020.0399999999991</v>
+      </c>
+      <c r="S35" s="6">
         <v>45</v>
       </c>
-      <c r="S35" s="6">
-        <v>65</v>
-      </c>
-      <c r="T35" s="8">
+      <c r="T35" s="6">
+        <v>65</v>
+      </c>
+      <c r="U35" s="8">
         <v>0.375</v>
       </c>
-      <c r="U35" s="8">
+      <c r="V35" s="8">
         <v>0.6</v>
       </c>
-      <c r="V35" s="6">
+      <c r="W35" s="6">
         <v>60</v>
       </c>
-      <c r="W35" s="6">
-        <v>65</v>
-      </c>
       <c r="X35" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="6">
         <v>70</v>
       </c>
-      <c r="Y35" s="6">
-        <v>0</v>
-      </c>
       <c r="Z35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA35" s="6">
+      <c r="AB35" s="6">
         <v>345.21</v>
       </c>
-      <c r="AB35" s="8">
+      <c r="AC35" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>1</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
@@ -5199,14 +5304,17 @@
       <c r="AK35">
         <v>0</v>
       </c>
-      <c r="AL35" s="14">
+      <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35" s="14">
         <v>0</v>
       </c>
+      <c r="AN35" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2000</v>
       </c>
@@ -5226,77 +5334,77 @@
         <v>7.8E-2</v>
       </c>
       <c r="G36" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H36" s="8">
         <v>0.06</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J36" s="6">
         <v>5</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>0.25</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>0.15</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <v>345.21</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <v>399.59</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>320.52999999999997</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <v>88.42</v>
-      </c>
-      <c r="P36">
-        <v>9155.0399999999991</v>
       </c>
       <c r="Q36">
         <v>9155.0399999999991</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36">
+        <v>9155.0399999999991</v>
+      </c>
+      <c r="S36" s="6">
         <v>45</v>
       </c>
-      <c r="S36" s="6">
-        <v>65</v>
-      </c>
-      <c r="T36" s="8">
+      <c r="T36" s="6">
+        <v>65</v>
+      </c>
+      <c r="U36" s="8">
         <v>0.375</v>
       </c>
-      <c r="U36" s="8">
+      <c r="V36" s="8">
         <v>0.6</v>
       </c>
-      <c r="V36" s="6">
+      <c r="W36" s="6">
         <v>60</v>
       </c>
-      <c r="W36" s="6">
-        <v>65</v>
-      </c>
       <c r="X36" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y36" s="6">
         <v>70</v>
       </c>
-      <c r="Y36" s="6">
-        <v>0</v>
-      </c>
       <c r="Z36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA36" s="6">
+      <c r="AB36" s="6">
         <v>353.84</v>
       </c>
-      <c r="AB36" s="8">
+      <c r="AC36" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>1</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
       <c r="AE36">
         <v>0</v>
       </c>
@@ -5318,14 +5426,17 @@
       <c r="AK36">
         <v>0</v>
       </c>
-      <c r="AL36" s="14">
+      <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36" s="14">
         <v>0</v>
       </c>
+      <c r="AN36" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2001</v>
       </c>
@@ -5345,77 +5456,77 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G37" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H37" s="8">
         <v>0.06</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J37" s="6">
         <v>5</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>0.25</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>0.15</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <v>353.84</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <v>399.59</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>328.54</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <v>90.63</v>
-      </c>
-      <c r="P37">
-        <v>9300</v>
       </c>
       <c r="Q37">
         <v>9300</v>
       </c>
-      <c r="R37" s="6">
+      <c r="R37">
+        <v>9300</v>
+      </c>
+      <c r="S37" s="6">
         <v>45</v>
       </c>
-      <c r="S37" s="6">
-        <v>65</v>
-      </c>
-      <c r="T37" s="8">
+      <c r="T37" s="6">
+        <v>65</v>
+      </c>
+      <c r="U37" s="8">
         <v>0.375</v>
       </c>
-      <c r="U37" s="8">
+      <c r="V37" s="8">
         <v>0.6</v>
       </c>
-      <c r="V37" s="6">
+      <c r="W37" s="6">
         <v>60</v>
       </c>
-      <c r="W37" s="6">
-        <v>65</v>
-      </c>
       <c r="X37" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y37" s="6">
         <v>70</v>
       </c>
-      <c r="Y37" s="6">
-        <v>0</v>
-      </c>
       <c r="Z37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA37" s="6">
+      <c r="AB37" s="6">
         <v>364.46</v>
       </c>
-      <c r="AB37" s="8">
+      <c r="AC37" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>1</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
       <c r="AE37">
         <v>0</v>
       </c>
@@ -5437,14 +5548,17 @@
       <c r="AK37">
         <v>0</v>
       </c>
-      <c r="AL37" s="14">
+      <c r="AL37">
         <v>0</v>
       </c>
       <c r="AM37" s="14">
         <v>0</v>
       </c>
+      <c r="AN37" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2002</v>
       </c>
@@ -5464,77 +5578,77 @@
         <v>9.4E-2</v>
       </c>
       <c r="G38" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H38" s="8">
         <v>0.06</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J38" s="6">
         <v>5</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <v>0.25</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <v>0.15</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <v>364.46</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <v>399.59</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>338.4</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <v>93.35</v>
-      </c>
-      <c r="P38">
-        <v>9465</v>
       </c>
       <c r="Q38">
         <v>9465</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R38">
+        <v>9465</v>
+      </c>
+      <c r="S38" s="6">
         <v>45</v>
       </c>
-      <c r="S38" s="6">
-        <v>65</v>
-      </c>
-      <c r="T38" s="8">
+      <c r="T38" s="6">
+        <v>65</v>
+      </c>
+      <c r="U38" s="8">
         <v>0.375</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <v>0.6</v>
       </c>
-      <c r="V38" s="6">
+      <c r="W38" s="6">
         <v>60</v>
       </c>
-      <c r="W38" s="6">
-        <v>65</v>
-      </c>
       <c r="X38" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y38" s="6">
         <v>70</v>
       </c>
-      <c r="Y38" s="6">
-        <v>0</v>
-      </c>
       <c r="Z38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AB38" s="6">
         <v>370.29</v>
       </c>
-      <c r="AB38" s="8">
+      <c r="AC38" s="8">
         <v>0.03</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>1</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
       <c r="AE38">
         <v>0</v>
       </c>
@@ -5556,14 +5670,17 @@
       <c r="AK38">
         <v>0</v>
       </c>
-      <c r="AL38" s="14">
+      <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38" s="14">
         <v>0</v>
       </c>
+      <c r="AN38" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2003</v>
       </c>
@@ -5583,77 +5700,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G39" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H39" s="8">
         <v>0.06</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J39" s="6">
         <v>5</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <v>0.25</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <v>0.15</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>370.29</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <v>399.59</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>343.81</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <v>94.84</v>
-      </c>
-      <c r="P39">
-        <v>9615</v>
       </c>
       <c r="Q39">
         <v>9615</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39">
+        <v>9615</v>
+      </c>
+      <c r="S39" s="6">
         <v>45</v>
       </c>
-      <c r="S39" s="6">
-        <v>65</v>
-      </c>
-      <c r="T39" s="8">
+      <c r="T39" s="6">
+        <v>65</v>
+      </c>
+      <c r="U39" s="8">
         <v>0.375</v>
       </c>
-      <c r="U39" s="8">
+      <c r="V39" s="8">
         <v>0.6</v>
       </c>
-      <c r="V39" s="6">
+      <c r="W39" s="6">
         <v>60</v>
       </c>
-      <c r="W39" s="6">
-        <v>65</v>
-      </c>
       <c r="X39" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="6">
         <v>70</v>
       </c>
-      <c r="Y39" s="6">
-        <v>0</v>
-      </c>
       <c r="Z39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA39" s="6">
+      <c r="AB39" s="6">
         <v>382.14</v>
       </c>
-      <c r="AB39" s="8">
+      <c r="AC39" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>1</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0</v>
       </c>
@@ -5675,14 +5792,17 @@
       <c r="AK39">
         <v>0</v>
       </c>
-      <c r="AL39" s="14">
+      <c r="AL39">
         <v>0</v>
       </c>
       <c r="AM39" s="14">
         <v>0</v>
       </c>
+      <c r="AN39" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2004</v>
       </c>
@@ -5702,77 +5822,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G40" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H40" s="8">
         <v>0.06</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J40" s="6">
         <v>5</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <v>0.25</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <v>0.15</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <v>382.14</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <v>399.59</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>354.81</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="6">
         <v>97.87</v>
-      </c>
-      <c r="P40" s="1">
-        <v>9770.0399999999991</v>
       </c>
       <c r="Q40" s="1">
         <v>9770.0399999999991</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="1">
+        <v>9770.0399999999991</v>
+      </c>
+      <c r="S40" s="6">
         <v>45</v>
       </c>
-      <c r="S40" s="6">
-        <v>65</v>
-      </c>
-      <c r="T40" s="8">
+      <c r="T40" s="6">
+        <v>65</v>
+      </c>
+      <c r="U40" s="8">
         <v>0.375</v>
       </c>
-      <c r="U40" s="8">
+      <c r="V40" s="8">
         <v>0.6</v>
       </c>
-      <c r="V40" s="6">
+      <c r="W40" s="6">
         <v>60</v>
       </c>
-      <c r="W40" s="6">
-        <v>65</v>
-      </c>
       <c r="X40" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y40" s="6">
         <v>70</v>
       </c>
-      <c r="Y40" s="6">
-        <v>0</v>
-      </c>
       <c r="Z40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA40" s="6">
+      <c r="AB40" s="6">
         <v>388.64</v>
       </c>
-      <c r="AB40" s="8">
+      <c r="AC40" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>1</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
       <c r="AE40">
         <v>0</v>
       </c>
@@ -5794,14 +5914,17 @@
       <c r="AK40">
         <v>0</v>
       </c>
-      <c r="AL40" s="14">
+      <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40" s="14">
         <v>0</v>
       </c>
+      <c r="AN40" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2005</v>
       </c>
@@ -5821,77 +5944,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G41" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8">
         <v>0.06</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J41" s="6">
         <v>5</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <v>0.25</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <v>0.15</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <v>388.64</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <v>399.59</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>360.84</v>
       </c>
-      <c r="O41" s="6">
+      <c r="P41" s="6">
         <v>99.53</v>
-      </c>
-      <c r="P41" s="1">
-        <v>9945</v>
       </c>
       <c r="Q41" s="1">
         <v>9945</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="1">
+        <v>9945</v>
+      </c>
+      <c r="S41" s="6">
         <v>45</v>
       </c>
-      <c r="S41" s="6">
-        <v>65</v>
-      </c>
-      <c r="T41" s="8">
+      <c r="T41" s="6">
+        <v>65</v>
+      </c>
+      <c r="U41" s="8">
         <v>0.375</v>
       </c>
-      <c r="U41" s="8">
+      <c r="V41" s="8">
         <v>0.6</v>
       </c>
-      <c r="V41" s="6">
+      <c r="W41" s="6">
         <v>60</v>
       </c>
-      <c r="W41" s="6">
-        <v>65</v>
-      </c>
       <c r="X41" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y41" s="6">
         <v>70</v>
       </c>
-      <c r="Y41" s="6">
-        <v>0</v>
-      </c>
       <c r="Z41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA41" s="6">
+      <c r="AB41" s="6">
         <v>397.58</v>
       </c>
-      <c r="AB41" s="8">
+      <c r="AC41" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>1</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
       <c r="AE41">
         <v>0</v>
       </c>
@@ -5913,14 +6036,17 @@
       <c r="AK41">
         <v>0</v>
       </c>
-      <c r="AL41" s="14">
+      <c r="AL41">
         <v>0</v>
       </c>
       <c r="AM41" s="14">
         <v>0</v>
       </c>
+      <c r="AN41" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2006</v>
       </c>
@@ -5940,77 +6066,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G42" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H42" s="8">
         <v>0.06</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J42" s="6">
         <v>5</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <v>0.25</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <v>0.15</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <v>397.58</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <v>399.59</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <v>369.14</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <v>101.82</v>
-      </c>
-      <c r="P42" s="1">
-        <v>10134.960000000001</v>
       </c>
       <c r="Q42" s="1">
         <v>10134.960000000001</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="1">
+        <v>10134.960000000001</v>
+      </c>
+      <c r="S42" s="6">
         <v>45</v>
       </c>
-      <c r="S42" s="6">
-        <v>65</v>
-      </c>
-      <c r="T42" s="8">
+      <c r="T42" s="6">
+        <v>65</v>
+      </c>
+      <c r="U42" s="8">
         <v>0.375</v>
       </c>
-      <c r="U42" s="8">
+      <c r="V42" s="8">
         <v>0.6</v>
       </c>
-      <c r="V42" s="6">
+      <c r="W42" s="6">
         <v>60</v>
       </c>
-      <c r="W42" s="6">
-        <v>65</v>
-      </c>
       <c r="X42" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y42" s="6">
         <v>70</v>
       </c>
-      <c r="Y42" s="6">
-        <v>0</v>
-      </c>
       <c r="Z42" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA42" s="6">
+      <c r="AB42" s="6">
         <v>405.93</v>
       </c>
-      <c r="AB42" s="8">
+      <c r="AC42" s="8">
         <v>2.3E-2</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>1</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
       <c r="AE42">
         <v>0</v>
       </c>
@@ -6032,14 +6158,17 @@
       <c r="AK42">
         <v>0</v>
       </c>
-      <c r="AL42" s="14">
+      <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42" s="14">
         <v>0</v>
       </c>
+      <c r="AN42" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2007</v>
       </c>
@@ -6059,77 +6188,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G43" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8">
         <v>0.06</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J43" s="6">
         <v>5</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <v>0.25</v>
       </c>
-      <c r="K43" s="6">
+      <c r="L43" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L43" s="6">
-        <v>405.93</v>
       </c>
       <c r="M43" s="6">
         <v>405.93</v>
       </c>
       <c r="N43" s="6">
+        <v>405.93</v>
+      </c>
+      <c r="O43" s="6">
         <v>376.89</v>
       </c>
-      <c r="O43" s="6">
+      <c r="P43" s="6">
         <v>103.96</v>
-      </c>
-      <c r="P43" s="1">
-        <v>10365</v>
       </c>
       <c r="Q43" s="1">
         <v>10365</v>
       </c>
-      <c r="R43" s="6">
+      <c r="R43" s="1">
+        <v>10365</v>
+      </c>
+      <c r="S43" s="6">
         <v>45</v>
       </c>
-      <c r="S43" s="6">
-        <v>65</v>
-      </c>
-      <c r="T43" s="8">
+      <c r="T43" s="6">
+        <v>65</v>
+      </c>
+      <c r="U43" s="8">
         <v>0.375</v>
       </c>
-      <c r="U43" s="8">
+      <c r="V43" s="8">
         <v>0.6</v>
       </c>
-      <c r="V43" s="6">
+      <c r="W43" s="6">
         <v>60</v>
       </c>
-      <c r="W43" s="6">
-        <v>65</v>
-      </c>
       <c r="X43" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y43" s="6">
         <v>70</v>
       </c>
-      <c r="Y43" s="6">
-        <v>0</v>
-      </c>
       <c r="Z43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA43" s="6">
+      <c r="AB43" s="6">
         <v>414.05</v>
       </c>
-      <c r="AB43" s="8">
+      <c r="AC43" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>1</v>
       </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
       <c r="AE43">
         <v>0</v>
       </c>
@@ -6151,14 +6280,17 @@
       <c r="AK43">
         <v>0</v>
       </c>
-      <c r="AL43" s="14">
+      <c r="AL43">
         <v>0</v>
       </c>
       <c r="AM43" s="14">
         <v>0</v>
       </c>
+      <c r="AN43" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2008</v>
       </c>
@@ -6178,77 +6310,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G44" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H44" s="8">
         <v>0.06</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J44" s="6">
         <v>5</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <v>0.25</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L44" s="6">
-        <v>414.05</v>
       </c>
       <c r="M44" s="6">
         <v>414.05</v>
       </c>
       <c r="N44" s="6">
+        <v>414.05</v>
+      </c>
+      <c r="O44" s="6">
         <v>384.43</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <v>106.04</v>
-      </c>
-      <c r="P44" s="1">
-        <v>10614.960000000001</v>
       </c>
       <c r="Q44" s="1">
         <v>10614.960000000001</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="1">
+        <v>10614.960000000001</v>
+      </c>
+      <c r="S44" s="6">
         <v>45</v>
       </c>
-      <c r="S44" s="6">
-        <v>65</v>
-      </c>
-      <c r="T44" s="8">
+      <c r="T44" s="6">
+        <v>65</v>
+      </c>
+      <c r="U44" s="8">
         <v>0.375</v>
       </c>
-      <c r="U44" s="8">
+      <c r="V44" s="8">
         <v>0.6</v>
       </c>
-      <c r="V44" s="6">
+      <c r="W44" s="6">
         <v>60</v>
       </c>
-      <c r="W44" s="6">
-        <v>65</v>
-      </c>
       <c r="X44" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y44" s="6">
         <v>70</v>
       </c>
-      <c r="Y44" s="6">
-        <v>0</v>
-      </c>
       <c r="Z44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA44" s="6">
+      <c r="AB44" s="6">
         <v>424.4</v>
       </c>
-      <c r="AB44" s="8">
+      <c r="AC44" s="8">
         <v>0.02</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>1</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
       <c r="AE44">
         <v>0</v>
       </c>
@@ -6270,14 +6402,17 @@
       <c r="AK44">
         <v>0</v>
       </c>
-      <c r="AL44" s="14">
+      <c r="AL44">
         <v>0</v>
       </c>
       <c r="AM44" s="14">
         <v>0</v>
       </c>
+      <c r="AN44" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2009</v>
       </c>
@@ -6297,77 +6432,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G45" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H45" s="8">
         <v>0.06</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J45" s="6">
         <v>5</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <v>0.25</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L45" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L45" s="6">
-        <v>424.4</v>
       </c>
       <c r="M45" s="6">
         <v>424.4</v>
       </c>
       <c r="N45" s="6">
+        <v>424.4</v>
+      </c>
+      <c r="O45" s="6">
         <v>394.04</v>
       </c>
-      <c r="O45" s="6">
+      <c r="P45" s="6">
         <v>108.69</v>
-      </c>
-      <c r="P45" s="1">
-        <v>10905</v>
       </c>
       <c r="Q45" s="1">
         <v>10905</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="1">
+        <v>10905</v>
+      </c>
+      <c r="S45" s="6">
         <v>45</v>
       </c>
-      <c r="S45" s="6">
-        <v>65</v>
-      </c>
-      <c r="T45" s="8">
+      <c r="T45" s="6">
+        <v>65</v>
+      </c>
+      <c r="U45" s="8">
         <v>0.375</v>
       </c>
-      <c r="U45" s="8">
+      <c r="V45" s="8">
         <v>0.6</v>
       </c>
-      <c r="V45" s="6">
+      <c r="W45" s="6">
         <v>60</v>
       </c>
-      <c r="W45" s="6">
-        <v>65</v>
-      </c>
       <c r="X45" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y45" s="6">
         <v>70</v>
       </c>
-      <c r="Y45" s="6">
-        <v>0</v>
-      </c>
       <c r="Z45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA45" s="6">
+      <c r="AB45" s="6">
         <v>426.1</v>
       </c>
-      <c r="AB45" s="8">
+      <c r="AC45" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>1</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
       <c r="AE45">
         <v>0</v>
       </c>
@@ -6389,14 +6524,17 @@
       <c r="AK45">
         <v>0</v>
       </c>
-      <c r="AL45" s="14">
+      <c r="AL45">
         <v>0</v>
       </c>
       <c r="AM45" s="14">
         <v>0</v>
       </c>
+      <c r="AN45" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2010</v>
       </c>
@@ -6416,77 +6554,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G46" s="8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H46" s="8">
         <v>0.06</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>0.25</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L46" s="6">
-        <v>426.1</v>
       </c>
       <c r="M46" s="6">
         <v>426.1</v>
       </c>
       <c r="N46" s="6">
+        <v>426.1</v>
+      </c>
+      <c r="O46" s="6">
         <v>395.62</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <v>109.12</v>
-      </c>
-      <c r="P46" s="1">
-        <v>11210.039999999999</v>
       </c>
       <c r="Q46" s="1">
         <v>11210.039999999999</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="1">
+        <v>11210.039999999999</v>
+      </c>
+      <c r="S46" s="6">
         <v>45</v>
       </c>
-      <c r="S46" s="6">
-        <v>65</v>
-      </c>
-      <c r="T46" s="8">
+      <c r="T46" s="6">
+        <v>65</v>
+      </c>
+      <c r="U46" s="8">
         <v>0.375</v>
       </c>
-      <c r="U46" s="8">
+      <c r="V46" s="8">
         <v>0.6</v>
       </c>
-      <c r="V46" s="6">
+      <c r="W46" s="6">
         <v>60</v>
       </c>
-      <c r="W46" s="6">
-        <v>65</v>
-      </c>
       <c r="X46" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y46" s="6">
         <v>70</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="6">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA46" s="6">
+      <c r="AB46" s="6">
         <v>433.34</v>
       </c>
-      <c r="AB46" s="8">
+      <c r="AC46" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>1</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
       <c r="AE46">
         <v>0</v>
       </c>
@@ -6508,14 +6646,17 @@
       <c r="AK46">
         <v>0</v>
       </c>
-      <c r="AL46" s="14">
+      <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46" s="14">
         <v>0</v>
       </c>
+      <c r="AN46" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2011</v>
       </c>
@@ -6535,77 +6676,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8">
         <v>0.06</v>
       </c>
-      <c r="H47" s="8">
+      <c r="I47" s="8">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <v>5</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>0.25</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <v>0.15</v>
-      </c>
-      <c r="L47" s="6">
-        <v>433.34</v>
       </c>
       <c r="M47" s="6">
         <v>433.34</v>
       </c>
       <c r="N47" s="6">
+        <v>433.34</v>
+      </c>
+      <c r="O47" s="6">
         <v>402.35</v>
       </c>
-      <c r="O47" s="6">
+      <c r="P47" s="6">
         <v>110.98</v>
-      </c>
-      <c r="P47" s="1">
-        <v>11520</v>
       </c>
       <c r="Q47" s="1">
         <v>11520</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R47" s="1">
+        <v>11520</v>
+      </c>
+      <c r="S47" s="6">
         <v>45</v>
       </c>
-      <c r="S47" s="6">
-        <v>65</v>
-      </c>
-      <c r="T47" s="8">
+      <c r="T47" s="6">
+        <v>65</v>
+      </c>
+      <c r="U47" s="8">
         <v>0.375</v>
       </c>
-      <c r="U47" s="8">
+      <c r="V47" s="8">
         <v>0.6</v>
       </c>
-      <c r="V47" s="6">
+      <c r="W47" s="6">
         <v>60</v>
       </c>
-      <c r="W47" s="6">
-        <v>65</v>
-      </c>
       <c r="X47" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y47" s="6">
         <v>70</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="6">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA47" s="6">
+      <c r="AB47" s="6">
         <v>445.47</v>
       </c>
-      <c r="AB47" s="8">
+      <c r="AC47" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>1</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
       <c r="AE47">
         <v>0</v>
       </c>
@@ -6627,14 +6768,17 @@
       <c r="AK47">
         <v>0</v>
       </c>
-      <c r="AL47" s="14">
+      <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47" s="14">
         <v>0</v>
       </c>
+      <c r="AN47" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2012</v>
       </c>
@@ -6654,77 +6798,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G48" s="8">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="H48" s="8">
+      <c r="I48" s="8">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <v>0.25</v>
       </c>
-      <c r="K48" s="6">
+      <c r="L48" s="6">
         <v>0.16</v>
-      </c>
-      <c r="L48" s="6">
-        <v>445.47</v>
       </c>
       <c r="M48" s="6">
         <v>445.47</v>
       </c>
       <c r="N48" s="6">
+        <v>445.47</v>
+      </c>
+      <c r="O48" s="6">
         <v>413.62</v>
       </c>
-      <c r="O48" s="6">
+      <c r="P48" s="6">
         <v>114.09</v>
-      </c>
-      <c r="P48" s="1">
-        <v>11840.039999999999</v>
       </c>
       <c r="Q48" s="1">
         <v>11840.039999999999</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="1">
+        <v>11840.039999999999</v>
+      </c>
+      <c r="S48" s="6">
         <v>45</v>
       </c>
-      <c r="S48" s="6">
-        <v>65</v>
-      </c>
-      <c r="T48" s="8">
+      <c r="T48" s="6">
+        <v>65</v>
+      </c>
+      <c r="U48" s="8">
         <v>0.375</v>
       </c>
-      <c r="U48" s="8">
+      <c r="V48" s="8">
         <v>0.6</v>
       </c>
-      <c r="V48" s="6">
+      <c r="W48" s="6">
         <v>60</v>
       </c>
-      <c r="W48" s="6">
-        <v>65</v>
-      </c>
       <c r="X48" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y48" s="6">
         <v>70</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="6">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA48" s="6">
+      <c r="AB48" s="6">
         <v>453.49</v>
       </c>
-      <c r="AB48" s="8">
+      <c r="AC48" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>1</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
       <c r="AE48">
         <v>0</v>
       </c>
@@ -6746,14 +6890,17 @@
       <c r="AK48">
         <v>0</v>
       </c>
-      <c r="AL48" s="14">
+      <c r="AL48">
         <v>0</v>
       </c>
       <c r="AM48" s="14">
         <v>0</v>
       </c>
+      <c r="AN48" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2013</v>
       </c>
@@ -6773,77 +6920,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G49" s="8">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="H49" s="8">
+      <c r="I49" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <v>0.25</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <v>0.16</v>
-      </c>
-      <c r="L49" s="6">
-        <v>453.49</v>
       </c>
       <c r="M49" s="6">
         <v>453.49</v>
       </c>
       <c r="N49" s="6">
+        <v>453.49</v>
+      </c>
+      <c r="O49" s="6">
         <v>421.07</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <v>116.14</v>
-      </c>
-      <c r="P49" s="1">
-        <v>12150</v>
       </c>
       <c r="Q49" s="1">
         <v>12150</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="1">
+        <v>12150</v>
+      </c>
+      <c r="S49" s="6">
         <v>45</v>
       </c>
-      <c r="S49" s="6">
-        <v>65</v>
-      </c>
-      <c r="T49" s="8">
+      <c r="T49" s="6">
+        <v>65</v>
+      </c>
+      <c r="U49" s="8">
         <v>0.375</v>
       </c>
-      <c r="U49" s="8">
+      <c r="V49" s="8">
         <v>0.6</v>
       </c>
-      <c r="V49" s="6">
+      <c r="W49" s="6">
         <v>60</v>
       </c>
-      <c r="W49" s="6">
-        <v>65</v>
-      </c>
       <c r="X49" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y49" s="6">
         <v>70</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Z49" s="4">
         <v>0.12891520244461424</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AA49" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA49" s="6">
+      <c r="AB49" s="6">
         <v>457.57</v>
       </c>
-      <c r="AB49" s="8">
+      <c r="AC49" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>1</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
       <c r="AE49">
         <v>0</v>
       </c>
@@ -6865,14 +7012,17 @@
       <c r="AK49">
         <v>0</v>
       </c>
-      <c r="AL49" s="14">
+      <c r="AL49">
         <v>0</v>
       </c>
       <c r="AM49" s="14">
         <v>0</v>
       </c>
+      <c r="AN49" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2014</v>
       </c>
@@ -6892,77 +7042,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G50" s="8">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="H50" s="8">
+      <c r="I50" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <v>5</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <v>0.25</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <v>0.17</v>
-      </c>
-      <c r="L50" s="6">
-        <v>457.57</v>
       </c>
       <c r="M50" s="6">
         <v>457.57</v>
       </c>
       <c r="N50" s="6">
+        <v>457.57</v>
+      </c>
+      <c r="O50" s="6">
         <v>424.86</v>
       </c>
-      <c r="O50" s="6">
+      <c r="P50" s="6">
         <v>117.19</v>
-      </c>
-      <c r="P50" s="1">
-        <v>12459.96</v>
       </c>
       <c r="Q50" s="1">
         <v>12459.96</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="1">
+        <v>12459.96</v>
+      </c>
+      <c r="S50" s="6">
         <v>45</v>
       </c>
-      <c r="S50" s="6">
-        <v>65</v>
-      </c>
-      <c r="T50" s="8">
+      <c r="T50" s="6">
+        <v>65</v>
+      </c>
+      <c r="U50" s="8">
         <v>0.375</v>
       </c>
-      <c r="U50" s="8">
+      <c r="V50" s="8">
         <v>0.6</v>
       </c>
-      <c r="V50" s="6">
+      <c r="W50" s="6">
         <v>60</v>
       </c>
-      <c r="W50" s="6">
-        <v>65</v>
-      </c>
       <c r="X50" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y50" s="6">
         <v>70</v>
       </c>
-      <c r="Y50" s="4">
+      <c r="Z50" s="4">
         <v>0.12842671614100185</v>
       </c>
-      <c r="Z50" s="6">
+      <c r="AA50" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA50" s="6">
+      <c r="AB50" s="6">
         <v>465.81</v>
       </c>
-      <c r="AB50" s="8">
+      <c r="AC50" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>1</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
       <c r="AE50">
         <v>0</v>
       </c>
@@ -6984,14 +7134,17 @@
       <c r="AK50">
         <v>0</v>
       </c>
-      <c r="AL50" s="14">
+      <c r="AL50">
         <v>0</v>
       </c>
       <c r="AM50" s="14">
         <v>0</v>
       </c>
+      <c r="AN50" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2015</v>
       </c>
@@ -7011,77 +7164,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G51" s="8">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="H51" s="8">
+      <c r="I51" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <v>5</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <v>0.25</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <v>0.17</v>
-      </c>
-      <c r="L51" s="6">
-        <v>465.81</v>
       </c>
       <c r="M51" s="6">
         <v>465.81</v>
       </c>
       <c r="N51" s="6">
+        <v>465.81</v>
+      </c>
+      <c r="O51" s="6">
         <v>432.51</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="6">
         <v>119.3</v>
-      </c>
-      <c r="P51" s="1">
-        <v>12780</v>
       </c>
       <c r="Q51" s="1">
         <v>12780</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="1">
+        <v>12780</v>
+      </c>
+      <c r="S51" s="6">
         <v>45</v>
       </c>
-      <c r="S51" s="6">
-        <v>65</v>
-      </c>
-      <c r="T51" s="8">
+      <c r="T51" s="6">
+        <v>65</v>
+      </c>
+      <c r="U51" s="8">
         <v>0.375</v>
       </c>
-      <c r="U51" s="8">
+      <c r="V51" s="8">
         <v>0.6</v>
       </c>
-      <c r="V51" s="6">
+      <c r="W51" s="6">
         <v>60</v>
       </c>
-      <c r="W51" s="6">
-        <v>65</v>
-      </c>
       <c r="X51" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y51" s="6">
         <v>70</v>
       </c>
-      <c r="Y51" s="4">
+      <c r="Z51" s="4">
         <v>0.1288332426056977</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AA51" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA51" s="6">
+      <c r="AB51" s="6">
         <v>471.4</v>
       </c>
-      <c r="AB51" s="8">
+      <c r="AC51" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>1</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
       <c r="AE51">
         <v>0</v>
       </c>
@@ -7103,14 +7256,17 @@
       <c r="AK51">
         <v>0</v>
       </c>
-      <c r="AL51" s="14">
+      <c r="AL51">
         <v>0</v>
       </c>
       <c r="AM51" s="14">
         <v>0</v>
       </c>
+      <c r="AN51" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2016</v>
       </c>
@@ -7130,77 +7286,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G52" s="8">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H52" s="8">
+      <c r="I52" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I52" s="6">
+      <c r="J52" s="6">
         <v>5</v>
       </c>
-      <c r="J52" s="6">
+      <c r="K52" s="6">
         <v>0.25</v>
       </c>
-      <c r="K52" s="6">
+      <c r="L52" s="6">
         <v>0.17</v>
-      </c>
-      <c r="L52" s="6">
-        <v>471.4</v>
       </c>
       <c r="M52" s="6">
         <v>471.4</v>
       </c>
       <c r="N52" s="6">
+        <v>471.4</v>
+      </c>
+      <c r="O52" s="6">
         <v>437.7</v>
       </c>
-      <c r="O52" s="6">
+      <c r="P52" s="6">
         <v>120.73</v>
-      </c>
-      <c r="P52" s="1">
-        <v>13110</v>
       </c>
       <c r="Q52" s="1">
         <v>13110</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="1">
+        <v>13110</v>
+      </c>
+      <c r="S52" s="6">
         <v>45</v>
       </c>
-      <c r="S52" s="6">
-        <v>65</v>
-      </c>
-      <c r="T52" s="8">
+      <c r="T52" s="6">
+        <v>65</v>
+      </c>
+      <c r="U52" s="8">
         <v>0.375</v>
       </c>
-      <c r="U52" s="8">
+      <c r="V52" s="8">
         <v>0.6</v>
       </c>
-      <c r="V52" s="6">
+      <c r="W52" s="6">
         <v>60</v>
       </c>
-      <c r="W52" s="6">
-        <v>65</v>
-      </c>
       <c r="X52" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y52" s="6">
         <v>70</v>
       </c>
-      <c r="Y52" s="4">
+      <c r="Z52" s="4">
         <v>0.12881735644381559</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AA52" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AB52" s="6">
         <v>471.4</v>
       </c>
-      <c r="AB52" s="8">
+      <c r="AC52" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>1</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0</v>
       </c>
@@ -7222,14 +7378,17 @@
       <c r="AK52">
         <v>0</v>
       </c>
-      <c r="AL52" s="14">
+      <c r="AL52">
         <v>0</v>
       </c>
       <c r="AM52" s="14">
         <v>0</v>
       </c>
+      <c r="AN52" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2017</v>
       </c>
@@ -7249,77 +7408,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H53" s="8">
+      <c r="I53" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I53" s="6">
+      <c r="J53" s="6">
         <v>5</v>
       </c>
-      <c r="J53" s="6">
+      <c r="K53" s="6">
         <v>0.25</v>
       </c>
-      <c r="K53" s="6">
+      <c r="L53" s="6">
         <v>0.17</v>
-      </c>
-      <c r="L53" s="6">
-        <v>478</v>
       </c>
       <c r="M53" s="6">
         <v>478</v>
       </c>
       <c r="N53" s="6">
+        <v>478</v>
+      </c>
+      <c r="O53" s="6">
         <v>443.83</v>
       </c>
-      <c r="O53" s="6">
+      <c r="P53" s="6">
         <v>122.42</v>
-      </c>
-      <c r="P53" s="1">
-        <v>13370.04</v>
       </c>
       <c r="Q53" s="1">
         <v>13370.04</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="1">
+        <v>13370.04</v>
+      </c>
+      <c r="S53" s="6">
         <v>45</v>
       </c>
-      <c r="S53" s="6">
-        <v>65</v>
-      </c>
-      <c r="T53" s="8">
+      <c r="T53" s="6">
+        <v>65</v>
+      </c>
+      <c r="U53" s="8">
         <v>0.375</v>
       </c>
-      <c r="U53" s="8">
+      <c r="V53" s="8">
         <v>0.6</v>
       </c>
-      <c r="V53" s="6">
+      <c r="W53" s="6">
         <v>60</v>
       </c>
-      <c r="W53" s="6">
-        <v>65</v>
-      </c>
       <c r="X53" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y53" s="6">
         <v>70</v>
       </c>
-      <c r="Y53" s="4">
+      <c r="Z53" s="4">
         <v>0.13035802035802038</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="AA53" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA53" s="6">
+      <c r="AB53" s="6">
         <v>478</v>
       </c>
-      <c r="AB53" s="8">
+      <c r="AC53" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>1</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
       <c r="AE53">
         <v>0</v>
       </c>
@@ -7341,14 +7500,17 @@
       <c r="AK53">
         <v>0</v>
       </c>
-      <c r="AL53" s="14">
+      <c r="AL53">
         <v>0</v>
       </c>
       <c r="AM53" s="14">
         <v>0</v>
       </c>
+      <c r="AN53" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2018</v>
       </c>
@@ -7368,77 +7530,77 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H54" s="8">
+      <c r="I54" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I54" s="6">
+      <c r="J54" s="6">
         <v>5</v>
       </c>
-      <c r="J54" s="6">
+      <c r="K54" s="6">
         <v>0.25</v>
       </c>
-      <c r="K54" s="6">
+      <c r="L54" s="6">
         <v>0.17</v>
-      </c>
-      <c r="L54" s="6">
-        <v>485.17</v>
       </c>
       <c r="M54" s="6">
         <v>485.17</v>
       </c>
       <c r="N54" s="6">
+        <v>485.17</v>
+      </c>
+      <c r="O54" s="6">
         <v>450.49</v>
       </c>
-      <c r="O54" s="6">
+      <c r="P54" s="6">
         <v>124.26</v>
-      </c>
-      <c r="P54" s="1">
-        <v>13610.04</v>
       </c>
       <c r="Q54" s="1">
         <v>13610.04</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="1">
+        <v>13610.04</v>
+      </c>
+      <c r="S54" s="6">
         <v>45</v>
       </c>
-      <c r="S54" s="6">
-        <v>65</v>
-      </c>
-      <c r="T54" s="8">
+      <c r="T54" s="6">
+        <v>65</v>
+      </c>
+      <c r="U54" s="8">
         <v>0.375</v>
       </c>
-      <c r="U54" s="8">
+      <c r="V54" s="8">
         <v>0.6</v>
       </c>
-      <c r="V54" s="6">
+      <c r="W54" s="6">
         <v>60</v>
       </c>
-      <c r="W54" s="6">
-        <v>65</v>
-      </c>
       <c r="X54" s="6">
+        <v>65</v>
+      </c>
+      <c r="Y54" s="6">
         <v>70</v>
       </c>
-      <c r="Y54" s="4">
+      <c r="Z54" s="4">
         <v>0.13117857969003008</v>
       </c>
-      <c r="Z54" s="6">
+      <c r="AA54" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AB54" s="6">
         <v>485.17</v>
       </c>
-      <c r="AB54" s="8">
+      <c r="AC54" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>1</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
       <c r="AE54">
         <v>0</v>
       </c>
@@ -7460,14 +7622,17 @@
       <c r="AK54">
         <v>0</v>
       </c>
-      <c r="AL54" s="14">
+      <c r="AL54">
         <v>0</v>
       </c>
       <c r="AM54" s="14">
         <v>0</v>
       </c>
+      <c r="AN54" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2019</v>
       </c>
@@ -7486,102 +7651,105 @@
       <c r="F55" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H55" s="5">
+      <c r="I55" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>5</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>0.25</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>0.17</v>
-      </c>
-      <c r="L55" s="9">
-        <v>496.36</v>
       </c>
       <c r="M55" s="9">
         <v>496.36</v>
       </c>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9">
+      <c r="N55" s="9">
+        <v>496.36</v>
+      </c>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9">
         <v>193.66</v>
       </c>
-      <c r="P55" s="11">
+      <c r="Q55" s="11">
         <v>13854.96</v>
       </c>
-      <c r="Q55" s="9">
+      <c r="R55" s="9">
         <v>13854.96</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S55" s="3">
         <v>45</v>
       </c>
-      <c r="S55" s="3">
-        <v>65</v>
-      </c>
-      <c r="T55" s="5">
+      <c r="T55" s="3">
+        <v>65</v>
+      </c>
+      <c r="U55" s="5">
         <v>0.375</v>
       </c>
-      <c r="U55" s="5">
+      <c r="V55" s="5">
         <v>0.6</v>
       </c>
-      <c r="V55" s="3">
+      <c r="W55" s="3">
         <v>60</v>
       </c>
-      <c r="W55" s="3">
-        <v>65</v>
-      </c>
       <c r="X55" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="3">
         <v>70</v>
       </c>
-      <c r="Z55" s="9">
+      <c r="AA55" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA55" s="9">
+      <c r="AB55" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB55" s="9">
+      <c r="AC55" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>1</v>
-      </c>
-      <c r="AD55" s="10">
-        <v>1.5E-3</v>
       </c>
       <c r="AE55" s="10">
         <v>1.5E-3</v>
       </c>
-      <c r="AF55">
-        <v>0</v>
+      <c r="AF55" s="10">
+        <v>1.5E-3</v>
       </c>
       <c r="AG55">
         <v>0</v>
       </c>
-      <c r="AH55" s="10">
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="12">
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK55" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL55" s="15">
+      <c r="AL55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM55" s="15">
+      <c r="AN55" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2020</v>
       </c>
@@ -7601,106 +7769,109 @@
       <c r="F56" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="8">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H56" s="5">
+      <c r="I56" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>5</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>0.25</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>0.17</v>
-      </c>
-      <c r="L56" s="3">
-        <f>L55*1.03</f>
-        <v>511.25080000000003</v>
       </c>
       <c r="M56" s="3">
         <f>M55*1.03</f>
         <v>511.25080000000003</v>
       </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9">
+      <c r="N56" s="3">
+        <f>N55*1.03</f>
+        <v>511.25080000000003</v>
+      </c>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9">
         <v>193.66</v>
-      </c>
-      <c r="P56" s="3">
-        <f>P55*1.03</f>
-        <v>14270.6088</v>
       </c>
       <c r="Q56" s="3">
         <f>Q55*1.03</f>
         <v>14270.6088</v>
       </c>
       <c r="R56" s="3">
+        <f>R55*1.03</f>
+        <v>14270.6088</v>
+      </c>
+      <c r="S56" s="3">
         <v>45</v>
       </c>
-      <c r="S56" s="3">
-        <v>65</v>
-      </c>
-      <c r="T56" s="5">
+      <c r="T56" s="3">
+        <v>65</v>
+      </c>
+      <c r="U56" s="5">
         <v>0.375</v>
       </c>
-      <c r="U56" s="5">
+      <c r="V56" s="5">
         <v>0.6</v>
       </c>
-      <c r="V56" s="3">
+      <c r="W56" s="3">
         <v>60</v>
       </c>
-      <c r="W56" s="3">
-        <v>65</v>
-      </c>
       <c r="X56" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y56" s="3">
         <v>70</v>
       </c>
-      <c r="Z56" s="9">
+      <c r="AA56" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA56" s="9">
+      <c r="AB56" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB56" s="9">
+      <c r="AC56" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>1</v>
-      </c>
-      <c r="AD56" s="10">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE56" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AF56">
-        <v>0</v>
+      <c r="AF56" s="10">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AG56">
         <v>0</v>
       </c>
-      <c r="AH56" s="10">
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="12">
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK56" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="15">
+      <c r="AL56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM56" s="15">
+      <c r="AN56" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
@@ -7720,106 +7891,109 @@
       <c r="F57" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="8">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H57" s="5">
+      <c r="I57" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>0.25</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>0.17</v>
       </c>
-      <c r="L57" s="3">
-        <f t="shared" ref="L57:M61" si="1">L56*1.03</f>
+      <c r="M57" s="3">
+        <f t="shared" ref="M57:N61" si="1">M56*1.03</f>
         <v>526.58832400000006</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <f t="shared" si="1"/>
         <v>526.58832400000006</v>
       </c>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9">
+      <c r="O57" s="9"/>
+      <c r="P57" s="9">
         <v>193.66</v>
       </c>
-      <c r="P57" s="3">
-        <f t="shared" ref="P57:Q61" si="2">P56*1.03</f>
+      <c r="Q57" s="3">
+        <f t="shared" ref="Q57:R61" si="2">Q56*1.03</f>
         <v>14698.727064000001</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <f t="shared" si="2"/>
         <v>14698.727064000001</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45</v>
       </c>
-      <c r="S57" s="3">
-        <v>65</v>
-      </c>
-      <c r="T57" s="5">
+      <c r="T57" s="3">
+        <v>65</v>
+      </c>
+      <c r="U57" s="5">
         <v>0.375</v>
       </c>
-      <c r="U57" s="5">
+      <c r="V57" s="5">
         <v>0.6</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>60</v>
       </c>
-      <c r="W57" s="3">
-        <v>65</v>
-      </c>
       <c r="X57" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y57" s="3">
         <v>70</v>
       </c>
-      <c r="Z57" s="9">
+      <c r="AA57" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA57" s="9">
+      <c r="AB57" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB57" s="9">
+      <c r="AC57" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>1</v>
-      </c>
-      <c r="AD57" s="10">
-        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE57" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF57">
-        <v>0</v>
+      <c r="AF57" s="10">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG57">
         <v>0</v>
       </c>
-      <c r="AH57" s="10">
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="10">
         <v>0.01</v>
       </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="12">
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK57" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="15">
+      <c r="AL57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM57" s="15">
+      <c r="AN57" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
@@ -7839,106 +8013,109 @@
       <c r="F58" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="8">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>0.25</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>0.17</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" si="1"/>
-        <v>542.38597372000004</v>
       </c>
       <c r="M58" s="3">
         <f t="shared" si="1"/>
         <v>542.38597372000004</v>
       </c>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9">
+      <c r="N58" s="3">
+        <f t="shared" si="1"/>
+        <v>542.38597372000004</v>
+      </c>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9">
         <v>193.66</v>
-      </c>
-      <c r="P58" s="3">
-        <f t="shared" si="2"/>
-        <v>15139.688875920001</v>
       </c>
       <c r="Q58" s="3">
         <f t="shared" si="2"/>
         <v>15139.688875920001</v>
       </c>
       <c r="R58" s="3">
+        <f t="shared" si="2"/>
+        <v>15139.688875920001</v>
+      </c>
+      <c r="S58" s="3">
         <v>45</v>
       </c>
-      <c r="S58" s="3">
-        <v>65</v>
-      </c>
-      <c r="T58" s="5">
+      <c r="T58" s="3">
+        <v>65</v>
+      </c>
+      <c r="U58" s="5">
         <v>0.375</v>
       </c>
-      <c r="U58" s="5">
+      <c r="V58" s="5">
         <v>0.6</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>60</v>
       </c>
-      <c r="W58" s="3">
-        <v>65</v>
-      </c>
       <c r="X58" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y58" s="3">
         <v>70</v>
       </c>
-      <c r="Z58" s="9">
+      <c r="AA58" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA58" s="9">
+      <c r="AB58" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB58" s="9">
+      <c r="AC58" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>1</v>
-      </c>
-      <c r="AD58" s="10">
-        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AE58" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
+      <c r="AF58" s="10">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AG58">
         <v>0</v>
       </c>
-      <c r="AH58" s="10">
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="12">
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK58" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL58" s="15">
+      <c r="AL58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM58" s="15">
+      <c r="AN58" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2023</v>
       </c>
@@ -7958,106 +8135,109 @@
       <c r="F59" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="8">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>0.25</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>0.17</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="1"/>
-        <v>558.65755293160009</v>
       </c>
       <c r="M59" s="3">
         <f t="shared" si="1"/>
         <v>558.65755293160009</v>
       </c>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9">
+      <c r="N59" s="3">
+        <f t="shared" si="1"/>
+        <v>558.65755293160009</v>
+      </c>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9">
         <v>193.66</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" si="2"/>
-        <v>15593.879542197601</v>
       </c>
       <c r="Q59" s="3">
         <f t="shared" si="2"/>
         <v>15593.879542197601</v>
       </c>
       <c r="R59" s="3">
+        <f t="shared" si="2"/>
+        <v>15593.879542197601</v>
+      </c>
+      <c r="S59" s="3">
         <v>45</v>
       </c>
-      <c r="S59" s="3">
-        <v>65</v>
-      </c>
-      <c r="T59" s="5">
+      <c r="T59" s="3">
+        <v>65</v>
+      </c>
+      <c r="U59" s="5">
         <v>0.375</v>
       </c>
-      <c r="U59" s="5">
+      <c r="V59" s="5">
         <v>0.6</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>60</v>
       </c>
-      <c r="W59" s="3">
-        <v>65</v>
-      </c>
       <c r="X59" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y59" s="3">
         <v>70</v>
       </c>
-      <c r="Z59" s="9">
+      <c r="AA59" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA59" s="9">
+      <c r="AB59" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB59" s="9">
+      <c r="AC59" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>1</v>
-      </c>
-      <c r="AD59" s="10">
-        <v>0.01</v>
       </c>
       <c r="AE59" s="10">
         <v>0.01</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
+      <c r="AF59" s="10">
+        <v>0.01</v>
       </c>
       <c r="AG59">
         <v>0</v>
       </c>
-      <c r="AH59" s="10">
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="10">
         <v>0.02</v>
       </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="12">
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK59" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="15">
+      <c r="AL59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM59" s="15">
+      <c r="AN59" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2024</v>
       </c>
@@ -8077,106 +8257,109 @@
       <c r="F60" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="8">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>0.25</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>0.17</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="1"/>
-        <v>575.41727951954806</v>
       </c>
       <c r="M60" s="3">
         <f t="shared" si="1"/>
         <v>575.41727951954806</v>
       </c>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9">
+      <c r="N60" s="3">
+        <f t="shared" si="1"/>
+        <v>575.41727951954806</v>
+      </c>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9">
         <v>193.66</v>
-      </c>
-      <c r="P60" s="3">
-        <f t="shared" si="2"/>
-        <v>16061.695928463529</v>
       </c>
       <c r="Q60" s="3">
         <f t="shared" si="2"/>
         <v>16061.695928463529</v>
       </c>
       <c r="R60" s="3">
+        <f t="shared" si="2"/>
+        <v>16061.695928463529</v>
+      </c>
+      <c r="S60" s="3">
         <v>45</v>
       </c>
-      <c r="S60" s="3">
-        <v>65</v>
-      </c>
-      <c r="T60" s="5">
+      <c r="T60" s="3">
+        <v>65</v>
+      </c>
+      <c r="U60" s="5">
         <v>0.375</v>
       </c>
-      <c r="U60" s="5">
+      <c r="V60" s="5">
         <v>0.6</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>60</v>
       </c>
-      <c r="W60" s="3">
-        <v>65</v>
-      </c>
       <c r="X60" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y60" s="3">
         <v>70</v>
       </c>
-      <c r="Z60" s="9">
+      <c r="AA60" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA60" s="9">
+      <c r="AB60" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB60" s="9">
+      <c r="AC60" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC60" s="10">
+      <c r="AD60" s="10">
         <v>1.07</v>
-      </c>
-      <c r="AD60" s="10">
-        <v>0.01</v>
       </c>
       <c r="AE60" s="10">
         <v>0.01</v>
       </c>
       <c r="AF60" s="10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AG60" s="10">
         <v>0.04</v>
       </c>
       <c r="AH60" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AI60" s="10">
         <v>0.02</v>
       </c>
-      <c r="AI60" s="10">
+      <c r="AJ60" s="10">
         <v>0.08</v>
       </c>
-      <c r="AJ60" s="12">
+      <c r="AK60" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK60" s="12">
+      <c r="AL60" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AL60" s="15">
+      <c r="AM60" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM60" s="15">
+      <c r="AN60" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2025</v>
       </c>
@@ -8196,102 +8379,105 @@
       <c r="F61" s="5">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="8">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H61" s="5">
+      <c r="I61" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>0.25</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>0.17</v>
-      </c>
-      <c r="L61" s="3">
-        <f t="shared" si="1"/>
-        <v>592.67979790513448</v>
       </c>
       <c r="M61" s="3">
         <f t="shared" si="1"/>
         <v>592.67979790513448</v>
       </c>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9">
+      <c r="N61" s="3">
+        <f t="shared" si="1"/>
+        <v>592.67979790513448</v>
+      </c>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9">
         <v>193.66</v>
-      </c>
-      <c r="P61" s="3">
-        <f t="shared" si="2"/>
-        <v>16543.546806317434</v>
       </c>
       <c r="Q61" s="3">
         <f t="shared" si="2"/>
         <v>16543.546806317434</v>
       </c>
       <c r="R61" s="3">
+        <f t="shared" si="2"/>
+        <v>16543.546806317434</v>
+      </c>
+      <c r="S61" s="3">
         <v>45</v>
       </c>
-      <c r="S61" s="3">
-        <v>65</v>
-      </c>
-      <c r="T61" s="5">
+      <c r="T61" s="3">
+        <v>65</v>
+      </c>
+      <c r="U61" s="5">
         <v>0.375</v>
       </c>
-      <c r="U61" s="5">
+      <c r="V61" s="5">
         <v>0.6</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>60</v>
       </c>
-      <c r="W61" s="3">
-        <v>65</v>
-      </c>
       <c r="X61" s="3">
+        <v>65</v>
+      </c>
+      <c r="Y61" s="3">
         <v>70</v>
       </c>
-      <c r="Z61" s="9">
+      <c r="AA61" s="9">
         <v>0.75</v>
       </c>
-      <c r="AA61" s="9">
+      <c r="AB61" s="9">
         <v>496.36</v>
       </c>
-      <c r="AB61" s="9">
+      <c r="AC61" s="9">
         <v>2.3E-2</v>
       </c>
-      <c r="AC61" s="10">
+      <c r="AD61" s="10">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="AD61" s="10">
-        <v>0.01</v>
       </c>
       <c r="AE61" s="10">
         <v>0.01</v>
       </c>
       <c r="AF61" s="10">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AG61" s="10">
         <v>0.04</v>
       </c>
       <c r="AH61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AI61" s="10">
         <v>0.02</v>
       </c>
-      <c r="AI61" s="10">
+      <c r="AJ61" s="10">
         <v>0.08</v>
       </c>
-      <c r="AJ61" s="12">
+      <c r="AK61" s="12">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AK61" s="12">
+      <c r="AL61" s="12">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AL61" s="15">
+      <c r="AM61" s="15">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AM61" s="15">
+      <c r="AN61" s="15">
         <v>6.6E-3</v>
       </c>
     </row>
